--- a/log/lqr_steering_speed/Spielberg_errors.xlsx
+++ b/log/lqr_steering_speed/Spielberg_errors.xlsx
@@ -455,7 +455,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>-0.001300046454722929</v>
+        <v>-0.00130004645472293</v>
       </c>
       <c r="B13">
         <v>0.003373641121873217</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>-0.002298028878863516</v>
+        <v>-0.002298028878863517</v>
       </c>
       <c r="B19">
         <v>0.00099943842338579</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>-0.002211410212550607</v>
+        <v>-0.002211410212550606</v>
       </c>
       <c r="B21">
         <v>0.001225602795187353</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>-0.001092367675927665</v>
+        <v>-0.001092367675927666</v>
       </c>
       <c r="B28">
         <v>0.002859293754358561</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>-0.002232586619340448</v>
+        <v>-0.002232586619340449</v>
       </c>
       <c r="B33">
         <v>-0.0003052179098799179</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>0.0004804215085168221</v>
+        <v>0.000480421508516822</v>
       </c>
       <c r="B47">
         <v>0.0044847049995691</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0.0004541234005133191</v>
+        <v>0.000454123400513319</v>
       </c>
       <c r="B48">
         <v>0.004020699700940877</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>-0.001135798169604565</v>
+        <v>-0.001135798169604566</v>
       </c>
       <c r="B58">
         <v>-0.001339826060804405</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>-0.0005447386458730414</v>
+        <v>-0.0005447386458730413</v>
       </c>
       <c r="B71">
         <v>-0.001885361012200715</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>-0.001670154217333671</v>
+        <v>-0.00167015421733367</v>
       </c>
       <c r="B73">
         <v>-0.004654380365209043</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>0.0007992944838820027</v>
+        <v>0.0007992944838820028</v>
       </c>
       <c r="B82">
         <v>0.003534553163651921</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>-0.001716050633653631</v>
+        <v>-0.00171605063365363</v>
       </c>
       <c r="B97">
         <v>-0.004650735187015087</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>-0.0002817523104304481</v>
+        <v>-0.0002817523104306787</v>
       </c>
       <c r="B100">
         <v>-0.0004281563990340409</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>-0.0001654968703774973</v>
+        <v>-0.0001654968703774974</v>
       </c>
       <c r="B112">
         <v>-0.002405219451901086</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>-0.0009119608749772243</v>
+        <v>-0.0009119608749772242</v>
       </c>
       <c r="B113">
         <v>-0.004394069062019668</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>0.00309515716775559</v>
+        <v>0.003095157167755591</v>
       </c>
       <c r="B130">
         <v>0.0120985995920786</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>-0.0007405312340272619</v>
+        <v>-0.0007405312340272618</v>
       </c>
       <c r="B142">
         <v>-0.005739281793990525</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>-0.001972344623017047</v>
+        <v>-0.001972344623017048</v>
       </c>
       <c r="B148">
         <v>-0.008885735569517106</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>-0.0005937833747865365</v>
+        <v>-0.0005937833747865366</v>
       </c>
       <c r="B151">
         <v>-0.004194482502330565</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>0.002769667939371935</v>
+        <v>0.002769667939371934</v>
       </c>
       <c r="B161">
         <v>0.004691103620410697</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>0.0008241994092694038</v>
+        <v>0.0008241994092694039</v>
       </c>
       <c r="B164">
         <v>-0.0009589422340257059</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>-0.000954998261318012</v>
+        <v>-0.0009549982613180121</v>
       </c>
       <c r="B166">
         <v>-0.005680536229753397</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>0.0008447677567960068</v>
+        <v>0.0008447677567960069</v>
       </c>
       <c r="B178">
         <v>0.003812858398330565</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>-0.003947554628071527</v>
+        <v>-0.003947554628071528</v>
       </c>
       <c r="B194">
         <v>-0.00904575751911052</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>0.0007317068753026278</v>
+        <v>0.0007317068753026277</v>
       </c>
       <c r="B203">
         <v>0.006448759402895909</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>-0.00275036794742713</v>
+        <v>-0.002750367947427129</v>
       </c>
       <c r="B214">
         <v>-0.004722584744906833</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>-0.004474294189846798</v>
+        <v>-0.004474294189846799</v>
       </c>
       <c r="B217">
         <v>-0.008919686296325224</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>0.0008040850582101915</v>
+        <v>0.0008040850582101914</v>
       </c>
       <c r="B228">
         <v>0.007848516468784705</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>-0.004619252722267666</v>
+        <v>-0.004619252722267665</v>
       </c>
       <c r="B242">
         <v>-0.008580964060338481</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>0.0003875624255001105</v>
+        <v>0.0003875624255001106</v>
       </c>
       <c r="B251">
         <v>0.0068639708959366</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>0.000848110796658292</v>
+        <v>0.0008481107966582919</v>
       </c>
       <c r="B252">
         <v>0.008021688971511232</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>0.0007185877093752114</v>
+        <v>0.0007185877093752115</v>
       </c>
       <c r="B257">
         <v>0.006231382147149578</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>-0.002758524250345276</v>
+        <v>-0.002758524250345275</v>
       </c>
       <c r="B262">
         <v>-0.004380497852947141</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>5.513140904257257E-05</v>
+        <v>5.513140904257256E-05</v>
       </c>
       <c r="B298">
         <v>0.004638516927407021</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>-0.00391651667044624</v>
+        <v>-0.003916516670446239</v>
       </c>
       <c r="B313">
         <v>-0.00869720211683056</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>-0.002824292343237477</v>
+        <v>-0.002824292343237478</v>
       </c>
       <c r="B318">
         <v>-0.004313365320450124</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>0.00184030886104876</v>
+        <v>0.001840308861048759</v>
       </c>
       <c r="B327">
         <v>0.008247239131644601</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>-0.003665765211595563</v>
+        <v>-0.003665765211595562</v>
       </c>
       <c r="B336">
         <v>-0.008077002867461491</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>0.0007028566709617</v>
+        <v>0.0007028566709616999</v>
       </c>
       <c r="B347">
         <v>0.006524832858312291</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356">
-        <v>-0.001058446645093758</v>
+        <v>-0.001058446645093757</v>
       </c>
       <c r="B356">
         <v>-1.424299261687523E-05</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358">
-        <v>-0.002810081212175486</v>
+        <v>-0.002810081212175485</v>
       </c>
       <c r="B358">
         <v>-0.004837087995584355</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>-0.0007587188923448452</v>
+        <v>-0.0007587188923448453</v>
       </c>
       <c r="B370">
         <v>0.004160762644133342</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381">
-        <v>0.003104704217500306</v>
+        <v>0.003104704217500305</v>
       </c>
       <c r="B381">
         <v>0.007893250800888207</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386">
-        <v>-0.0008130690001058319</v>
+        <v>-0.000813069000105832</v>
       </c>
       <c r="B386">
         <v>-0.006166647687183779</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393">
-        <v>-0.004652856321451348</v>
+        <v>-0.004652856321451349</v>
       </c>
       <c r="B393">
         <v>-0.01421456644600694</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399">
-        <v>-0.006548685729079481</v>
+        <v>-0.00654868572907948</v>
       </c>
       <c r="B399">
         <v>-0.01257084636212458</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402">
-        <v>-0.008204438399390347</v>
+        <v>-0.008204438399390349</v>
       </c>
       <c r="B402">
         <v>-0.009227425129850975</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404">
-        <v>-0.009652009674011714</v>
+        <v>-0.009652009674011712</v>
       </c>
       <c r="B404">
         <v>-0.009347166287520192</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408">
-        <v>-0.01387656691829544</v>
+        <v>-0.01387656691829545</v>
       </c>
       <c r="B408">
         <v>-0.004096872725034562</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>-0.01519357850127804</v>
+        <v>-0.01519357850127803</v>
       </c>
       <c r="B409">
         <v>-0.008787603481273276</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414">
-        <v>-0.01926058250620412</v>
+        <v>-0.01926058250620411</v>
       </c>
       <c r="B414">
         <v>-0.001356552078782158</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421">
-        <v>-0.02895141065825744</v>
+        <v>-0.02895141065825743</v>
       </c>
       <c r="B421">
         <v>0.01085265541259739</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425">
-        <v>-0.03461073200025243</v>
+        <v>-0.03461073200025244</v>
       </c>
       <c r="B425">
         <v>0.01073368211576886</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429">
-        <v>-0.04042163868326376</v>
+        <v>-0.04042163868326377</v>
       </c>
       <c r="B429">
         <v>0.009165507219698998</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434">
-        <v>-0.04678492378280537</v>
+        <v>-0.04678492378280538</v>
       </c>
       <c r="B434">
         <v>0.0169628993301929</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436">
-        <v>-0.0492122821333841</v>
+        <v>-0.04921228213338409</v>
       </c>
       <c r="B436">
         <v>0.0327496790811197</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438">
-        <v>-0.05191148025737012</v>
+        <v>-0.05191148025737011</v>
       </c>
       <c r="B438">
         <v>0.03312247450528227</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>-0.06764961524989212</v>
+        <v>-0.06764961524989213</v>
       </c>
       <c r="B450">
         <v>0.04494958797014359</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452">
-        <v>-0.07016470298474503</v>
+        <v>-0.07016470298474504</v>
       </c>
       <c r="B452">
         <v>0.04277158163864936</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454">
-        <v>-0.07293858487678329</v>
+        <v>-0.07293858487678327</v>
       </c>
       <c r="B454">
         <v>0.03907354418073394</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>-0.07581266901986113</v>
+        <v>-0.07581266901986114</v>
       </c>
       <c r="B456">
         <v>0.05772458831587812</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>-0.07703674269146994</v>
+        <v>-0.07703674269146996</v>
       </c>
       <c r="B457">
         <v>0.04609162263366207</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>-0.07788523174377622</v>
+        <v>-0.07788523174377621</v>
       </c>
       <c r="B458">
         <v>0.05716831367923625</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461">
-        <v>-0.08090510981198701</v>
+        <v>-0.08090510981198699</v>
       </c>
       <c r="B461">
         <v>0.06591620750115013</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462">
-        <v>-0.08258212596374898</v>
+        <v>-0.08258212596374896</v>
       </c>
       <c r="B462">
         <v>0.05189831104490938</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482">
-        <v>-0.1191442093725595</v>
+        <v>-0.1191442093725596</v>
       </c>
       <c r="B482">
         <v>0.05631215170130988</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521">
-        <v>-0.1179063458910687</v>
+        <v>-0.1179063458910686</v>
       </c>
       <c r="B521">
         <v>0.1110580024994894</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536">
-        <v>-0.09520884041697528</v>
+        <v>-0.09520884041697526</v>
       </c>
       <c r="B536">
         <v>0.09043431984624428</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539">
-        <v>-0.08719189030204164</v>
+        <v>-0.08719189030204162</v>
       </c>
       <c r="B539">
         <v>0.09637953209785355</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541">
-        <v>-0.08259962454116918</v>
+        <v>-0.08259962454116916</v>
       </c>
       <c r="B541">
         <v>0.09306957647624881</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550">
-        <v>-0.06491510605400505</v>
+        <v>-0.06491510605400506</v>
       </c>
       <c r="B550">
         <v>0.08441298505491801</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556">
-        <v>-0.05594085022378689</v>
+        <v>-0.0559408502237869</v>
       </c>
       <c r="B556">
         <v>0.06113186447803676</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559">
-        <v>-0.05317198425260067</v>
+        <v>-0.05317198425260068</v>
       </c>
       <c r="B559">
         <v>0.05146470668223824</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560">
-        <v>-0.05182470956822764</v>
+        <v>-0.05182470956822765</v>
       </c>
       <c r="B560">
         <v>0.05179022513462561</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567">
-        <v>-0.04144267558979989</v>
+        <v>-0.04144267558979938</v>
       </c>
       <c r="B567">
         <v>0.04087869625203222</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586">
-        <v>-0.01831391444585442</v>
+        <v>-0.01831391444585443</v>
       </c>
       <c r="B586">
         <v>0.01795974145271861</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603">
-        <v>-0.006697736282408292</v>
+        <v>-0.006697736282408293</v>
       </c>
       <c r="B603">
         <v>0.0006640389540644165</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609">
-        <v>-0.01077987385012971</v>
+        <v>-0.01077987385012958</v>
       </c>
       <c r="B609">
         <v>-0.01176722667872498</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636">
-        <v>-0.009474751656795188</v>
+        <v>-0.009474751656795186</v>
       </c>
       <c r="B636">
         <v>0.01680987083900298</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647">
-        <v>-0.01262211364116662</v>
+        <v>-0.01262211364116663</v>
       </c>
       <c r="B647">
         <v>0.006952888546000402</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681">
-        <v>-0.009720021290644174</v>
+        <v>-0.009720021290644176</v>
       </c>
       <c r="B681">
         <v>0.01118686865785801</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692">
-        <v>-0.00750285063522547</v>
+        <v>-0.007502850635225469</v>
       </c>
       <c r="B692">
         <v>0.01277630463600987</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702">
-        <v>-0.01033990823719382</v>
+        <v>-0.01033990823719381</v>
       </c>
       <c r="B702">
         <v>0.001441112385974108</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703">
-        <v>-0.009958652762172161</v>
+        <v>-0.009958652762172159</v>
       </c>
       <c r="B703">
         <v>0.001388467255300174</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704">
-        <v>-0.009421861402213606</v>
+        <v>-0.009421861402213608</v>
       </c>
       <c r="B704">
         <v>0.003535359687559581</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716">
-        <v>-0.003544769043042724</v>
+        <v>-0.003544769043042723</v>
       </c>
       <c r="B716">
         <v>0.01362356332887948</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720">
-        <v>-0.006140386275355883</v>
+        <v>-0.006140386275355882</v>
       </c>
       <c r="B720">
         <v>0.004777369217863647</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725">
-        <v>-0.007936656681954653</v>
+        <v>-0.007936656681954654</v>
       </c>
       <c r="B725">
         <v>-0.001587286297924706</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730">
-        <v>-0.006131271425538905</v>
+        <v>-0.006131271425538906</v>
       </c>
       <c r="B730">
         <v>0.003289552235109294</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731">
-        <v>-0.005591899241157706</v>
+        <v>-0.005591899241157705</v>
       </c>
       <c r="B731">
         <v>0.003991462054583117</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740">
-        <v>-0.002545636901646196</v>
+        <v>-0.002545636901646195</v>
       </c>
       <c r="B740">
         <v>0.01051629237896323</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752">
-        <v>-0.00741561230674463</v>
+        <v>-0.007415612306744629</v>
       </c>
       <c r="B752">
         <v>-0.002032341269846416</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766">
-        <v>-0.0006973376651486865</v>
+        <v>-0.0006973376651486866</v>
       </c>
       <c r="B766">
         <v>0.01412659375331504</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="778" spans="1:2">
       <c r="A778">
-        <v>-0.006506622427656629</v>
+        <v>-0.00650662242765663</v>
       </c>
       <c r="B778">
         <v>-0.006121649627809145</v>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="779" spans="1:2">
       <c r="A779">
-        <v>-0.006364956769416046</v>
+        <v>-0.006364956769416047</v>
       </c>
       <c r="B779">
         <v>-0.005107478784353692</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="784" spans="1:2">
       <c r="A784">
-        <v>-0.003685739557820734</v>
+        <v>-0.003685739557820735</v>
       </c>
       <c r="B784">
         <v>0.00345892381894819</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791">
-        <v>-0.0007046270237706475</v>
+        <v>-0.0007046270237706477</v>
       </c>
       <c r="B791">
         <v>0.01055623578729881</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="794" spans="1:2">
       <c r="A794">
-        <v>-0.002190007628755265</v>
+        <v>-0.002190007628755264</v>
       </c>
       <c r="B794">
         <v>0.00580692377845704</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="808" spans="1:2">
       <c r="A808">
-        <v>-0.002912466600199255</v>
+        <v>-0.002912466600199254</v>
       </c>
       <c r="B808">
         <v>0.004682678786067651</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="826" spans="1:2">
       <c r="A826">
-        <v>-0.007545234648177008</v>
+        <v>-0.007545234648177007</v>
       </c>
       <c r="B826">
         <v>-0.009306224380165595</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="841" spans="1:2">
       <c r="A841">
-        <v>-0.0005655532776348987</v>
+        <v>-0.0005655532776348986</v>
       </c>
       <c r="B841">
         <v>0.01232381760760104</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="852" spans="1:2">
       <c r="A852">
-        <v>-0.005914134179627674</v>
+        <v>-0.005914134179627673</v>
       </c>
       <c r="B852">
         <v>-0.006613590342216646</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="870" spans="1:2">
       <c r="A870">
-        <v>-0.0008170389805962613</v>
+        <v>-0.0008170389805962614</v>
       </c>
       <c r="B870">
         <v>0.001609136681549383</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="874" spans="1:2">
       <c r="A874">
-        <v>-0.003348659220112497</v>
+        <v>-0.003348659220112498</v>
       </c>
       <c r="B874">
         <v>-0.006444195492672389</v>
@@ -8247,7 +8247,7 @@
     </row>
     <row r="987" spans="1:2">
       <c r="A987">
-        <v>0.003509768441316476</v>
+        <v>0.003509768441316477</v>
       </c>
       <c r="B987">
         <v>-0.01255163139134163</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="989" spans="1:2">
       <c r="A989">
-        <v>0.004945659426518225</v>
+        <v>0.004945659426518224</v>
       </c>
       <c r="B989">
         <v>-0.008042732145479459</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="993" spans="1:2">
       <c r="A993">
-        <v>0.008575579138637324</v>
+        <v>0.008575579138637322</v>
       </c>
       <c r="B993">
         <v>0.002383450263624631</v>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="994" spans="1:2">
       <c r="A994">
-        <v>0.009199167128204046</v>
+        <v>0.009199167128204047</v>
       </c>
       <c r="B994">
         <v>0.003143610774056338</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="997" spans="1:2">
       <c r="A997">
-        <v>0.00975024034928074</v>
+        <v>0.009750240349280738</v>
       </c>
       <c r="B997">
         <v>0.003283508015985426</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002">
-        <v>0.008792156155003967</v>
+        <v>0.008792156155003969</v>
       </c>
       <c r="B1002">
         <v>-0.002043283605169144</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028">
-        <v>0.007762667427649571</v>
+        <v>0.007762667427649572</v>
       </c>
       <c r="B1028">
         <v>-0.007998623384283921</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041">
-        <v>0.009241080947772345</v>
+        <v>0.009241080947772344</v>
       </c>
       <c r="B1041">
         <v>-0.001114939695219253</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048">
-        <v>0.01326585980671426</v>
+        <v>0.01326585980671425</v>
       </c>
       <c r="B1048">
         <v>0.006990788417584604</v>
@@ -8847,7 +8847,7 @@
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062">
-        <v>0.01003856801386419</v>
+        <v>0.01003856801386418</v>
       </c>
       <c r="B1062">
         <v>-0.01624844038374018</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069">
-        <v>0.006718536530837798</v>
+        <v>0.006718536530837799</v>
       </c>
       <c r="B1069">
         <v>-0.0224299809434072</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070">
-        <v>0.006900104224894475</v>
+        <v>0.006900104224894474</v>
       </c>
       <c r="B1070">
         <v>-0.02203977098508147</v>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108">
-        <v>0.01432865163473727</v>
+        <v>0.01432865163473728</v>
       </c>
       <c r="B1108">
         <v>-0.001240193460169348</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118">
-        <v>0.01517410511758812</v>
+        <v>0.01517410511758811</v>
       </c>
       <c r="B1118">
         <v>-0.004136944148042332</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124">
-        <v>0.01334658817612091</v>
+        <v>0.0133465881761209</v>
       </c>
       <c r="B1124">
         <v>-0.01397941043377182</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132">
-        <v>0.01233539673565345</v>
+        <v>0.01233539673565344</v>
       </c>
       <c r="B1132">
         <v>-0.01707958132797138</v>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143">
-        <v>0.01518713629821786</v>
+        <v>0.01518713629821787</v>
       </c>
       <c r="B1143">
         <v>-0.007261610736626789</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160">
-        <v>0.009189519182576177</v>
+        <v>0.009189519182576178</v>
       </c>
       <c r="B1160">
         <v>-0.02094657524363619</v>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161">
-        <v>0.009962512525965903</v>
+        <v>0.009962512525965901</v>
       </c>
       <c r="B1161">
         <v>-0.01608825397331071</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="1190" spans="1:2">
       <c r="A1190">
-        <v>0.01468330841451376</v>
+        <v>0.01468330841451375</v>
       </c>
       <c r="B1190">
         <v>-0.02269319046112228</v>
@@ -9959,7 +9959,7 @@
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201">
-        <v>0.01921079985958034</v>
+        <v>0.01921079985958033</v>
       </c>
       <c r="B1201">
         <v>-0.006049682748981322</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="1203" spans="1:2">
       <c r="A1203">
-        <v>0.0202030933284687</v>
+        <v>0.02020309332846869</v>
       </c>
       <c r="B1203">
         <v>-0.002652100744644059</v>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222">
-        <v>0.01320230434995057</v>
+        <v>0.01320230434995056</v>
       </c>
       <c r="B1222">
         <v>-0.02509392701149604</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252">
-        <v>0.006529908503715893</v>
+        <v>0.006529908503715894</v>
       </c>
       <c r="B1252">
         <v>-0.02226601315700494</v>
@@ -10391,7 +10391,7 @@
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255">
-        <v>0.006317694697484477</v>
+        <v>0.006317694697484476</v>
       </c>
       <c r="B1255">
         <v>-0.01919851920400051</v>
@@ -10399,7 +10399,7 @@
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256">
-        <v>0.006469916224271073</v>
+        <v>0.006469916224271072</v>
       </c>
       <c r="B1256">
         <v>-0.016594065770549</v>
@@ -10447,7 +10447,7 @@
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262">
-        <v>0.01023992302262569</v>
+        <v>0.0102399230226257</v>
       </c>
       <c r="B1262">
         <v>-0.0002046057835749515</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="1269" spans="1:2">
       <c r="A1269">
-        <v>0.009820616492334826</v>
+        <v>0.009820616492334828</v>
       </c>
       <c r="B1269">
         <v>0.001695428370841245</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="1285" spans="1:2">
       <c r="A1285">
-        <v>0.0005182613073864029</v>
+        <v>0.0005182613073864028</v>
       </c>
       <c r="B1285">
         <v>-0.01305882993752272</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288">
-        <v>0.00175719700798708</v>
+        <v>0.001757197007987079</v>
       </c>
       <c r="B1288">
         <v>-0.005669989488363836</v>
@@ -10671,7 +10671,7 @@
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290">
-        <v>0.003128174608711995</v>
+        <v>0.003128174608711994</v>
       </c>
       <c r="B1290">
         <v>-0.0003777992529720997</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292">
-        <v>0.004822231445061186</v>
+        <v>0.004822231445061185</v>
       </c>
       <c r="B1292">
         <v>0.005560150074997772</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296">
-        <v>0.005411314506263634</v>
+        <v>0.005411314506263633</v>
       </c>
       <c r="B1296">
         <v>0.008431034623931133</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297">
-        <v>0.00506762480308713</v>
+        <v>0.005067624803087129</v>
       </c>
       <c r="B1297">
         <v>0.00746370507507077</v>
@@ -10743,7 +10743,7 @@
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299">
-        <v>0.004146489757509857</v>
+        <v>0.004146489757509858</v>
       </c>
       <c r="B1299">
         <v>0.004897079359802436</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321">
-        <v>0.0009570910284566034</v>
+        <v>0.0009570910284566035</v>
       </c>
       <c r="B1321">
         <v>0.008964926839126974</v>
@@ -10959,7 +10959,7 @@
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326">
-        <v>0.002664463889521415</v>
+        <v>0.002664463889521416</v>
       </c>
       <c r="B1326">
         <v>0.01360431431513209</v>
@@ -11047,7 +11047,7 @@
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337">
-        <v>-0.005525294168879024</v>
+        <v>-0.005525294168879023</v>
       </c>
       <c r="B1337">
         <v>-0.009880239786884459</v>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342">
-        <v>-0.007066740160384227</v>
+        <v>-0.007066740160384228</v>
       </c>
       <c r="B1342">
         <v>-0.0125926142653654</v>
@@ -11119,7 +11119,7 @@
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346">
-        <v>-0.007094769665755516</v>
+        <v>-0.007094769665755515</v>
       </c>
       <c r="B1346">
         <v>-0.008631998068370006</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351">
-        <v>-0.007516408084789308</v>
+        <v>-0.007516408084789307</v>
       </c>
       <c r="B1351">
         <v>-0.00889742957036832</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354">
-        <v>-0.008725317948558176</v>
+        <v>-0.008725317948558175</v>
       </c>
       <c r="B1354">
         <v>-0.009357358800284654</v>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365">
-        <v>-0.0105280722998992</v>
+        <v>-0.01052807229989919</v>
       </c>
       <c r="B1365">
         <v>0.01225267726529511</v>
@@ -11335,7 +11335,7 @@
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373">
-        <v>-0.01149628268009427</v>
+        <v>-0.01149628268009426</v>
       </c>
       <c r="B1373">
         <v>0.02930662591285094</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465">
-        <v>-0.03969958514974151</v>
+        <v>-0.0396995851497415</v>
       </c>
       <c r="B1465">
         <v>0.03444938936425945</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477">
-        <v>-0.03894073987494795</v>
+        <v>-0.03894073987494796</v>
       </c>
       <c r="B1477">
         <v>0.02406768384119262</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484">
-        <v>-0.03416770955831688</v>
+        <v>-0.03416770955831689</v>
       </c>
       <c r="B1484">
         <v>0.005928633898482527</v>
@@ -12359,7 +12359,7 @@
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501">
-        <v>-0.01923435527339259</v>
+        <v>-0.01923435527339258</v>
       </c>
       <c r="B1501">
         <v>0.004676071321418895</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505">
-        <v>-0.01656490793116998</v>
+        <v>-0.01656490793116997</v>
       </c>
       <c r="B1505">
         <v>0.04413249859395085</v>
@@ -12471,7 +12471,7 @@
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515">
-        <v>-0.01446501758358096</v>
+        <v>-0.01446501758358097</v>
       </c>
       <c r="B1515">
         <v>-0.003952293379451355</v>
@@ -12543,7 +12543,7 @@
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524">
-        <v>-0.01476015028824905</v>
+        <v>-0.01476015028824904</v>
       </c>
       <c r="B1524">
         <v>-0.01048796231665428</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532">
-        <v>-0.01210877432690739</v>
+        <v>-0.0121087743269074</v>
       </c>
       <c r="B1532">
         <v>-0.01049977144650649</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548">
-        <v>-0.009432930028774612</v>
+        <v>-0.009432930028774614</v>
       </c>
       <c r="B1548">
         <v>0.01654111390760216</v>
@@ -12751,7 +12751,7 @@
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550">
-        <v>-0.009420972268257046</v>
+        <v>-0.009420972268257048</v>
       </c>
       <c r="B1550">
         <v>0.007929867303195337</v>
@@ -12759,7 +12759,7 @@
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551">
-        <v>-0.009627344956595538</v>
+        <v>-0.009627344956595537</v>
       </c>
       <c r="B1551">
         <v>0.01095450336693649</v>
@@ -12791,7 +12791,7 @@
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555">
-        <v>-0.01115934570566046</v>
+        <v>-0.01115934570566047</v>
       </c>
       <c r="B1555">
         <v>0.006218496720608258</v>
@@ -13167,7 +13167,7 @@
     </row>
     <row r="1602" spans="1:2">
       <c r="A1602">
-        <v>-0.01651077726166134</v>
+        <v>-0.01651077726166133</v>
       </c>
       <c r="B1602">
         <v>0.0007574358293167549</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="1622" spans="1:2">
       <c r="A1622">
-        <v>-0.01151452560225829</v>
+        <v>-0.0115145256022583</v>
       </c>
       <c r="B1622">
         <v>0.01196084136293685</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="1624" spans="1:2">
       <c r="A1624">
-        <v>-0.01036845637063599</v>
+        <v>-0.010368456370636</v>
       </c>
       <c r="B1624">
         <v>0.01534839454716863</v>
@@ -13375,7 +13375,7 @@
     </row>
     <row r="1628" spans="1:2">
       <c r="A1628">
-        <v>-0.007608008376129541</v>
+        <v>-0.007608008376129542</v>
       </c>
       <c r="B1628">
         <v>0.01537256556383593</v>
@@ -13383,7 +13383,7 @@
     </row>
     <row r="1629" spans="1:2">
       <c r="A1629">
-        <v>-0.006832091344798943</v>
+        <v>-0.006832091344798942</v>
       </c>
       <c r="B1629">
         <v>0.01723113121426856</v>
@@ -13391,7 +13391,7 @@
     </row>
     <row r="1630" spans="1:2">
       <c r="A1630">
-        <v>-0.006140500376685343</v>
+        <v>-0.006140500376685344</v>
       </c>
       <c r="B1630">
         <v>0.0186228101290471</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="1643" spans="1:2">
       <c r="A1643">
-        <v>-0.01076538754661588</v>
+        <v>-0.01076538754661589</v>
       </c>
       <c r="B1643">
         <v>-0.006546434841868454</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="1664" spans="1:2">
       <c r="A1664">
-        <v>-0.008562540289242136</v>
+        <v>-0.008562540289242134</v>
       </c>
       <c r="B1664">
         <v>0.01259427831988447</v>
@@ -13695,7 +13695,7 @@
     </row>
     <row r="1668" spans="1:2">
       <c r="A1668">
-        <v>-0.00689740231301539</v>
+        <v>-0.006897402313015391</v>
       </c>
       <c r="B1668">
         <v>0.01429984112841964</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="1686" spans="1:2">
       <c r="A1686">
-        <v>-0.01225118765047957</v>
+        <v>-0.01225118765047956</v>
       </c>
       <c r="B1686">
         <v>0.004389468502896676</v>
@@ -13887,7 +13887,7 @@
     </row>
     <row r="1692" spans="1:2">
       <c r="A1692">
-        <v>-0.0105426129123262</v>
+        <v>-0.01054261291232619</v>
       </c>
       <c r="B1692">
         <v>0.009958760608338224</v>
@@ -13911,7 +13911,7 @@
     </row>
     <row r="1695" spans="1:2">
       <c r="A1695">
-        <v>-0.009092271041160805</v>
+        <v>-0.009092271041160806</v>
       </c>
       <c r="B1695">
         <v>0.01466484126240353</v>
@@ -14095,7 +14095,7 @@
     </row>
     <row r="1718" spans="1:2">
       <c r="A1718">
-        <v>-0.009640643058233639</v>
+        <v>-0.009640643058233637</v>
       </c>
       <c r="B1718">
         <v>0.01302677231620386</v>
@@ -14111,7 +14111,7 @@
     </row>
     <row r="1720" spans="1:2">
       <c r="A1720">
-        <v>-0.008185525714179909</v>
+        <v>-0.008185525714179907</v>
       </c>
       <c r="B1720">
         <v>0.01583199159640625</v>
@@ -14119,7 +14119,7 @@
     </row>
     <row r="1721" spans="1:2">
       <c r="A1721">
-        <v>-0.007492456968004078</v>
+        <v>-0.007492456968004079</v>
       </c>
       <c r="B1721">
         <v>0.01827184987770814</v>
@@ -14135,7 +14135,7 @@
     </row>
     <row r="1723" spans="1:2">
       <c r="A1723">
-        <v>-0.005723743054652607</v>
+        <v>-0.005723743054652608</v>
       </c>
       <c r="B1723">
         <v>0.02107399717814218</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="1729" spans="1:2">
       <c r="A1729">
-        <v>-0.00624587119206106</v>
+        <v>-0.006245871192061061</v>
       </c>
       <c r="B1729">
         <v>0.01484005689369639</v>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="1734" spans="1:2">
       <c r="A1734">
-        <v>-0.01037217737800428</v>
+        <v>-0.01037217737800427</v>
       </c>
       <c r="B1734">
         <v>0.0004261295315011182</v>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="1746" spans="1:2">
       <c r="A1746">
-        <v>-0.009218168873097879</v>
+        <v>-0.009218168873097878</v>
       </c>
       <c r="B1746">
         <v>0.005964062176012419</v>
@@ -14335,7 +14335,7 @@
     </row>
     <row r="1748" spans="1:2">
       <c r="A1748">
-        <v>-0.00805903422356025</v>
+        <v>-0.008059034223560248</v>
       </c>
       <c r="B1748">
         <v>0.009307624602953979</v>
@@ -14343,7 +14343,7 @@
     </row>
     <row r="1749" spans="1:2">
       <c r="A1749">
-        <v>-0.00748718608120187</v>
+        <v>-0.007487186081201871</v>
       </c>
       <c r="B1749">
         <v>0.0118773197293871</v>
@@ -14351,7 +14351,7 @@
     </row>
     <row r="1750" spans="1:2">
       <c r="A1750">
-        <v>-0.006647407431279003</v>
+        <v>-0.006647407431279002</v>
       </c>
       <c r="B1750">
         <v>0.0148339385203986</v>
@@ -14375,7 +14375,7 @@
     </row>
     <row r="1753" spans="1:2">
       <c r="A1753">
-        <v>-0.004203386811602459</v>
+        <v>-0.00420338681160246</v>
       </c>
       <c r="B1753">
         <v>0.0191276442383348</v>
@@ -14391,7 +14391,7 @@
     </row>
     <row r="1755" spans="1:2">
       <c r="A1755">
-        <v>-0.003535879752897637</v>
+        <v>-0.003535879752897638</v>
       </c>
       <c r="B1755">
         <v>0.02126443262248223</v>
@@ -14431,7 +14431,7 @@
     </row>
     <row r="1760" spans="1:2">
       <c r="A1760">
-        <v>-0.005361679860034675</v>
+        <v>-0.005361679860034676</v>
       </c>
       <c r="B1760">
         <v>0.01262456217246566</v>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="1774" spans="1:2">
       <c r="A1774">
-        <v>-0.01298732316809533</v>
+        <v>-0.01298732316809534</v>
       </c>
       <c r="B1774">
         <v>-0.004820512480216088</v>
@@ -14599,7 +14599,7 @@
     </row>
     <row r="1781" spans="1:2">
       <c r="A1781">
-        <v>-0.0105967896985917</v>
+        <v>-0.01059678969859171</v>
       </c>
       <c r="B1781">
         <v>0.0082893829686288</v>
@@ -14615,7 +14615,7 @@
     </row>
     <row r="1783" spans="1:2">
       <c r="A1783">
-        <v>-0.009272371428855657</v>
+        <v>-0.009272371428855659</v>
       </c>
       <c r="B1783">
         <v>0.01255499040985342</v>
@@ -14639,7 +14639,7 @@
     </row>
     <row r="1786" spans="1:2">
       <c r="A1786">
-        <v>-0.007425580938561089</v>
+        <v>-0.00742558093856109</v>
       </c>
       <c r="B1786">
         <v>0.01810753025725997</v>
@@ -14663,7 +14663,7 @@
     </row>
     <row r="1789" spans="1:2">
       <c r="A1789">
-        <v>-0.007543836066627776</v>
+        <v>-0.007543836066627777</v>
       </c>
       <c r="B1789">
         <v>0.01723100270641176</v>
@@ -14839,7 +14839,7 @@
     </row>
     <row r="1811" spans="1:2">
       <c r="A1811">
-        <v>-0.004588323968056352</v>
+        <v>-0.004588323968056351</v>
       </c>
       <c r="B1811">
         <v>0.01822979203601705</v>
@@ -14911,7 +14911,7 @@
     </row>
     <row r="1820" spans="1:2">
       <c r="A1820">
-        <v>-0.004707206587366188</v>
+        <v>-0.004707206587366187</v>
       </c>
       <c r="B1820">
         <v>0.008143705560555325</v>
@@ -14967,7 +14967,7 @@
     </row>
     <row r="1827" spans="1:2">
       <c r="A1827">
-        <v>-0.007505276887389411</v>
+        <v>-0.007505276887389412</v>
       </c>
       <c r="B1827">
         <v>-0.004296594037560553</v>
@@ -14983,7 +14983,7 @@
     </row>
     <row r="1829" spans="1:2">
       <c r="A1829">
-        <v>-0.006879343455241698</v>
+        <v>-0.006879343455241697</v>
       </c>
       <c r="B1829">
         <v>-0.003221109194072369</v>
@@ -14991,7 +14991,7 @@
     </row>
     <row r="1830" spans="1:2">
       <c r="A1830">
-        <v>-0.006311850372017798</v>
+        <v>-0.006311850372017797</v>
       </c>
       <c r="B1830">
         <v>-0.001530594622412451</v>
@@ -15063,7 +15063,7 @@
     </row>
     <row r="1839" spans="1:2">
       <c r="A1839">
-        <v>0.0003064138922935401</v>
+        <v>0.00030641389229354</v>
       </c>
       <c r="B1839">
         <v>0.01336753426064341</v>
@@ -15175,7 +15175,7 @@
     </row>
     <row r="1853" spans="1:2">
       <c r="A1853">
-        <v>-0.005816949409534939</v>
+        <v>-0.005816949409534938</v>
       </c>
       <c r="B1853">
         <v>-0.008108371834869565</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="1854" spans="1:2">
       <c r="A1854">
-        <v>-0.005638879127179061</v>
+        <v>-0.00563887912717906</v>
       </c>
       <c r="B1854">
         <v>-0.007073493717430601</v>
@@ -15191,7 +15191,7 @@
     </row>
     <row r="1855" spans="1:2">
       <c r="A1855">
-        <v>-0.005463136781294724</v>
+        <v>-0.005463136781294725</v>
       </c>
       <c r="B1855">
         <v>-0.006004219399784461</v>
@@ -15287,7 +15287,7 @@
     </row>
     <row r="1867" spans="1:2">
       <c r="A1867">
-        <v>0.0006995899297248155</v>
+        <v>0.0006995899297248156</v>
       </c>
       <c r="B1867">
         <v>0.01156018783936918</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="1876" spans="1:2">
       <c r="A1876">
-        <v>-0.004879172669545144</v>
+        <v>-0.004879172669545143</v>
       </c>
       <c r="B1876">
         <v>-0.006261033919951586</v>
@@ -15391,7 +15391,7 @@
     </row>
     <row r="1880" spans="1:2">
       <c r="A1880">
-        <v>-0.005062605483691933</v>
+        <v>-0.005062605483691932</v>
       </c>
       <c r="B1880">
         <v>-0.006020098199527091</v>
@@ -15399,7 +15399,7 @@
     </row>
     <row r="1881" spans="1:2">
       <c r="A1881">
-        <v>-0.004804513642574181</v>
+        <v>-0.004804513642574182</v>
       </c>
       <c r="B1881">
         <v>-0.005167762481534055</v>
@@ -15567,7 +15567,7 @@
     </row>
     <row r="1902" spans="1:2">
       <c r="A1902">
-        <v>-0.0005083100252878629</v>
+        <v>-0.000508310025287863</v>
       </c>
       <c r="B1902">
         <v>-0.004221689454582567</v>
@@ -15623,7 +15623,7 @@
     </row>
     <row r="1909" spans="1:2">
       <c r="A1909">
-        <v>-0.0008427453692685958</v>
+        <v>-0.0008427453692685957</v>
       </c>
       <c r="B1909">
         <v>-0.006497249453841114</v>
@@ -15743,7 +15743,7 @@
     </row>
     <row r="1924" spans="1:2">
       <c r="A1924">
-        <v>0.004019657311415127</v>
+        <v>0.004019657311415126</v>
       </c>
       <c r="B1924">
         <v>0.001496257778383914</v>
@@ -15767,7 +15767,7 @@
     </row>
     <row r="1927" spans="1:2">
       <c r="A1927">
-        <v>0.001934518079101237</v>
+        <v>0.001934518079101238</v>
       </c>
       <c r="B1927">
         <v>-0.005327546454892307</v>
@@ -15815,7 +15815,7 @@
     </row>
     <row r="1933" spans="1:2">
       <c r="A1933">
-        <v>-0.0006866337692727654</v>
+        <v>-0.0006866337692727653</v>
       </c>
       <c r="B1933">
         <v>-0.0112589816061428</v>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="1936" spans="1:2">
       <c r="A1936">
-        <v>0.0005338734592176211</v>
+        <v>0.0005338734592176212</v>
       </c>
       <c r="B1936">
         <v>-0.006789653550135277</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="1941" spans="1:2">
       <c r="A1941">
-        <v>0.004660400651267564</v>
+        <v>0.004660400651267565</v>
       </c>
       <c r="B1941">
         <v>0.005544592705090778</v>
@@ -15903,7 +15903,7 @@
     </row>
     <row r="1944" spans="1:2">
       <c r="A1944">
-        <v>0.00578873678147001</v>
+        <v>0.005788736781470009</v>
       </c>
       <c r="B1944">
         <v>0.008096047908922266</v>
@@ -15919,7 +15919,7 @@
     </row>
     <row r="1946" spans="1:2">
       <c r="A1946">
-        <v>0.005742366518559006</v>
+        <v>0.005742366518559005</v>
       </c>
       <c r="B1946">
         <v>0.0074152019604945</v>
@@ -15967,7 +15967,7 @@
     </row>
     <row r="1952" spans="1:2">
       <c r="A1952">
-        <v>0.003019632859647237</v>
+        <v>0.003019632859647238</v>
       </c>
       <c r="B1952">
         <v>-0.002788589008152265</v>
@@ -15975,7 +15975,7 @@
     </row>
     <row r="1953" spans="1:2">
       <c r="A1953">
-        <v>0.002327582667819707</v>
+        <v>0.002327582667819706</v>
       </c>
       <c r="B1953">
         <v>-0.004502536002213731</v>
@@ -16031,7 +16031,7 @@
     </row>
     <row r="1960" spans="1:2">
       <c r="A1960">
-        <v>0.0006626587792486368</v>
+        <v>0.0006626587792486369</v>
       </c>
       <c r="B1960">
         <v>-0.009084635223311821</v>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="1969" spans="1:2">
       <c r="A1969">
-        <v>0.005541878792460995</v>
+        <v>0.005541878792460994</v>
       </c>
       <c r="B1969">
         <v>0.004325901551371025</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="1989" spans="1:2">
       <c r="A1989">
-        <v>0.003591896968689829</v>
+        <v>0.00359189696868983</v>
       </c>
       <c r="B1989">
         <v>0.001000206220554745</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="2001" spans="1:2">
       <c r="A2001">
-        <v>0.002992606955947927</v>
+        <v>0.002992606955947926</v>
       </c>
       <c r="B2001">
         <v>-0.004105055909814581</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="2005" spans="1:2">
       <c r="A2005">
-        <v>0.0006839174247277867</v>
+        <v>0.0006839174247277866</v>
       </c>
       <c r="B2005">
         <v>-0.01174642450419494</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="2006" spans="1:2">
       <c r="A2006">
-        <v>0.0005886149157109911</v>
+        <v>0.0005886149157109912</v>
       </c>
       <c r="B2006">
         <v>-0.01128896381094346</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="2007" spans="1:2">
       <c r="A2007">
-        <v>0.0008274675255891224</v>
+        <v>0.0008274675255891223</v>
       </c>
       <c r="B2007">
         <v>-0.01118760764773352</v>
@@ -16431,7 +16431,7 @@
     </row>
     <row r="2010" spans="1:2">
       <c r="A2010">
-        <v>0.002357409282076461</v>
+        <v>0.00235740928207646</v>
       </c>
       <c r="B2010">
         <v>-0.007260197760335707</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="2011" spans="1:2">
       <c r="A2011">
-        <v>0.003309796663472544</v>
+        <v>0.003309796663472543</v>
       </c>
       <c r="B2011">
         <v>-0.00401706520628764</v>
@@ -16479,7 +16479,7 @@
     </row>
     <row r="2016" spans="1:2">
       <c r="A2016">
-        <v>0.00801758854804876</v>
+        <v>0.008017588548048762</v>
       </c>
       <c r="B2016">
         <v>0.006788375950344872</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="2019" spans="1:2">
       <c r="A2019">
-        <v>0.008922341109055907</v>
+        <v>0.008922341109055905</v>
       </c>
       <c r="B2019">
         <v>0.006677137659565346</v>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="2025" spans="1:2">
       <c r="A2025">
-        <v>0.008229929682610711</v>
+        <v>0.00822992968261071</v>
       </c>
       <c r="B2025">
         <v>-0.001663058429492104</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="2033" spans="1:2">
       <c r="A2033">
-        <v>0.004230404071393859</v>
+        <v>0.004230404071393858</v>
       </c>
       <c r="B2033">
         <v>-0.01540869707828207</v>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="2038" spans="1:2">
       <c r="A2038">
-        <v>0.005940308846683435</v>
+        <v>0.005940308846683434</v>
       </c>
       <c r="B2038">
         <v>-0.01019643068917198</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="2052" spans="1:2">
       <c r="A2052">
-        <v>0.01199492771967645</v>
+        <v>0.01199492771967644</v>
       </c>
       <c r="B2052">
         <v>-0.0007618140288174757</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="2057" spans="1:2">
       <c r="A2057">
-        <v>0.00988731825513944</v>
+        <v>0.009887318255139438</v>
       </c>
       <c r="B2057">
         <v>-0.009886727113567417</v>
@@ -16815,7 +16815,7 @@
     </row>
     <row r="2058" spans="1:2">
       <c r="A2058">
-        <v>0.009357563968609629</v>
+        <v>0.009357563968609628</v>
       </c>
       <c r="B2058">
         <v>-0.01051917046907391</v>
@@ -16831,7 +16831,7 @@
     </row>
     <row r="2060" spans="1:2">
       <c r="A2060">
-        <v>0.007963382625378915</v>
+        <v>0.007963382625378917</v>
       </c>
       <c r="B2060">
         <v>-0.01620907524485116</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="2081" spans="1:2">
       <c r="A2081">
-        <v>0.01332785701102802</v>
+        <v>0.01332785701102803</v>
       </c>
       <c r="B2081">
         <v>0.001021503161429571</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="2091" spans="1:2">
       <c r="A2091">
-        <v>0.009154352035969275</v>
+        <v>0.009154352035969274</v>
       </c>
       <c r="B2091">
         <v>-0.01570825155506039</v>
@@ -17103,7 +17103,7 @@
     </row>
     <row r="2094" spans="1:2">
       <c r="A2094">
-        <v>0.008435045543155271</v>
+        <v>0.008435045543155269</v>
       </c>
       <c r="B2094">
         <v>-0.01799359115747112</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="2118" spans="1:2">
       <c r="A2118">
-        <v>0.01081928590438957</v>
+        <v>0.01081928590438956</v>
       </c>
       <c r="B2118">
         <v>-0.01640959830710109</v>
@@ -17591,7 +17591,7 @@
     </row>
     <row r="2155" spans="1:2">
       <c r="A2155">
-        <v>0.008539673345338014</v>
+        <v>0.008539673345338016</v>
       </c>
       <c r="B2155">
         <v>-0.01365434340257643</v>
@@ -17607,7 +17607,7 @@
     </row>
     <row r="2157" spans="1:2">
       <c r="A2157">
-        <v>0.009798772343466064</v>
+        <v>0.009798772343466062</v>
       </c>
       <c r="B2157">
         <v>-0.008174715868180193</v>
@@ -17727,7 +17727,7 @@
     </row>
     <row r="2172" spans="1:2">
       <c r="A2172">
-        <v>0.008769449746707118</v>
+        <v>0.008769449746707117</v>
       </c>
       <c r="B2172">
         <v>-0.00741953026600406</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="2176" spans="1:2">
       <c r="A2176">
-        <v>0.004320005826679062</v>
+        <v>0.004320005826679063</v>
       </c>
       <c r="B2176">
         <v>-0.01711109502008057</v>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="2183" spans="1:2">
       <c r="A2183">
-        <v>0.002454441428065929</v>
+        <v>0.00245444142806593</v>
       </c>
       <c r="B2183">
         <v>-0.01380487746459913</v>
@@ -17831,7 +17831,7 @@
     </row>
     <row r="2185" spans="1:2">
       <c r="A2185">
-        <v>0.003029001777025907</v>
+        <v>0.003029001777025906</v>
       </c>
       <c r="B2185">
         <v>-0.009631642775628002</v>
@@ -17959,7 +17959,7 @@
     </row>
     <row r="2201" spans="1:2">
       <c r="A2201">
-        <v>-5.887262253332791E-05</v>
+        <v>-5.887262253332792E-05</v>
       </c>
       <c r="B2201">
         <v>-0.006648476256906122</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="2232" spans="1:2">
       <c r="A2232">
-        <v>-0.005547306819911175</v>
+        <v>-0.005547306819911176</v>
       </c>
       <c r="B2232">
         <v>-0.008760395085621653</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="2234" spans="1:2">
       <c r="A2234">
-        <v>-0.006323776833478657</v>
+        <v>-0.006323776833478656</v>
       </c>
       <c r="B2234">
         <v>-0.01007554285571821</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="2235" spans="1:2">
       <c r="A2235">
-        <v>-0.006405633647415463</v>
+        <v>-0.006405633647415464</v>
       </c>
       <c r="B2235">
         <v>-0.008993865102008058</v>
@@ -18327,7 +18327,7 @@
     </row>
     <row r="2247" spans="1:2">
       <c r="A2247">
-        <v>-0.00729848291594242</v>
+        <v>-0.007298482915942419</v>
       </c>
       <c r="B2247">
         <v>0.001373247192201887</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="2248" spans="1:2">
       <c r="A2248">
-        <v>-0.007477111678959184</v>
+        <v>-0.007477111678959185</v>
       </c>
       <c r="B2248">
         <v>0.005238950708633006</v>
@@ -18455,7 +18455,7 @@
     </row>
     <row r="2263" spans="1:2">
       <c r="A2263">
-        <v>-0.01447634197609397</v>
+        <v>-0.01447634197609398</v>
       </c>
       <c r="B2263">
         <v>0.01250071013694054</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="2267" spans="1:2">
       <c r="A2267">
-        <v>-0.01597235266450167</v>
+        <v>-0.01597235266450166</v>
       </c>
       <c r="B2267">
         <v>0.02417571865055823</v>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="2268" spans="1:2">
       <c r="A2268">
-        <v>-0.01658574876502539</v>
+        <v>-0.01658574876502538</v>
       </c>
       <c r="B2268">
         <v>0.0301721798963781</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="2279" spans="1:2">
       <c r="A2279">
-        <v>-0.02571177485646981</v>
+        <v>-0.0257117748564698</v>
       </c>
       <c r="B2279">
         <v>0.02239546820017502</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="2289" spans="1:2">
       <c r="A2289">
-        <v>-0.03512535276471203</v>
+        <v>-0.03512535276471204</v>
       </c>
       <c r="B2289">
         <v>0.02508884751192131</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="2294" spans="1:2">
       <c r="A2294">
-        <v>-0.03934882047960127</v>
+        <v>-0.03934882047960128</v>
       </c>
       <c r="B2294">
         <v>0.0125382533567997</v>
@@ -18791,7 +18791,7 @@
     </row>
     <row r="2305" spans="1:2">
       <c r="A2305">
-        <v>-0.04961614163351348</v>
+        <v>-0.04961614163351349</v>
       </c>
       <c r="B2305">
         <v>0.02528861370118385</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="2306" spans="1:2">
       <c r="A2306">
-        <v>-0.05016020682910499</v>
+        <v>-0.050160206829105</v>
       </c>
       <c r="B2306">
         <v>0.03602925733392492</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="2313" spans="1:2">
       <c r="A2313">
-        <v>-0.05719615986710207</v>
+        <v>-0.05719615986710206</v>
       </c>
       <c r="B2313">
         <v>0.04166128994579044</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="2323" spans="1:2">
       <c r="A2323">
-        <v>-0.05824859929014969</v>
+        <v>-0.0582485992901497</v>
       </c>
       <c r="B2323">
         <v>0.06289239639502942</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="2329" spans="1:2">
       <c r="A2329">
-        <v>-0.06467660715227203</v>
+        <v>-0.06467660715227201</v>
       </c>
       <c r="B2329">
         <v>0.04682276577215916</v>
@@ -19023,7 +19023,7 @@
     </row>
     <row r="2334" spans="1:2">
       <c r="A2334">
-        <v>-0.06978878918631268</v>
+        <v>-0.06978878918631269</v>
       </c>
       <c r="B2334">
         <v>0.01206904606215264</v>
@@ -19071,7 +19071,7 @@
     </row>
     <row r="2340" spans="1:2">
       <c r="A2340">
-        <v>-0.07491279134776055</v>
+        <v>-0.07491279134776054</v>
       </c>
       <c r="B2340">
         <v>0.05033239874078532</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="2344" spans="1:2">
       <c r="A2344">
-        <v>-0.07654663495678571</v>
+        <v>-0.07654663495678569</v>
       </c>
       <c r="B2344">
         <v>0.06217936033171867</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="2348" spans="1:2">
       <c r="A2348">
-        <v>-0.07687181171833501</v>
+        <v>-0.076871811718335</v>
       </c>
       <c r="B2348">
         <v>0.01737337314776521</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="2353" spans="1:2">
       <c r="A2353">
-        <v>-0.07752765745963403</v>
+        <v>-0.07752765745963401</v>
       </c>
       <c r="B2353">
         <v>0.05208488005891798</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="2358" spans="1:2">
       <c r="A2358">
-        <v>-0.07832355950109673</v>
+        <v>-0.07832355950109675</v>
       </c>
       <c r="B2358">
         <v>0.07874591418895704</v>
@@ -19679,7 +19679,7 @@
     </row>
     <row r="2416" spans="1:2">
       <c r="A2416">
-        <v>-0.04581547312125339</v>
+        <v>-0.0458154731212534</v>
       </c>
       <c r="B2416">
         <v>0.03968654845483144</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="2435" spans="1:2">
       <c r="A2435">
-        <v>-0.02647792173312782</v>
+        <v>-0.02647792173312783</v>
       </c>
       <c r="B2435">
         <v>0.03470738318998823</v>
@@ -19871,7 +19871,7 @@
     </row>
     <row r="2440" spans="1:2">
       <c r="A2440">
-        <v>-0.02609888037289693</v>
+        <v>-0.02609888037289694</v>
       </c>
       <c r="B2440">
         <v>0.03142818075944653</v>
@@ -20175,7 +20175,7 @@
     </row>
     <row r="2478" spans="1:2">
       <c r="A2478">
-        <v>-0.02086661542213104</v>
+        <v>-0.02086661542213103</v>
       </c>
       <c r="B2478">
         <v>0.01855749281208041</v>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="2487" spans="1:2">
       <c r="A2487">
-        <v>-0.01851783876374156</v>
+        <v>-0.01851783876374157</v>
       </c>
       <c r="B2487">
         <v>0.01373258549561429</v>
@@ -20351,7 +20351,7 @@
     </row>
     <row r="2500" spans="1:2">
       <c r="A2500">
-        <v>-0.020239094733506</v>
+        <v>-0.02023909473350599</v>
       </c>
       <c r="B2500">
         <v>0.004740695901082947</v>
@@ -20439,7 +20439,7 @@
     </row>
     <row r="2511" spans="1:2">
       <c r="A2511">
-        <v>-0.02110186224944584</v>
+        <v>-0.02110186224944583</v>
       </c>
       <c r="B2511">
         <v>0.007291487309902145</v>
@@ -20503,7 +20503,7 @@
     </row>
     <row r="2519" spans="1:2">
       <c r="A2519">
-        <v>-0.025557025014883</v>
+        <v>-0.02555702501488301</v>
       </c>
       <c r="B2519">
         <v>0.005794678897256933</v>
@@ -20615,7 +20615,7 @@
     </row>
     <row r="2533" spans="1:2">
       <c r="A2533">
-        <v>-0.02519200385470637</v>
+        <v>-0.02519200385470636</v>
       </c>
       <c r="B2533">
         <v>0.0200734613513367</v>
@@ -20631,7 +20631,7 @@
     </row>
     <row r="2535" spans="1:2">
       <c r="A2535">
-        <v>-0.02565110946780488</v>
+        <v>-0.02565110946780489</v>
       </c>
       <c r="B2535">
         <v>0.01290546727972552</v>
@@ -20703,7 +20703,7 @@
     </row>
     <row r="2544" spans="1:2">
       <c r="A2544">
-        <v>-0.02995727327160202</v>
+        <v>-0.02995727327160201</v>
       </c>
       <c r="B2544">
         <v>0.01698604670300785</v>
@@ -20735,7 +20735,7 @@
     </row>
     <row r="2548" spans="1:2">
       <c r="A2548">
-        <v>-0.02999545355617593</v>
+        <v>-0.02999545355617594</v>
       </c>
       <c r="B2548">
         <v>0.007275437843266896</v>
@@ -20855,7 +20855,7 @@
     </row>
     <row r="2563" spans="1:2">
       <c r="A2563">
-        <v>-0.03137463867558048</v>
+        <v>-0.03137463867558047</v>
       </c>
       <c r="B2563">
         <v>0.01850906771108107</v>
@@ -20919,7 +20919,7 @@
     </row>
     <row r="2571" spans="1:2">
       <c r="A2571">
-        <v>-0.0345603557226915</v>
+        <v>-0.03456035572269151</v>
       </c>
       <c r="B2571">
         <v>0.007236740884155601</v>
@@ -20927,7 +20927,7 @@
     </row>
     <row r="2572" spans="1:2">
       <c r="A2572">
-        <v>-0.03465488650191898</v>
+        <v>-0.03465488650191897</v>
       </c>
       <c r="B2572">
         <v>0.01236489844076782</v>
@@ -20991,7 +20991,7 @@
     </row>
     <row r="2580" spans="1:2">
       <c r="A2580">
-        <v>-0.03150795451165807</v>
+        <v>-0.03150795451165808</v>
       </c>
       <c r="B2580">
         <v>0.0305912240261117</v>
@@ -21567,7 +21567,7 @@
     </row>
     <row r="2652" spans="1:2">
       <c r="A2652">
-        <v>-0.02773340127761296</v>
+        <v>-0.02773340127761297</v>
       </c>
       <c r="B2652">
         <v>0.01793459241231199</v>
@@ -21751,7 +21751,7 @@
     </row>
     <row r="2675" spans="1:2">
       <c r="A2675">
-        <v>-0.02661708367078304</v>
+        <v>-0.02661708367078305</v>
       </c>
       <c r="B2675">
         <v>0.02677048710060514</v>
@@ -21767,7 +21767,7 @@
     </row>
     <row r="2677" spans="1:2">
       <c r="A2677">
-        <v>-0.02662457538346086</v>
+        <v>-0.02662457538346087</v>
       </c>
       <c r="B2677">
         <v>0.02468090010904378</v>
@@ -21799,7 +21799,7 @@
     </row>
     <row r="2681" spans="1:2">
       <c r="A2681">
-        <v>-0.02648186634198672</v>
+        <v>-0.02648186634198673</v>
       </c>
       <c r="B2681">
         <v>0.01967867953296709</v>
@@ -21847,7 +21847,7 @@
     </row>
     <row r="2687" spans="1:2">
       <c r="A2687">
-        <v>-0.02649741559316801</v>
+        <v>-0.026497415593168</v>
       </c>
       <c r="B2687">
         <v>0.01821835474720945</v>
@@ -21863,7 +21863,7 @@
     </row>
     <row r="2689" spans="1:2">
       <c r="A2689">
-        <v>-0.02633116538804732</v>
+        <v>-0.02633116538804733</v>
       </c>
       <c r="B2689">
         <v>0.01575030132371591</v>
@@ -21943,7 +21943,7 @@
     </row>
     <row r="2699" spans="1:2">
       <c r="A2699">
-        <v>-0.02600502777348444</v>
+        <v>-0.02600502777348443</v>
       </c>
       <c r="B2699">
         <v>0.01724357980070756</v>
@@ -21967,7 +21967,7 @@
     </row>
     <row r="2702" spans="1:2">
       <c r="A2702">
-        <v>-0.02582053655913623</v>
+        <v>-0.02582053655913622</v>
       </c>
       <c r="B2702">
         <v>0.01746406128920874</v>
@@ -21983,7 +21983,7 @@
     </row>
     <row r="2704" spans="1:2">
       <c r="A2704">
-        <v>-0.02567690834040107</v>
+        <v>-0.02567690834040106</v>
       </c>
       <c r="B2704">
         <v>0.01607250459493192</v>
@@ -22175,7 +22175,7 @@
     </row>
     <row r="2728" spans="1:2">
       <c r="A2728">
-        <v>-0.01813768798716967</v>
+        <v>-0.01813768798716968</v>
       </c>
       <c r="B2728">
         <v>0.02359105211096857</v>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="2746" spans="1:2">
       <c r="A2746">
-        <v>-0.0160603815968651</v>
+        <v>-0.01606038159686509</v>
       </c>
       <c r="B2746">
         <v>0.008165354460287766</v>
@@ -22431,7 +22431,7 @@
     </row>
     <row r="2760" spans="1:2">
       <c r="A2760">
-        <v>-0.008156456240205444</v>
+        <v>-0.008156456240205442</v>
       </c>
       <c r="B2760">
         <v>0.0173782461484655</v>
@@ -22575,7 +22575,7 @@
     </row>
     <row r="2778" spans="1:2">
       <c r="A2778">
-        <v>-0.00776272484389304</v>
+        <v>-0.007762724843893041</v>
       </c>
       <c r="B2778">
         <v>0.01122695468240487</v>
@@ -22599,7 +22599,7 @@
     </row>
     <row r="2781" spans="1:2">
       <c r="A2781">
-        <v>-0.004467432206039294</v>
+        <v>-0.004467432206039293</v>
       </c>
       <c r="B2781">
         <v>0.01792643623919377</v>
@@ -22695,7 +22695,7 @@
     </row>
     <row r="2793" spans="1:2">
       <c r="A2793">
-        <v>-0.0004458772014668383</v>
+        <v>-0.0004458772014668384</v>
       </c>
       <c r="B2793">
         <v>0.008523185819950818</v>
@@ -22719,7 +22719,7 @@
     </row>
     <row r="2796" spans="1:2">
       <c r="A2796">
-        <v>0.0002683241329817381</v>
+        <v>0.000268324132981738</v>
       </c>
       <c r="B2796">
         <v>0.003105629085250694</v>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="2826" spans="1:2">
       <c r="A2826">
-        <v>0.02568610620851817</v>
+        <v>0.02568610620851816</v>
       </c>
       <c r="B2826">
         <v>-0.001693996266801445</v>
@@ -23071,7 +23071,7 @@
     </row>
     <row r="2840" spans="1:2">
       <c r="A2840">
-        <v>0.04296755074476369</v>
+        <v>0.04296755074476368</v>
       </c>
       <c r="B2840">
         <v>-0.01955482623286642</v>
@@ -23151,7 +23151,7 @@
     </row>
     <row r="2850" spans="1:2">
       <c r="A2850">
-        <v>0.05049418425146779</v>
+        <v>0.0504941842514678</v>
       </c>
       <c r="B2850">
         <v>-0.03930400569825387</v>
@@ -23263,7 +23263,7 @@
     </row>
     <row r="2864" spans="1:2">
       <c r="A2864">
-        <v>0.05487345049171395</v>
+        <v>0.05487345049171394</v>
       </c>
       <c r="B2864">
         <v>-0.05062991052389787</v>
@@ -23295,7 +23295,7 @@
     </row>
     <row r="2868" spans="1:2">
       <c r="A2868">
-        <v>0.0573602709715675</v>
+        <v>0.05736027097156751</v>
       </c>
       <c r="B2868">
         <v>-0.04074218303392474</v>
@@ -23375,7 +23375,7 @@
     </row>
     <row r="2878" spans="1:2">
       <c r="A2878">
-        <v>0.07049223009326989</v>
+        <v>0.07049223009326991</v>
       </c>
       <c r="B2878">
         <v>-0.02391759899773094</v>
@@ -23383,7 +23383,7 @@
     </row>
     <row r="2879" spans="1:2">
       <c r="A2879">
-        <v>0.07193810031092115</v>
+        <v>0.07193810031092114</v>
       </c>
       <c r="B2879">
         <v>-0.031095363433848</v>
@@ -23407,7 +23407,7 @@
     </row>
     <row r="2882" spans="1:2">
       <c r="A2882">
-        <v>0.07309281068909548</v>
+        <v>0.07309281068909547</v>
       </c>
       <c r="B2882">
         <v>-0.0410738507892634</v>
@@ -23423,7 +23423,7 @@
     </row>
     <row r="2884" spans="1:2">
       <c r="A2884">
-        <v>0.07360573704584464</v>
+        <v>0.07360573704584462</v>
       </c>
       <c r="B2884">
         <v>-0.04277853500935924</v>
@@ -23447,7 +23447,7 @@
     </row>
     <row r="2887" spans="1:2">
       <c r="A2887">
-        <v>0.07529747471455261</v>
+        <v>0.07529747471455263</v>
       </c>
       <c r="B2887">
         <v>-0.0523273960864219</v>
@@ -23503,7 +23503,7 @@
     </row>
     <row r="2894" spans="1:2">
       <c r="A2894">
-        <v>0.07775989965918079</v>
+        <v>0.0777598996591808</v>
       </c>
       <c r="B2894">
         <v>-0.06391453075013587</v>
@@ -23599,7 +23599,7 @@
     </row>
     <row r="2906" spans="1:2">
       <c r="A2906">
-        <v>0.09858795728963668</v>
+        <v>0.09858795728963667</v>
       </c>
       <c r="B2906">
         <v>-0.03847112818601905</v>
@@ -23759,7 +23759,7 @@
     </row>
     <row r="2926" spans="1:2">
       <c r="A2926">
-        <v>0.1007874179367826</v>
+        <v>0.1007874179367827</v>
       </c>
       <c r="B2926">
         <v>-0.1278739060833116</v>
@@ -24887,7 +24887,7 @@
     </row>
     <row r="3067" spans="1:2">
       <c r="A3067">
-        <v>0.03346754595167642</v>
+        <v>0.03346754595167643</v>
       </c>
       <c r="B3067">
         <v>-0.04306218968174313</v>
@@ -25175,7 +25175,7 @@
     </row>
     <row r="3103" spans="1:2">
       <c r="A3103">
-        <v>0.02886855477922005</v>
+        <v>0.02886855477922004</v>
       </c>
       <c r="B3103">
         <v>-0.02470889568873336</v>
@@ -25279,7 +25279,7 @@
     </row>
     <row r="3116" spans="1:2">
       <c r="A3116">
-        <v>0.02825607095075153</v>
+        <v>0.02825607095075152</v>
       </c>
       <c r="B3116">
         <v>-0.01631333312216476</v>
@@ -25631,7 +25631,7 @@
     </row>
     <row r="3160" spans="1:2">
       <c r="A3160">
-        <v>0.02809234782010037</v>
+        <v>0.02809234782010038</v>
       </c>
       <c r="B3160">
         <v>-0.01197217483351221</v>
@@ -25735,7 +25735,7 @@
     </row>
     <row r="3173" spans="1:2">
       <c r="A3173">
-        <v>0.0282236872996519</v>
+        <v>0.02822368729965191</v>
       </c>
       <c r="B3173">
         <v>-0.01679380476838865</v>
@@ -25743,7 +25743,7 @@
     </row>
     <row r="3174" spans="1:2">
       <c r="A3174">
-        <v>0.02836306249590351</v>
+        <v>0.0283630624959035</v>
       </c>
       <c r="B3174">
         <v>-0.02110785475620869</v>
@@ -25751,7 +25751,7 @@
     </row>
     <row r="3175" spans="1:2">
       <c r="A3175">
-        <v>0.0285929699605821</v>
+        <v>0.02859296996058209</v>
       </c>
       <c r="B3175">
         <v>-0.01412039457671543</v>
@@ -25815,7 +25815,7 @@
     </row>
     <row r="3183" spans="1:2">
       <c r="A3183">
-        <v>0.02976134040630254</v>
+        <v>0.02976134040630253</v>
       </c>
       <c r="B3183">
         <v>-0.02889571787031819</v>
@@ -26007,7 +26007,7 @@
     </row>
     <row r="3207" spans="1:2">
       <c r="A3207">
-        <v>0.04261323726316479</v>
+        <v>0.0426132372631648</v>
       </c>
       <c r="B3207">
         <v>-0.0440799616274834</v>
@@ -26079,7 +26079,7 @@
     </row>
     <row r="3216" spans="1:2">
       <c r="A3216">
-        <v>0.04331075077387765</v>
+        <v>0.04331075077387766</v>
       </c>
       <c r="B3216">
         <v>-0.04561940022561384</v>
@@ -26103,7 +26103,7 @@
     </row>
     <row r="3219" spans="1:2">
       <c r="A3219">
-        <v>0.04304042302246752</v>
+        <v>0.04304042302246753</v>
       </c>
       <c r="B3219">
         <v>-0.05025541293699298</v>
@@ -26111,7 +26111,7 @@
     </row>
     <row r="3220" spans="1:2">
       <c r="A3220">
-        <v>0.04331150051053154</v>
+        <v>0.04331150051053153</v>
       </c>
       <c r="B3220">
         <v>-0.05664996258383859</v>
@@ -26127,7 +26127,7 @@
     </row>
     <row r="3222" spans="1:2">
       <c r="A3222">
-        <v>0.04431766865903081</v>
+        <v>0.0443176686590308</v>
       </c>
       <c r="B3222">
         <v>-0.04998327393989666</v>
@@ -26215,7 +26215,7 @@
     </row>
     <row r="3233" spans="1:2">
       <c r="A3233">
-        <v>0.05165613355321046</v>
+        <v>0.05165613355321045</v>
       </c>
       <c r="B3233">
         <v>-0.03365316568300525</v>
@@ -26263,7 +26263,7 @@
     </row>
     <row r="3239" spans="1:2">
       <c r="A3239">
-        <v>0.05567321223556813</v>
+        <v>0.05567321223556814</v>
       </c>
       <c r="B3239">
         <v>-0.03282749645061234</v>
@@ -26295,7 +26295,7 @@
     </row>
     <row r="3243" spans="1:2">
       <c r="A3243">
-        <v>0.0524373158447648</v>
+        <v>0.05243731584476479</v>
       </c>
       <c r="B3243">
         <v>-0.05470521834947206</v>
@@ -26367,7 +26367,7 @@
     </row>
     <row r="3252" spans="1:2">
       <c r="A3252">
-        <v>0.05111212558449882</v>
+        <v>0.05111212558449883</v>
       </c>
       <c r="B3252">
         <v>-0.06587892250739369</v>
@@ -26423,7 +26423,7 @@
     </row>
     <row r="3259" spans="1:2">
       <c r="A3259">
-        <v>0.05785463155453605</v>
+        <v>0.05785463155453604</v>
       </c>
       <c r="B3259">
         <v>-0.03613056108683832</v>
@@ -26511,7 +26511,7 @@
     </row>
     <row r="3270" spans="1:2">
       <c r="A3270">
-        <v>0.05619718874439583</v>
+        <v>0.05619718874439582</v>
       </c>
       <c r="B3270">
         <v>-0.06441208498337492</v>
@@ -26519,7 +26519,7 @@
     </row>
     <row r="3271" spans="1:2">
       <c r="A3271">
-        <v>0.05616906019316217</v>
+        <v>0.05616906019316218</v>
       </c>
       <c r="B3271">
         <v>-0.04738059044895149</v>
@@ -26575,7 +26575,7 @@
     </row>
     <row r="3278" spans="1:2">
       <c r="A3278">
-        <v>0.05484642509722312</v>
+        <v>0.05484642509722313</v>
       </c>
       <c r="B3278">
         <v>-0.05988607392479128</v>
@@ -26631,7 +26631,7 @@
     </row>
     <row r="3285" spans="1:2">
       <c r="A3285">
-        <v>0.06053612567289695</v>
+        <v>0.06053612567289696</v>
       </c>
       <c r="B3285">
         <v>-0.05295644493854468</v>
@@ -26639,7 +26639,7 @@
     </row>
     <row r="3286" spans="1:2">
       <c r="A3286">
-        <v>0.06161693706571303</v>
+        <v>0.06161693706571304</v>
       </c>
       <c r="B3286">
         <v>-0.0290556857641322</v>
@@ -26671,7 +26671,7 @@
     </row>
     <row r="3290" spans="1:2">
       <c r="A3290">
-        <v>0.06678017023887656</v>
+        <v>0.06678017023887654</v>
       </c>
       <c r="B3290">
         <v>-0.02963087707296364</v>
@@ -26679,7 +26679,7 @@
     </row>
     <row r="3291" spans="1:2">
       <c r="A3291">
-        <v>0.06740925620071</v>
+        <v>0.06740925620070999</v>
       </c>
       <c r="B3291">
         <v>-0.03949938720177926</v>
@@ -26759,7 +26759,7 @@
     </row>
     <row r="3301" spans="1:2">
       <c r="A3301">
-        <v>0.06139421276001105</v>
+        <v>0.06139421276001106</v>
       </c>
       <c r="B3301">
         <v>-0.07428621856706741</v>
@@ -26783,7 +26783,7 @@
     </row>
     <row r="3304" spans="1:2">
       <c r="A3304">
-        <v>0.06080387883539398</v>
+        <v>0.06080387883539399</v>
       </c>
       <c r="B3304">
         <v>-0.07609420398712397</v>
@@ -26823,7 +26823,7 @@
     </row>
     <row r="3309" spans="1:2">
       <c r="A3309">
-        <v>0.05899866750311265</v>
+        <v>0.05899866750311266</v>
       </c>
       <c r="B3309">
         <v>-0.06711816871445109</v>
@@ -26919,7 +26919,7 @@
     </row>
     <row r="3321" spans="1:2">
       <c r="A3321">
-        <v>0.0645794242386767</v>
+        <v>0.06457942423867671</v>
       </c>
       <c r="B3321">
         <v>-0.03538945308591446</v>
@@ -26967,7 +26967,7 @@
     </row>
     <row r="3327" spans="1:2">
       <c r="A3327">
-        <v>0.06226856384513363</v>
+        <v>0.06226856384513362</v>
       </c>
       <c r="B3327">
         <v>-0.06033723955627712</v>
@@ -27031,7 +27031,7 @@
     </row>
     <row r="3335" spans="1:2">
       <c r="A3335">
-        <v>0.05539570368822201</v>
+        <v>0.05539570368822202</v>
       </c>
       <c r="B3335">
         <v>-0.05417815306486373</v>
@@ -27127,7 +27127,7 @@
     </row>
     <row r="3347" spans="1:2">
       <c r="A3347">
-        <v>0.04512315099662913</v>
+        <v>0.04512315099662914</v>
       </c>
       <c r="B3347">
         <v>-0.06048306094203637</v>
@@ -27191,7 +27191,7 @@
     </row>
     <row r="3355" spans="1:2">
       <c r="A3355">
-        <v>0.04300315474005395</v>
+        <v>0.04300315474005396</v>
       </c>
       <c r="B3355">
         <v>-0.0303580487030719</v>
@@ -27207,7 +27207,7 @@
     </row>
     <row r="3357" spans="1:2">
       <c r="A3357">
-        <v>0.04191523341501236</v>
+        <v>0.04191523341501237</v>
       </c>
       <c r="B3357">
         <v>-0.03959727414045444</v>
@@ -27215,7 +27215,7 @@
     </row>
     <row r="3358" spans="1:2">
       <c r="A3358">
-        <v>0.04126454495732391</v>
+        <v>0.04126454495732392</v>
       </c>
       <c r="B3358">
         <v>-0.02589101150914486</v>
@@ -27223,7 +27223,7 @@
     </row>
     <row r="3359" spans="1:2">
       <c r="A3359">
-        <v>0.04062368133654522</v>
+        <v>0.04062368133654521</v>
       </c>
       <c r="B3359">
         <v>-0.03153938094090192</v>
@@ -27255,7 +27255,7 @@
     </row>
     <row r="3363" spans="1:2">
       <c r="A3363">
-        <v>0.03858393711405068</v>
+        <v>0.03858393711405069</v>
       </c>
       <c r="B3363">
         <v>-0.0327791309651646</v>
@@ -27279,7 +27279,7 @@
     </row>
     <row r="3366" spans="1:2">
       <c r="A3366">
-        <v>0.03641473625868702</v>
+        <v>0.03641473625868703</v>
       </c>
       <c r="B3366">
         <v>-0.03171825190790178</v>
@@ -27663,7 +27663,7 @@
     </row>
     <row r="3414" spans="1:2">
       <c r="A3414">
-        <v>0.02568432187048794</v>
+        <v>0.02568432187048795</v>
       </c>
       <c r="B3414">
         <v>-0.01946746599866334</v>
@@ -27703,7 +27703,7 @@
     </row>
     <row r="3419" spans="1:2">
       <c r="A3419">
-        <v>0.02378513086661586</v>
+        <v>0.02378513086661585</v>
       </c>
       <c r="B3419">
         <v>-0.02247254833724988</v>
@@ -27711,7 +27711,7 @@
     </row>
     <row r="3420" spans="1:2">
       <c r="A3420">
-        <v>0.02330716930268315</v>
+        <v>0.02330716930268314</v>
       </c>
       <c r="B3420">
         <v>-0.01928859044332087</v>
@@ -27839,7 +27839,7 @@
     </row>
     <row r="3436" spans="1:2">
       <c r="A3436">
-        <v>0.01289853289373528</v>
+        <v>0.01289853289373529</v>
       </c>
       <c r="B3436">
         <v>-0.01974998809878104</v>
@@ -27927,7 +27927,7 @@
     </row>
     <row r="3447" spans="1:2">
       <c r="A3447">
-        <v>0.00920130624180621</v>
+        <v>0.009201306241806208</v>
       </c>
       <c r="B3447">
         <v>-0.01026428734749585</v>
@@ -27943,7 +27943,7 @@
     </row>
     <row r="3449" spans="1:2">
       <c r="A3449">
-        <v>0.00635709161639289</v>
+        <v>0.006357091616392889</v>
       </c>
       <c r="B3449">
         <v>-0.0150937751564979</v>
@@ -27999,7 +27999,7 @@
     </row>
     <row r="3456" spans="1:2">
       <c r="A3456">
-        <v>-0.0001994338916022361</v>
+        <v>-0.000199433891602236</v>
       </c>
       <c r="B3456">
         <v>-0.0161039260375091</v>
@@ -28007,7 +28007,7 @@
     </row>
     <row r="3457" spans="1:2">
       <c r="A3457">
-        <v>-0.001013285303364031</v>
+        <v>-0.001013285303364032</v>
       </c>
       <c r="B3457">
         <v>-0.01446504946613869</v>
@@ -28207,7 +28207,7 @@
     </row>
     <row r="3482" spans="1:2">
       <c r="A3482">
-        <v>-0.02911332188461514</v>
+        <v>-0.02911332188461513</v>
       </c>
       <c r="B3482">
         <v>-0.005310578898218843</v>
@@ -28343,7 +28343,7 @@
     </row>
     <row r="3499" spans="1:2">
       <c r="A3499">
-        <v>-0.04305598585698904</v>
+        <v>-0.04305598585698905</v>
       </c>
       <c r="B3499">
         <v>0.0303631681514589</v>
@@ -28415,7 +28415,7 @@
     </row>
     <row r="3508" spans="1:2">
       <c r="A3508">
-        <v>-0.04859089173419079</v>
+        <v>-0.04859089173419078</v>
       </c>
       <c r="B3508">
         <v>0.03206613939481695</v>
@@ -28503,7 +28503,7 @@
     </row>
     <row r="3519" spans="1:2">
       <c r="A3519">
-        <v>-0.05244893648827181</v>
+        <v>-0.05244893648827182</v>
       </c>
       <c r="B3519">
         <v>0.03707854306810443</v>
@@ -28527,7 +28527,7 @@
     </row>
     <row r="3522" spans="1:2">
       <c r="A3522">
-        <v>-0.05340237803222426</v>
+        <v>-0.05340237803222425</v>
       </c>
       <c r="B3522">
         <v>0.03720008681023534</v>
@@ -28535,7 +28535,7 @@
     </row>
     <row r="3523" spans="1:2">
       <c r="A3523">
-        <v>-0.05308971664559455</v>
+        <v>-0.05308971664559454</v>
       </c>
       <c r="B3523">
         <v>0.04173861384523025</v>
@@ -28607,7 +28607,7 @@
     </row>
     <row r="3532" spans="1:2">
       <c r="A3532">
-        <v>-0.04809623293187198</v>
+        <v>-0.04809623293187197</v>
       </c>
       <c r="B3532">
         <v>0.04342888425309566</v>
@@ -28647,7 +28647,7 @@
     </row>
     <row r="3537" spans="1:2">
       <c r="A3537">
-        <v>-0.04682464719206446</v>
+        <v>-0.04682464719206445</v>
       </c>
       <c r="B3537">
         <v>0.03863850210908426</v>
@@ -28687,7 +28687,7 @@
     </row>
     <row r="3542" spans="1:2">
       <c r="A3542">
-        <v>-0.04579250154540289</v>
+        <v>-0.04579250154540288</v>
       </c>
       <c r="B3542">
         <v>0.04138700929356798</v>
@@ -28791,7 +28791,7 @@
     </row>
     <row r="3555" spans="1:2">
       <c r="A3555">
-        <v>-0.04055305501230915</v>
+        <v>-0.04055305501230916</v>
       </c>
       <c r="B3555">
         <v>0.03829826903261724</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="3563" spans="1:2">
       <c r="A3563">
-        <v>-0.03452135775010703</v>
+        <v>-0.03452135775010702</v>
       </c>
       <c r="B3563">
         <v>0.04310852020769307</v>
@@ -28895,7 +28895,7 @@
     </row>
     <row r="3568" spans="1:2">
       <c r="A3568">
-        <v>-0.03214249726463891</v>
+        <v>-0.0321424972646389</v>
       </c>
       <c r="B3568">
         <v>0.03992947820485115</v>
@@ -29055,7 +29055,7 @@
     </row>
     <row r="3588" spans="1:2">
       <c r="A3588">
-        <v>-0.02457052153215779</v>
+        <v>-0.0245705215321578</v>
       </c>
       <c r="B3588">
         <v>0.02533276313222554</v>
@@ -29231,7 +29231,7 @@
     </row>
     <row r="3610" spans="1:2">
       <c r="A3610">
-        <v>-0.02123637377937239</v>
+        <v>-0.0212363737793724</v>
       </c>
       <c r="B3610">
         <v>0.01768310084098479</v>
@@ -29431,7 +29431,7 @@
     </row>
     <row r="3635" spans="1:2">
       <c r="A3635">
-        <v>-0.01616956041096838</v>
+        <v>-0.01616956041096839</v>
       </c>
       <c r="B3635">
         <v>0.026556413359617</v>
@@ -29519,7 +29519,7 @@
     </row>
     <row r="3646" spans="1:2">
       <c r="A3646">
-        <v>-0.01971021206355398</v>
+        <v>-0.01971021206355397</v>
       </c>
       <c r="B3646">
         <v>0.006545997090395161</v>
@@ -29639,7 +29639,7 @@
     </row>
     <row r="3661" spans="1:2">
       <c r="A3661">
-        <v>-0.0216657040438828</v>
+        <v>-0.02166570404388281</v>
       </c>
       <c r="B3661">
         <v>0.01031225992419804</v>
@@ -29951,7 +29951,7 @@
     </row>
     <row r="3700" spans="1:2">
       <c r="A3700">
-        <v>-0.009585999344167309</v>
+        <v>-0.009585999344167307</v>
       </c>
       <c r="B3700">
         <v>0.0166541299194658</v>
@@ -29975,7 +29975,7 @@
     </row>
     <row r="3703" spans="1:2">
       <c r="A3703">
-        <v>-0.01085308873196874</v>
+        <v>-0.01085308873196875</v>
       </c>
       <c r="B3703">
         <v>0.01037513426973247</v>
@@ -30135,7 +30135,7 @@
     </row>
     <row r="3723" spans="1:2">
       <c r="A3723">
-        <v>-0.004130961121256164</v>
+        <v>-0.004130961121256163</v>
       </c>
       <c r="B3723">
         <v>0.009669731281002569</v>
@@ -30151,7 +30151,7 @@
     </row>
     <row r="3725" spans="1:2">
       <c r="A3725">
-        <v>-0.00518632307261776</v>
+        <v>-0.005186323072617761</v>
       </c>
       <c r="B3725">
         <v>0.004700840352150681</v>
@@ -30183,7 +30183,7 @@
     </row>
     <row r="3729" spans="1:2">
       <c r="A3729">
-        <v>-0.00777600061927793</v>
+        <v>-0.007776000619277931</v>
       </c>
       <c r="B3729">
         <v>-0.004974162779513236</v>
@@ -30191,7 +30191,7 @@
     </row>
     <row r="3730" spans="1:2">
       <c r="A3730">
-        <v>-0.008045795535576062</v>
+        <v>-0.008045795535576064</v>
       </c>
       <c r="B3730">
         <v>-0.005877506610962424</v>
@@ -30303,7 +30303,7 @@
     </row>
     <row r="3744" spans="1:2">
       <c r="A3744">
-        <v>0.001989050475582196</v>
+        <v>0.001989050475582197</v>
       </c>
       <c r="B3744">
         <v>0.01650267967283536</v>
@@ -30311,7 +30311,7 @@
     </row>
     <row r="3745" spans="1:2">
       <c r="A3745">
-        <v>0.002409114872013865</v>
+        <v>0.002409114872013864</v>
       </c>
       <c r="B3745">
         <v>0.01643699211567018</v>
@@ -30375,7 +30375,7 @@
     </row>
     <row r="3753" spans="1:2">
       <c r="A3753">
-        <v>0.002336332486772502</v>
+        <v>0.002336332486772503</v>
       </c>
       <c r="B3753">
         <v>0.004617865682901456</v>
@@ -30495,7 +30495,7 @@
     </row>
     <row r="3768" spans="1:2">
       <c r="A3768">
-        <v>0.005604488050602319</v>
+        <v>0.005604488050602318</v>
       </c>
       <c r="B3768">
         <v>0.002226568982115484</v>
@@ -30631,7 +30631,7 @@
     </row>
     <row r="3785" spans="1:2">
       <c r="A3785">
-        <v>0.0007922380145736708</v>
+        <v>0.0007922380145736707</v>
       </c>
       <c r="B3785">
         <v>-0.0145785537094727</v>
@@ -30639,7 +30639,7 @@
     </row>
     <row r="3786" spans="1:2">
       <c r="A3786">
-        <v>0.000755207151965118</v>
+        <v>0.0007552071519651179</v>
       </c>
       <c r="B3786">
         <v>-0.0137318093294283</v>
@@ -30703,7 +30703,7 @@
     </row>
     <row r="3794" spans="1:2">
       <c r="A3794">
-        <v>0.005422522205864314</v>
+        <v>0.005422522205864315</v>
       </c>
       <c r="B3794">
         <v>0.003477636881553892</v>
@@ -30711,7 +30711,7 @@
     </row>
     <row r="3795" spans="1:2">
       <c r="A3795">
-        <v>0.005839885911455323</v>
+        <v>0.005839885911455324</v>
       </c>
       <c r="B3795">
         <v>0.004712444553960804</v>
@@ -30727,7 +30727,7 @@
     </row>
     <row r="3797" spans="1:2">
       <c r="A3797">
-        <v>0.0061822633008373</v>
+        <v>0.006182263300837299</v>
       </c>
       <c r="B3797">
         <v>0.00603448029660214</v>
@@ -30887,7 +30887,7 @@
     </row>
     <row r="3817" spans="1:2">
       <c r="A3817">
-        <v>-0.0007857538788608293</v>
+        <v>-0.0007857538788608294</v>
       </c>
       <c r="B3817">
         <v>-0.00478543143314436</v>
@@ -30991,7 +30991,7 @@
     </row>
     <row r="3830" spans="1:2">
       <c r="A3830">
-        <v>0.003420703787587644</v>
+        <v>0.003420703787587645</v>
       </c>
       <c r="B3830">
         <v>0.006115654077884169</v>
@@ -31015,7 +31015,7 @@
     </row>
     <row r="3833" spans="1:2">
       <c r="A3833">
-        <v>0.001477461747529025</v>
+        <v>0.001477461747529024</v>
       </c>
       <c r="B3833">
         <v>-0.0007433569039800858</v>
@@ -31183,7 +31183,7 @@
     </row>
     <row r="3854" spans="1:2">
       <c r="A3854">
-        <v>0.003747262662813778</v>
+        <v>0.003747262662813779</v>
       </c>
       <c r="B3854">
         <v>0.005243838690607738</v>
@@ -31191,7 +31191,7 @@
     </row>
     <row r="3855" spans="1:2">
       <c r="A3855">
-        <v>0.003206865974836592</v>
+        <v>0.003206865974836591</v>
       </c>
       <c r="B3855">
         <v>0.003477841230291823</v>
@@ -31231,7 +31231,7 @@
     </row>
     <row r="3860" spans="1:2">
       <c r="A3860">
-        <v>-0.000632900699374049</v>
+        <v>-0.0006329006993740491</v>
       </c>
       <c r="B3860">
         <v>-0.007370434185562491</v>
@@ -31367,7 +31367,7 @@
     </row>
     <row r="3877" spans="1:2">
       <c r="A3877">
-        <v>0.003750658432867572</v>
+        <v>0.003750658432867573</v>
       </c>
       <c r="B3877">
         <v>0.006814255697952021</v>
@@ -31415,7 +31415,7 @@
     </row>
     <row r="3883" spans="1:2">
       <c r="A3883">
-        <v>-0.000311973107548534</v>
+        <v>-0.0003119731075485341</v>
       </c>
       <c r="B3883">
         <v>-0.005071474410105914</v>
@@ -31559,7 +31559,7 @@
     </row>
     <row r="3901" spans="1:2">
       <c r="A3901">
-        <v>0.001808042331547472</v>
+        <v>0.001808042331547471</v>
       </c>
       <c r="B3901">
         <v>0.005411104126955557</v>
@@ -31623,7 +31623,7 @@
     </row>
     <row r="3909" spans="1:2">
       <c r="A3909">
-        <v>-0.005022599826541604</v>
+        <v>-0.005022599826541605</v>
       </c>
       <c r="B3909">
         <v>-0.0113688313248308</v>
@@ -31631,7 +31631,7 @@
     </row>
     <row r="3910" spans="1:2">
       <c r="A3910">
-        <v>-0.005705941497378414</v>
+        <v>-0.005705941497378413</v>
       </c>
       <c r="B3910">
         <v>-0.01218449377678432</v>
@@ -31671,7 +31671,7 @@
     </row>
     <row r="3915" spans="1:2">
       <c r="A3915">
-        <v>-0.006802516443590497</v>
+        <v>-0.006802516443590498</v>
       </c>
       <c r="B3915">
         <v>-0.01005328236475389</v>
@@ -31679,7 +31679,7 @@
     </row>
     <row r="3916" spans="1:2">
       <c r="A3916">
-        <v>-0.00684803610012039</v>
+        <v>-0.006848036100120389</v>
       </c>
       <c r="B3916">
         <v>-0.009768536808862027</v>
@@ -31815,7 +31815,7 @@
     </row>
     <row r="3933" spans="1:2">
       <c r="A3933">
-        <v>-0.006155189711877381</v>
+        <v>-0.006155189711877382</v>
       </c>
       <c r="B3933">
         <v>0.009537487342265116</v>
@@ -31911,7 +31911,7 @@
     </row>
     <row r="3945" spans="1:2">
       <c r="A3945">
-        <v>-0.01309077089908537</v>
+        <v>-0.01309077089908536</v>
       </c>
       <c r="B3945">
         <v>0.002826794560525592</v>
@@ -31951,7 +31951,7 @@
     </row>
     <row r="3950" spans="1:2">
       <c r="A3950">
-        <v>-0.01542841014144962</v>
+        <v>-0.01542841014144961</v>
       </c>
       <c r="B3950">
         <v>0.005404601622241323</v>
@@ -31975,7 +31975,7 @@
     </row>
     <row r="3953" spans="1:2">
       <c r="A3953">
-        <v>-0.01693446304649511</v>
+        <v>-0.0169344630464951</v>
       </c>
       <c r="B3953">
         <v>0.008283085987731198</v>
@@ -32167,7 +32167,7 @@
     </row>
     <row r="3977" spans="1:2">
       <c r="A3977">
-        <v>-0.03350834462545274</v>
+        <v>-0.03350834462545275</v>
       </c>
       <c r="B3977">
         <v>0.02123496290221283</v>
@@ -32311,7 +32311,7 @@
     </row>
     <row r="3995" spans="1:2">
       <c r="A3995">
-        <v>-0.04495636401753809</v>
+        <v>-0.0449563640175381</v>
       </c>
       <c r="B3995">
         <v>0.03079529657782221</v>
@@ -32431,7 +32431,7 @@
     </row>
     <row r="4010" spans="1:2">
       <c r="A4010">
-        <v>-0.0536148110143567</v>
+        <v>-0.05361481101435669</v>
       </c>
       <c r="B4010">
         <v>0.03779383992286611</v>
@@ -32439,7 +32439,7 @@
     </row>
     <row r="4011" spans="1:2">
       <c r="A4011">
-        <v>-0.05358965072339312</v>
+        <v>-0.05358965072339311</v>
       </c>
       <c r="B4011">
         <v>0.03172295188194596</v>
@@ -32463,7 +32463,7 @@
     </row>
     <row r="4014" spans="1:2">
       <c r="A4014">
-        <v>-0.0558696482162332</v>
+        <v>-0.05586964821623319</v>
       </c>
       <c r="B4014">
         <v>0.03426243265556383</v>
@@ -32495,7 +32495,7 @@
     </row>
     <row r="4018" spans="1:2">
       <c r="A4018">
-        <v>-0.0583045934478795</v>
+        <v>-0.05830459344787951</v>
       </c>
       <c r="B4018">
         <v>0.0429274540651754</v>
@@ -32519,7 +32519,7 @@
     </row>
     <row r="4021" spans="1:2">
       <c r="A4021">
-        <v>-0.05906547343967586</v>
+        <v>-0.05906547343967587</v>
       </c>
       <c r="B4021">
         <v>0.03518442924168941</v>
@@ -32527,7 +32527,7 @@
     </row>
     <row r="4022" spans="1:2">
       <c r="A4022">
-        <v>-0.05999292128999473</v>
+        <v>-0.05999292128999474</v>
       </c>
       <c r="B4022">
         <v>0.04078161145853709</v>
@@ -32551,7 +32551,7 @@
     </row>
     <row r="4025" spans="1:2">
       <c r="A4025">
-        <v>-0.06164685636540762</v>
+        <v>-0.06164685636540761</v>
       </c>
       <c r="B4025">
         <v>0.04448655439039051</v>
@@ -32567,7 +32567,7 @@
     </row>
     <row r="4027" spans="1:2">
       <c r="A4027">
-        <v>-0.0622733529961428</v>
+        <v>-0.06227335299614281</v>
       </c>
       <c r="B4027">
         <v>0.0434349730901129</v>
@@ -32575,7 +32575,7 @@
     </row>
     <row r="4028" spans="1:2">
       <c r="A4028">
-        <v>-0.06215794179804489</v>
+        <v>-0.0621579417980449</v>
       </c>
       <c r="B4028">
         <v>0.05068587428745719</v>
@@ -32591,7 +32591,7 @@
     </row>
     <row r="4030" spans="1:2">
       <c r="A4030">
-        <v>-0.06249125237879724</v>
+        <v>-0.06249125237879723</v>
       </c>
       <c r="B4030">
         <v>0.05040762965086465</v>
@@ -32807,7 +32807,7 @@
     </row>
     <row r="4057" spans="1:2">
       <c r="A4057">
-        <v>-0.07195009590005186</v>
+        <v>-0.07195009590005184</v>
       </c>
       <c r="B4057">
         <v>0.05912382035802377</v>
@@ -32839,7 +32839,7 @@
     </row>
     <row r="4061" spans="1:2">
       <c r="A4061">
-        <v>-0.07607803048329456</v>
+        <v>-0.07607803048329455</v>
       </c>
       <c r="B4061">
         <v>0.06242469602023704</v>
@@ -32903,7 +32903,7 @@
     </row>
     <row r="4069" spans="1:2">
       <c r="A4069">
-        <v>-0.08766161030976813</v>
+        <v>-0.08766161030976814</v>
       </c>
       <c r="B4069">
         <v>0.03341990606663181</v>
@@ -32967,7 +32967,7 @@
     </row>
     <row r="4077" spans="1:2">
       <c r="A4077">
-        <v>-0.09228196275826514</v>
+        <v>-0.09228196275826515</v>
       </c>
       <c r="B4077">
         <v>0.05468411975216902</v>
@@ -33031,7 +33031,7 @@
     </row>
     <row r="4085" spans="1:2">
       <c r="A4085">
-        <v>-0.09180748560960156</v>
+        <v>-0.09180748560960157</v>
       </c>
       <c r="B4085">
         <v>0.08125315102479647</v>
@@ -33039,7 +33039,7 @@
     </row>
     <row r="4086" spans="1:2">
       <c r="A4086">
-        <v>-0.09234891427920158</v>
+        <v>-0.09234891427920157</v>
       </c>
       <c r="B4086">
         <v>0.08808026532993374</v>
@@ -33055,7 +33055,7 @@
     </row>
     <row r="4088" spans="1:2">
       <c r="A4088">
-        <v>-0.09504572224797428</v>
+        <v>-0.09504572224797429</v>
       </c>
       <c r="B4088">
         <v>0.08050978947973597</v>
@@ -33087,7 +33087,7 @@
     </row>
     <row r="4092" spans="1:2">
       <c r="A4092">
-        <v>-0.09811934263483407</v>
+        <v>-0.09811934263483409</v>
       </c>
       <c r="B4092">
         <v>0.06830120854304855</v>
@@ -33119,7 +33119,7 @@
     </row>
     <row r="4096" spans="1:2">
       <c r="A4096">
-        <v>-0.09837110943681951</v>
+        <v>-0.0983711094368195</v>
       </c>
       <c r="B4096">
         <v>0.07886506052382103</v>
@@ -33151,7 +33151,7 @@
     </row>
     <row r="4100" spans="1:2">
       <c r="A4100">
-        <v>-0.09357061722761187</v>
+        <v>-0.09357061722761185</v>
       </c>
       <c r="B4100">
         <v>0.08259206964897547</v>
@@ -33239,7 +33239,7 @@
     </row>
     <row r="4111" spans="1:2">
       <c r="A4111">
-        <v>-0.0872605313485231</v>
+        <v>-0.08726053134852312</v>
       </c>
       <c r="B4111">
         <v>0.08229508495652205</v>
@@ -33319,7 +33319,7 @@
     </row>
     <row r="4121" spans="1:2">
       <c r="A4121">
-        <v>-0.08312537838844283</v>
+        <v>-0.08312537838844282</v>
       </c>
       <c r="B4121">
         <v>0.06751682766054934</v>
@@ -33463,7 +33463,7 @@
     </row>
     <row r="4139" spans="1:2">
       <c r="A4139">
-        <v>-0.06127577977944697</v>
+        <v>-0.06127577977944696</v>
       </c>
       <c r="B4139">
         <v>0.07633828499293038</v>
@@ -33487,7 +33487,7 @@
     </row>
     <row r="4142" spans="1:2">
       <c r="A4142">
-        <v>-0.06058199433225238</v>
+        <v>-0.06058199433225239</v>
       </c>
       <c r="B4142">
         <v>0.05723318559259738</v>
@@ -33527,7 +33527,7 @@
     </row>
     <row r="4147" spans="1:2">
       <c r="A4147">
-        <v>-0.06161798973281551</v>
+        <v>-0.06161798973281552</v>
       </c>
       <c r="B4147">
         <v>0.04107561627844358</v>
@@ -33591,7 +33591,7 @@
     </row>
     <row r="4155" spans="1:2">
       <c r="A4155">
-        <v>-0.05862812437939818</v>
+        <v>-0.05862812437939819</v>
       </c>
       <c r="B4155">
         <v>0.04087188226331318</v>
@@ -34335,7 +34335,7 @@
     </row>
     <row r="4248" spans="1:2">
       <c r="A4248">
-        <v>-0.09491330665732611</v>
+        <v>-0.09491330665732613</v>
       </c>
       <c r="B4248">
         <v>0.04814444244723504</v>
@@ -34375,7 +34375,7 @@
     </row>
     <row r="4253" spans="1:2">
       <c r="A4253">
-        <v>-0.09769331830474413</v>
+        <v>-0.09769331830474363</v>
       </c>
       <c r="B4253">
         <v>0.05990384329406773</v>
@@ -34615,7 +34615,7 @@
     </row>
     <row r="4283" spans="1:2">
       <c r="A4283">
-        <v>-0.129931848067348</v>
+        <v>-0.1299318480673481</v>
       </c>
       <c r="B4283">
         <v>0.1040664511499587</v>
@@ -34919,7 +34919,7 @@
     </row>
     <row r="4321" spans="1:2">
       <c r="A4321">
-        <v>-0.1004855780475395</v>
+        <v>-0.1004855780475396</v>
       </c>
       <c r="B4321">
         <v>0.1068188896679745</v>
@@ -35063,7 +35063,7 @@
     </row>
     <row r="4339" spans="1:2">
       <c r="A4339">
-        <v>-0.0809372481485281</v>
+        <v>-0.08093724814852808</v>
       </c>
       <c r="B4339">
         <v>0.06144385965643773</v>
@@ -35183,7 +35183,7 @@
     </row>
     <row r="4354" spans="1:2">
       <c r="A4354">
-        <v>-0.0605172111768304</v>
+        <v>-0.06051721117683039</v>
       </c>
       <c r="B4354">
         <v>0.07506323322099817</v>
@@ -35207,7 +35207,7 @@
     </row>
     <row r="4357" spans="1:2">
       <c r="A4357">
-        <v>-0.0600694118650964</v>
+        <v>-0.06006941186509641</v>
       </c>
       <c r="B4357">
         <v>0.05569385851518316</v>
@@ -35255,7 +35255,7 @@
     </row>
     <row r="4363" spans="1:2">
       <c r="A4363">
-        <v>-0.05855715772157857</v>
+        <v>-0.05855715772157858</v>
       </c>
       <c r="B4363">
         <v>0.047768254326368</v>
@@ -35335,7 +35335,7 @@
     </row>
     <row r="4373" spans="1:2">
       <c r="A4373">
-        <v>-0.05571035450756134</v>
+        <v>-0.05571035450756135</v>
       </c>
       <c r="B4373">
         <v>0.04097467022472845</v>
@@ -35399,7 +35399,7 @@
     </row>
     <row r="4381" spans="1:2">
       <c r="A4381">
-        <v>-0.05282018377902672</v>
+        <v>-0.05282018377902671</v>
       </c>
       <c r="B4381">
         <v>0.04549585519768762</v>
@@ -35503,7 +35503,7 @@
     </row>
     <row r="4394" spans="1:2">
       <c r="A4394">
-        <v>-0.04557157776160623</v>
+        <v>-0.04557157776160624</v>
       </c>
       <c r="B4394">
         <v>0.04916391232919137</v>
@@ -35535,7 +35535,7 @@
     </row>
     <row r="4398" spans="1:2">
       <c r="A4398">
-        <v>-0.04373992204307796</v>
+        <v>-0.04373992204307795</v>
       </c>
       <c r="B4398">
         <v>0.0434971542463809</v>
@@ -35559,7 +35559,7 @@
     </row>
     <row r="4401" spans="1:2">
       <c r="A4401">
-        <v>-0.04198395980048324</v>
+        <v>-0.04198395980048323</v>
       </c>
       <c r="B4401">
         <v>0.04304838435112757</v>
@@ -35679,7 +35679,7 @@
     </row>
     <row r="4416" spans="1:2">
       <c r="A4416">
-        <v>-0.02748395433103529</v>
+        <v>-0.02748395433103528</v>
       </c>
       <c r="B4416">
         <v>0.04247922966422069</v>
@@ -35687,7 +35687,7 @@
     </row>
     <row r="4417" spans="1:2">
       <c r="A4417">
-        <v>-0.02620185176064972</v>
+        <v>-0.02620185176064971</v>
       </c>
       <c r="B4417">
         <v>0.03983586681436879</v>
@@ -35759,7 +35759,7 @@
     </row>
     <row r="4426" spans="1:2">
       <c r="A4426">
-        <v>-0.02296278960401354</v>
+        <v>-0.02296278960401355</v>
       </c>
       <c r="B4426">
         <v>0.02397424366916034</v>
@@ -35863,7 +35863,7 @@
     </row>
     <row r="4439" spans="1:2">
       <c r="A4439">
-        <v>-0.009924315854480222</v>
+        <v>-0.00992431585448022</v>
       </c>
       <c r="B4439">
         <v>0.02452100879313956</v>
@@ -35975,7 +35975,7 @@
     </row>
     <row r="4453" spans="1:2">
       <c r="A4453">
-        <v>-0.008496157049943616</v>
+        <v>-0.008496157049943618</v>
       </c>
       <c r="B4453">
         <v>0.001861398247629875</v>
@@ -36215,7 +36215,7 @@
     </row>
     <row r="4483" spans="1:2">
       <c r="A4483">
-        <v>0.0005819686828615057</v>
+        <v>0.0005819686828615058</v>
       </c>
       <c r="B4483">
         <v>-0.00720581641979523</v>
@@ -36495,7 +36495,7 @@
     </row>
     <row r="4518" spans="1:2">
       <c r="A4518">
-        <v>0.004590384461830362</v>
+        <v>0.004590384461830361</v>
       </c>
       <c r="B4518">
         <v>0.005478748409919465</v>
@@ -36671,7 +36671,7 @@
     </row>
     <row r="4540" spans="1:2">
       <c r="A4540">
-        <v>0.0008593931175217857</v>
+        <v>0.0008593931175217856</v>
       </c>
       <c r="B4540">
         <v>0.007214189569467511</v>
@@ -36767,7 +36767,7 @@
     </row>
     <row r="4552" spans="1:2">
       <c r="A4552">
-        <v>-0.0009814531028085589</v>
+        <v>-0.0009814531028085587</v>
       </c>
       <c r="B4552">
         <v>-0.001217224588129451</v>
@@ -36783,7 +36783,7 @@
     </row>
     <row r="4554" spans="1:2">
       <c r="A4554">
-        <v>-0.002873514176211785</v>
+        <v>-0.002873514176211791</v>
       </c>
       <c r="B4554">
         <v>-0.006630834838920574</v>
@@ -36799,7 +36799,7 @@
     </row>
     <row r="4556" spans="1:2">
       <c r="A4556">
-        <v>-0.004362982710505944</v>
+        <v>-0.004362982710505945</v>
       </c>
       <c r="B4556">
         <v>-0.01046710932653916</v>
@@ -36879,7 +36879,7 @@
     </row>
     <row r="4566" spans="1:2">
       <c r="A4566">
-        <v>-0.001690732355595038</v>
+        <v>-0.001690732355594984</v>
       </c>
       <c r="B4566">
         <v>0.001391462063040638</v>
@@ -36951,7 +36951,7 @@
     </row>
     <row r="4575" spans="1:2">
       <c r="A4575">
-        <v>0.001801811020663736</v>
+        <v>0.001801811020663737</v>
       </c>
       <c r="B4575">
         <v>0.009171338457912626</v>
@@ -36999,7 +36999,7 @@
     </row>
     <row r="4581" spans="1:2">
       <c r="A4581">
-        <v>-0.002010992060700102</v>
+        <v>-0.002010992060700073</v>
       </c>
       <c r="B4581">
         <v>-0.003880690733830683</v>
@@ -37007,7 +37007,7 @@
     </row>
     <row r="4582" spans="1:2">
       <c r="A4582">
-        <v>-0.003056784337594889</v>
+        <v>-0.003056784337594996</v>
       </c>
       <c r="B4582">
         <v>-0.006792425855327355</v>
@@ -37055,7 +37055,7 @@
     </row>
     <row r="4588" spans="1:2">
       <c r="A4588">
-        <v>-0.004934222465118404</v>
+        <v>-0.004934222465118405</v>
       </c>
       <c r="B4588">
         <v>-0.01028882380774343</v>
@@ -37223,7 +37223,7 @@
     </row>
     <row r="4609" spans="1:2">
       <c r="A4609">
-        <v>-0.00194933872408938</v>
+        <v>-0.001949338724089379</v>
       </c>
       <c r="B4609">
         <v>-0.003770280971550743</v>
@@ -37231,7 +37231,7 @@
     </row>
     <row r="4610" spans="1:2">
       <c r="A4610">
-        <v>-0.002985105345429141</v>
+        <v>-0.002985105345429142</v>
       </c>
       <c r="B4610">
         <v>-0.006669543046109894</v>
@@ -37255,7 +37255,7 @@
     </row>
     <row r="4613" spans="1:2">
       <c r="A4613">
-        <v>-0.00485153413452907</v>
+        <v>-0.004851534134529069</v>
       </c>
       <c r="B4613">
         <v>-0.01140800146608489</v>
@@ -37271,7 +37271,7 @@
     </row>
     <row r="4615" spans="1:2">
       <c r="A4615">
-        <v>-0.0050147929553054</v>
+        <v>-0.005014792955305401</v>
       </c>
       <c r="B4615">
         <v>-0.01116352518641905</v>
@@ -37343,7 +37343,7 @@
     </row>
     <row r="4624" spans="1:2">
       <c r="A4624">
-        <v>0.0003592625901326907</v>
+        <v>0.0003592625901326908</v>
       </c>
       <c r="B4624">
         <v>0.006967076396451333</v>
@@ -37375,7 +37375,7 @@
     </row>
     <row r="4628" spans="1:2">
       <c r="A4628">
-        <v>0.002435585293580314</v>
+        <v>0.002435585293580313</v>
       </c>
       <c r="B4628">
         <v>0.0117533021266647</v>
@@ -37391,7 +37391,7 @@
     </row>
     <row r="4630" spans="1:2">
       <c r="A4630">
-        <v>0.002352237075222714</v>
+        <v>0.002352237075222715</v>
       </c>
       <c r="B4630">
         <v>0.0105464961050501</v>
@@ -37487,7 +37487,7 @@
     </row>
     <row r="4642" spans="1:2">
       <c r="A4642">
-        <v>-0.00435258951646143</v>
+        <v>-0.004352589516461431</v>
       </c>
       <c r="B4642">
         <v>-0.01109802581997821</v>
@@ -37519,7 +37519,7 @@
     </row>
     <row r="4646" spans="1:2">
       <c r="A4646">
-        <v>-0.00344096117938361</v>
+        <v>-0.003440961179383609</v>
       </c>
       <c r="B4646">
         <v>-0.00699522823225518</v>
@@ -37591,7 +37591,7 @@
     </row>
     <row r="4655" spans="1:2">
       <c r="A4655">
-        <v>0.003219378346172284</v>
+        <v>0.003219378346172283</v>
       </c>
       <c r="B4655">
         <v>0.01208999579555137</v>
@@ -37623,7 +37623,7 @@
     </row>
     <row r="4659" spans="1:2">
       <c r="A4659">
-        <v>0.003196606063877642</v>
+        <v>0.003196606063877641</v>
       </c>
       <c r="B4659">
         <v>0.00979920466086126</v>
@@ -37631,7 +37631,7 @@
     </row>
     <row r="4660" spans="1:2">
       <c r="A4660">
-        <v>0.002796502697150314</v>
+        <v>0.002796502697150315</v>
       </c>
       <c r="B4660">
         <v>0.008066648358578732</v>
@@ -37687,7 +37687,7 @@
     </row>
     <row r="4667" spans="1:2">
       <c r="A4667">
-        <v>-0.002139529261823527</v>
+        <v>-0.002139529261823526</v>
       </c>
       <c r="B4667">
         <v>-0.00851459565205559</v>
@@ -37775,7 +37775,7 @@
     </row>
     <row r="4678" spans="1:2">
       <c r="A4678">
-        <v>0.0008304094752383035</v>
+        <v>0.0008304094752383036</v>
       </c>
       <c r="B4678">
         <v>0.002275860130547702</v>
@@ -37815,7 +37815,7 @@
     </row>
     <row r="4683" spans="1:2">
       <c r="A4683">
-        <v>0.004949510891331313</v>
+        <v>0.004949510891331312</v>
       </c>
       <c r="B4683">
         <v>0.01247949085984823</v>
@@ -37847,7 +37847,7 @@
     </row>
     <row r="4687" spans="1:2">
       <c r="A4687">
-        <v>0.005055543344566128</v>
+        <v>0.005055543344566127</v>
       </c>
       <c r="B4687">
         <v>0.01023030107598633</v>
@@ -37855,7 +37855,7 @@
     </row>
     <row r="4688" spans="1:2">
       <c r="A4688">
-        <v>0.004687699615999208</v>
+        <v>0.004687699615999207</v>
       </c>
       <c r="B4688">
         <v>0.008464045080776916</v>
@@ -37887,7 +37887,7 @@
     </row>
     <row r="4692" spans="1:2">
       <c r="A4692">
-        <v>0.002490478689444467</v>
+        <v>0.002490478689444468</v>
       </c>
       <c r="B4692">
         <v>-0.0002897510052735086</v>
@@ -37943,7 +37943,7 @@
     </row>
     <row r="4699" spans="1:2">
       <c r="A4699">
-        <v>-0.0007872933568711499</v>
+        <v>-0.0007872933568711498</v>
       </c>
       <c r="B4699">
         <v>-0.01011879603991872</v>
@@ -37959,7 +37959,7 @@
     </row>
     <row r="4701" spans="1:2">
       <c r="A4701">
-        <v>-0.0001894623893695751</v>
+        <v>-0.0001894623893695752</v>
       </c>
       <c r="B4701">
         <v>-0.007982392252872117</v>
@@ -38023,7 +38023,7 @@
     </row>
     <row r="4709" spans="1:2">
       <c r="A4709">
-        <v>0.004929472136597426</v>
+        <v>0.004929472136597427</v>
       </c>
       <c r="B4709">
         <v>0.007019182683750014</v>
@@ -38031,7 +38031,7 @@
     </row>
     <row r="4710" spans="1:2">
       <c r="A4710">
-        <v>0.004927501211614207</v>
+        <v>0.004927501211614208</v>
       </c>
       <c r="B4710">
         <v>0.006955780326338701</v>
@@ -38063,7 +38063,7 @@
     </row>
     <row r="4714" spans="1:2">
       <c r="A4714">
-        <v>0.003643036595136328</v>
+        <v>0.003643036595136327</v>
       </c>
       <c r="B4714">
         <v>0.002815294715536432</v>
@@ -38239,7 +38239,7 @@
     </row>
     <row r="4736" spans="1:2">
       <c r="A4736">
-        <v>0.003130839805634082</v>
+        <v>0.003130839805634083</v>
       </c>
       <c r="B4736">
         <v>0.006414788918926106</v>
@@ -38247,7 +38247,7 @@
     </row>
     <row r="4737" spans="1:2">
       <c r="A4737">
-        <v>0.002788765098167904</v>
+        <v>0.002788765098167903</v>
       </c>
       <c r="B4737">
         <v>0.005333918260382653</v>
@@ -38279,7 +38279,7 @@
     </row>
     <row r="4741" spans="1:2">
       <c r="A4741">
-        <v>4.370796874019887E-08</v>
+        <v>4.370796874019886E-08</v>
       </c>
       <c r="B4741">
         <v>-0.002590275737559988</v>
@@ -38319,7 +38319,7 @@
     </row>
     <row r="4746" spans="1:2">
       <c r="A4746">
-        <v>-0.002953255375337422</v>
+        <v>-0.002953255375337423</v>
       </c>
       <c r="B4746">
         <v>-0.009281360152798346</v>
@@ -38335,7 +38335,7 @@
     </row>
     <row r="4748" spans="1:2">
       <c r="A4748">
-        <v>-0.002766052751080846</v>
+        <v>-0.002766052751080845</v>
       </c>
       <c r="B4748">
         <v>-0.00786912429645481</v>
@@ -38383,7 +38383,7 @@
     </row>
     <row r="4754" spans="1:2">
       <c r="A4754">
-        <v>0.0007632707453849608</v>
+        <v>0.0007632707453849609</v>
       </c>
       <c r="B4754">
         <v>0.003943816984822046</v>
@@ -38399,7 +38399,7 @@
     </row>
     <row r="4756" spans="1:2">
       <c r="A4756">
-        <v>0.001992091617882608</v>
+        <v>0.001992091617882607</v>
       </c>
       <c r="B4756">
         <v>0.007389884702362348</v>
@@ -38615,7 +38615,7 @@
     </row>
     <row r="4783" spans="1:2">
       <c r="A4783">
-        <v>0.001561013659605324</v>
+        <v>0.001561013659605325</v>
       </c>
       <c r="B4783">
         <v>0.008051323951582479</v>
@@ -38623,7 +38623,7 @@
     </row>
     <row r="4784" spans="1:2">
       <c r="A4784">
-        <v>0.001249652197093745</v>
+        <v>0.001249652197093744</v>
       </c>
       <c r="B4784">
         <v>0.006964478377613492</v>
@@ -38703,7 +38703,7 @@
     </row>
     <row r="4794" spans="1:2">
       <c r="A4794">
-        <v>-0.004449803471934096</v>
+        <v>-0.004449803471934095</v>
       </c>
       <c r="B4794">
         <v>-0.008820833704380693</v>
@@ -38839,7 +38839,7 @@
     </row>
     <row r="4811" spans="1:2">
       <c r="A4811">
-        <v>-0.000474019268470938</v>
+        <v>-0.0004740192684709379</v>
       </c>
       <c r="B4811">
         <v>0.002479939974875833</v>
@@ -38895,7 +38895,7 @@
     </row>
     <row r="4818" spans="1:2">
       <c r="A4818">
-        <v>-0.004711865237090821</v>
+        <v>-0.004711865237090822</v>
       </c>
       <c r="B4818">
         <v>-0.008720294471463941</v>
@@ -39047,7 +39047,7 @@
     </row>
     <row r="4837" spans="1:2">
       <c r="A4837">
-        <v>-0.0007537118504692859</v>
+        <v>-0.000753711850469286</v>
       </c>
       <c r="B4837">
         <v>0.000515020806686195</v>
@@ -39095,7 +39095,7 @@
     </row>
     <row r="4843" spans="1:2">
       <c r="A4843">
-        <v>-0.004072345731084422</v>
+        <v>-0.004072345731084421</v>
       </c>
       <c r="B4843">
         <v>-0.008762643678452253</v>
@@ -39223,7 +39223,7 @@
     </row>
     <row r="4859" spans="1:2">
       <c r="A4859">
-        <v>0.0007089992816692076</v>
+        <v>0.0007089992816692075</v>
       </c>
       <c r="B4859">
         <v>0.004041107381809184</v>
@@ -39295,7 +39295,7 @@
     </row>
     <row r="4868" spans="1:2">
       <c r="A4868">
-        <v>-0.004107802655030986</v>
+        <v>-0.004107802655030987</v>
       </c>
       <c r="B4868">
         <v>-0.008633012359791081</v>
@@ -39303,7 +39303,7 @@
     </row>
     <row r="4869" spans="1:2">
       <c r="A4869">
-        <v>-0.003836583450371353</v>
+        <v>-0.003836583450371352</v>
       </c>
       <c r="B4869">
         <v>-0.007542017239863252</v>
@@ -39407,7 +39407,7 @@
     </row>
     <row r="4882" spans="1:2">
       <c r="A4882">
-        <v>0.0007720619430276955</v>
+        <v>0.0007720619430276956</v>
       </c>
       <c r="B4882">
         <v>0.005708671571054591</v>
@@ -39415,7 +39415,7 @@
     </row>
     <row r="4883" spans="1:2">
       <c r="A4883">
-        <v>0.0001929237755198484</v>
+        <v>0.0001929237755198483</v>
       </c>
       <c r="B4883">
         <v>0.003914611176985439</v>
@@ -39535,7 +39535,7 @@
     </row>
     <row r="4898" spans="1:2">
       <c r="A4898">
-        <v>-0.001953570124465658</v>
+        <v>-0.001953570124465659</v>
       </c>
       <c r="B4898">
         <v>0.00132077743554504</v>
@@ -39639,7 +39639,7 @@
     </row>
     <row r="4911" spans="1:2">
       <c r="A4911">
-        <v>0.002254475946368762</v>
+        <v>0.002254475946368763</v>
       </c>
       <c r="B4911">
         <v>0.005630653551097264</v>
@@ -39679,7 +39679,7 @@
     </row>
     <row r="4916" spans="1:2">
       <c r="A4916">
-        <v>-0.001318535262204034</v>
+        <v>-0.001318535262204035</v>
       </c>
       <c r="B4916">
         <v>-0.007168457867299693</v>
@@ -39783,7 +39783,7 @@
     </row>
     <row r="4929" spans="1:2">
       <c r="A4929">
-        <v>0.003752057760220743</v>
+        <v>0.003752057760220744</v>
       </c>
       <c r="B4929">
         <v>0.006478505237157428</v>
@@ -39903,7 +39903,7 @@
     </row>
     <row r="4944" spans="1:2">
       <c r="A4944">
-        <v>-0.004930819545902959</v>
+        <v>-0.004930819545902958</v>
       </c>
       <c r="B4944">
         <v>-0.01130539667383434</v>
@@ -40143,7 +40143,7 @@
     </row>
     <row r="4974" spans="1:2">
       <c r="A4974">
-        <v>-0.03644124598806755</v>
+        <v>-0.03644124598806754</v>
       </c>
       <c r="B4974">
         <v>0.01976336472512541</v>
@@ -40431,7 +40431,7 @@
     </row>
     <row r="5010" spans="1:2">
       <c r="A5010">
-        <v>-0.08604610649020865</v>
+        <v>-0.08604610649020863</v>
       </c>
       <c r="B5010">
         <v>0.05145629723027678</v>
@@ -40439,7 +40439,7 @@
     </row>
     <row r="5011" spans="1:2">
       <c r="A5011">
-        <v>-0.0879026862930815</v>
+        <v>-0.08790268629308151</v>
       </c>
       <c r="B5011">
         <v>0.06097655300552463</v>
@@ -40447,7 +40447,7 @@
     </row>
     <row r="5012" spans="1:2">
       <c r="A5012">
-        <v>-0.08957925853071126</v>
+        <v>-0.08957925853071128</v>
       </c>
       <c r="B5012">
         <v>0.04561175665077855</v>
@@ -40471,7 +40471,7 @@
     </row>
     <row r="5015" spans="1:2">
       <c r="A5015">
-        <v>-0.09543616040597898</v>
+        <v>-0.09543616040597899</v>
       </c>
       <c r="B5015">
         <v>0.05006224101490409</v>
@@ -40679,7 +40679,7 @@
     </row>
     <row r="5041" spans="1:2">
       <c r="A5041">
-        <v>-0.1333418944159844</v>
+        <v>-0.1333418944159843</v>
       </c>
       <c r="B5041">
         <v>0.09035688682492449</v>
@@ -40903,7 +40903,7 @@
     </row>
     <row r="5069" spans="1:2">
       <c r="A5069">
-        <v>-0.1260050919153051</v>
+        <v>-0.126005091915305</v>
       </c>
       <c r="B5069">
         <v>0.12159848968632</v>
@@ -41031,7 +41031,7 @@
     </row>
     <row r="5085" spans="1:2">
       <c r="A5085">
-        <v>-0.0997665413499918</v>
+        <v>-0.09976654134999181</v>
       </c>
       <c r="B5085">
         <v>0.09939596501172021</v>
@@ -41039,7 +41039,7 @@
     </row>
     <row r="5086" spans="1:2">
       <c r="A5086">
-        <v>-0.09677065128315804</v>
+        <v>-0.09677065128315802</v>
       </c>
       <c r="B5086">
         <v>0.09183722971772079</v>
@@ -41175,7 +41175,7 @@
     </row>
     <row r="5103" spans="1:2">
       <c r="A5103">
-        <v>-0.06067674534867183</v>
+        <v>-0.06067674534867182</v>
       </c>
       <c r="B5103">
         <v>0.07353641019841684</v>
@@ -41183,7 +41183,7 @@
     </row>
     <row r="5104" spans="1:2">
       <c r="A5104">
-        <v>-0.05854729119496363</v>
+        <v>-0.05854729119496364</v>
       </c>
       <c r="B5104">
         <v>0.06708112298039604</v>
@@ -41191,7 +41191,7 @@
     </row>
     <row r="5105" spans="1:2">
       <c r="A5105">
-        <v>-0.05648745822121876</v>
+        <v>-0.05648745822121875</v>
       </c>
       <c r="B5105">
         <v>0.06882030603187328</v>
@@ -41199,7 +41199,7 @@
     </row>
     <row r="5106" spans="1:2">
       <c r="A5106">
-        <v>-0.05410170924684868</v>
+        <v>-0.05410170924684867</v>
       </c>
       <c r="B5106">
         <v>0.06317462711293764</v>
@@ -41215,7 +41215,7 @@
     </row>
     <row r="5108" spans="1:2">
       <c r="A5108">
-        <v>-0.04964565858402574</v>
+        <v>-0.04964565858402573</v>
       </c>
       <c r="B5108">
         <v>0.06709452037599029</v>
@@ -41327,7 +41327,7 @@
     </row>
     <row r="5122" spans="1:2">
       <c r="A5122">
-        <v>-0.02998301919428145</v>
+        <v>-0.02998301919428146</v>
       </c>
       <c r="B5122">
         <v>0.0291229139073188</v>
@@ -41439,7 +41439,7 @@
     </row>
     <row r="5136" spans="1:2">
       <c r="A5136">
-        <v>-0.008390361911207189</v>
+        <v>-0.008390361911207187</v>
       </c>
       <c r="B5136">
         <v>0.02231052633185238</v>
@@ -41463,7 +41463,7 @@
     </row>
     <row r="5139" spans="1:2">
       <c r="A5139">
-        <v>-0.007709424550486054</v>
+        <v>-0.007709424550486053</v>
       </c>
       <c r="B5139">
         <v>0.01412864594824503</v>
@@ -41543,7 +41543,7 @@
     </row>
     <row r="5149" spans="1:2">
       <c r="A5149">
-        <v>-0.009205482950233157</v>
+        <v>-0.009205482950233155</v>
       </c>
       <c r="B5149">
         <v>-0.007008797500768882</v>
@@ -41559,7 +41559,7 @@
     </row>
     <row r="5151" spans="1:2">
       <c r="A5151">
-        <v>-0.008630250175073371</v>
+        <v>-0.00863025017507337</v>
       </c>
       <c r="B5151">
         <v>-0.006318914646947338</v>
@@ -41743,7 +41743,7 @@
     </row>
     <row r="5174" spans="1:2">
       <c r="A5174">
-        <v>-0.01083811202980137</v>
+        <v>-0.01083811202980136</v>
       </c>
       <c r="B5174">
         <v>-0.001692739144002697</v>
@@ -41775,7 +41775,7 @@
     </row>
     <row r="5178" spans="1:2">
       <c r="A5178">
-        <v>-0.01190217370580219</v>
+        <v>-0.01190217370580221</v>
       </c>
       <c r="B5178">
         <v>0.0003117447892173608</v>
@@ -41783,7 +41783,7 @@
     </row>
     <row r="5179" spans="1:2">
       <c r="A5179">
-        <v>-0.0120360290804027</v>
+        <v>-0.01203602908040269</v>
       </c>
       <c r="B5179">
         <v>-0.0004476488995814876</v>
@@ -42279,7 +42279,7 @@
     </row>
     <row r="5241" spans="1:2">
       <c r="A5241">
-        <v>-0.007356454133087794</v>
+        <v>-0.007356454133087795</v>
       </c>
       <c r="B5241">
         <v>0.01210715406327045</v>
@@ -42295,7 +42295,7 @@
     </row>
     <row r="5243" spans="1:2">
       <c r="A5243">
-        <v>-0.005718948940243612</v>
+        <v>-0.005718948940243613</v>
       </c>
       <c r="B5243">
         <v>0.0176423870115805</v>
@@ -42431,7 +42431,7 @@
     </row>
     <row r="5260" spans="1:2">
       <c r="A5260">
-        <v>-0.01102257795918202</v>
+        <v>-0.01102257795918203</v>
       </c>
       <c r="B5260">
         <v>-0.0004202437799949443</v>
@@ -42495,7 +42495,7 @@
     </row>
     <row r="5268" spans="1:2">
       <c r="A5268">
-        <v>-0.006251750447483372</v>
+        <v>-0.006251750447483373</v>
       </c>
       <c r="B5268">
         <v>0.01388340595416615</v>
@@ -42855,7 +42855,7 @@
     </row>
     <row r="5313" spans="1:2">
       <c r="A5313">
-        <v>-0.00715371350879666</v>
+        <v>-0.007153713508796659</v>
       </c>
       <c r="B5313">
         <v>-0.007279858709710041</v>
@@ -42879,7 +42879,7 @@
     </row>
     <row r="5316" spans="1:2">
       <c r="A5316">
-        <v>-0.007542693162638515</v>
+        <v>-0.007542693162638514</v>
       </c>
       <c r="B5316">
         <v>-0.007993301799733565</v>
@@ -43023,7 +43023,7 @@
     </row>
     <row r="5334" spans="1:2">
       <c r="A5334">
-        <v>-0.002551148928333014</v>
+        <v>-0.002551148928333015</v>
       </c>
       <c r="B5334">
         <v>0.008562222593107904</v>
@@ -43047,7 +43047,7 @@
     </row>
     <row r="5337" spans="1:2">
       <c r="A5337">
-        <v>-0.0048477340241174</v>
+        <v>-0.004847734024117401</v>
       </c>
       <c r="B5337">
         <v>0.001424001510317296</v>
@@ -43103,7 +43103,7 @@
     </row>
     <row r="5344" spans="1:2">
       <c r="A5344">
-        <v>-0.008113793526721473</v>
+        <v>-0.008113793526721475</v>
       </c>
       <c r="B5344">
         <v>-0.006711760852831539</v>
@@ -43151,7 +43151,7 @@
     </row>
     <row r="5350" spans="1:2">
       <c r="A5350">
-        <v>-0.005428075381395078</v>
+        <v>-0.005428075381395077</v>
       </c>
       <c r="B5350">
         <v>0.003301817219860226</v>
@@ -43367,7 +43367,7 @@
     </row>
     <row r="5377" spans="1:2">
       <c r="A5377">
-        <v>-0.004459835201754679</v>
+        <v>-0.00445983520175468</v>
       </c>
       <c r="B5377">
         <v>-0.004781953957106122</v>
@@ -43415,7 +43415,7 @@
     </row>
     <row r="5383" spans="1:2">
       <c r="A5383">
-        <v>0.0003898955381452144</v>
+        <v>0.0003898955381452143</v>
       </c>
       <c r="B5383">
         <v>0.009391189039371639</v>
@@ -43783,7 +43783,7 @@
     </row>
     <row r="5429" spans="1:2">
       <c r="A5429">
-        <v>0.001429922051605147</v>
+        <v>0.001429922051605148</v>
       </c>
       <c r="B5429">
         <v>0.003614047005658261</v>
@@ -43887,7 +43887,7 @@
     </row>
     <row r="5442" spans="1:2">
       <c r="A5442">
-        <v>0.002672396629949814</v>
+        <v>0.002672396629949815</v>
       </c>
       <c r="B5442">
         <v>-0.001271597799422874</v>
@@ -43999,7 +43999,7 @@
     </row>
     <row r="5456" spans="1:2">
       <c r="A5456">
-        <v>0.005156358012285176</v>
+        <v>0.005156358012285177</v>
       </c>
       <c r="B5456">
         <v>0.004668081408733649</v>
@@ -44015,7 +44015,7 @@
     </row>
     <row r="5458" spans="1:2">
       <c r="A5458">
-        <v>0.006854064880369234</v>
+        <v>0.006854064880369235</v>
       </c>
       <c r="B5458">
         <v>0.008165306912196524</v>
@@ -44287,7 +44287,7 @@
     </row>
     <row r="5492" spans="1:2">
       <c r="A5492">
-        <v>0.007768935435079862</v>
+        <v>0.007768935435079863</v>
       </c>
       <c r="B5492">
         <v>0.005025201492343534</v>
@@ -44327,7 +44327,7 @@
     </row>
     <row r="5497" spans="1:2">
       <c r="A5497">
-        <v>0.005373327139347257</v>
+        <v>0.005373327139347256</v>
       </c>
       <c r="B5497">
         <v>-0.003891709665103438</v>
@@ -44431,7 +44431,7 @@
     </row>
     <row r="5510" spans="1:2">
       <c r="A5510">
-        <v>0.004792915016100387</v>
+        <v>0.004792915016100386</v>
       </c>
       <c r="B5510">
         <v>-0.003050442349672444</v>
@@ -44439,7 +44439,7 @@
     </row>
     <row r="5511" spans="1:2">
       <c r="A5511">
-        <v>0.005716567656057004</v>
+        <v>0.005716567656057005</v>
       </c>
       <c r="B5511">
         <v>0.0003767651117891901</v>
@@ -44727,7 +44727,7 @@
     </row>
     <row r="5547" spans="1:2">
       <c r="A5547">
-        <v>0.008302684038024963</v>
+        <v>0.008302684038024965</v>
       </c>
       <c r="B5547">
         <v>-0.005897587970067342</v>
@@ -44759,7 +44759,7 @@
     </row>
     <row r="5551" spans="1:2">
       <c r="A5551">
-        <v>0.005499014885917265</v>
+        <v>0.005499014885917266</v>
       </c>
       <c r="B5551">
         <v>-0.0115549050634276</v>
@@ -44847,7 +44847,7 @@
     </row>
     <row r="5562" spans="1:2">
       <c r="A5562">
-        <v>0.005392128444599955</v>
+        <v>0.005392128444599956</v>
       </c>
       <c r="B5562">
         <v>-0.004814961856384858</v>
@@ -44863,7 +44863,7 @@
     </row>
     <row r="5564" spans="1:2">
       <c r="A5564">
-        <v>0.007433358255743138</v>
+        <v>0.007433358255743137</v>
       </c>
       <c r="B5564">
         <v>0.001698989647004545</v>
@@ -44871,7 +44871,7 @@
     </row>
     <row r="5565" spans="1:2">
       <c r="A5565">
-        <v>0.008057609995275959</v>
+        <v>0.008057609995275961</v>
       </c>
       <c r="B5565">
         <v>0.00279766505756962</v>
@@ -44895,7 +44895,7 @@
     </row>
     <row r="5568" spans="1:2">
       <c r="A5568">
-        <v>0.009164128907573878</v>
+        <v>0.009164128907573879</v>
       </c>
       <c r="B5568">
         <v>0.0050841097205927</v>
@@ -44911,7 +44911,7 @@
     </row>
     <row r="5570" spans="1:2">
       <c r="A5570">
-        <v>0.009292498715700027</v>
+        <v>0.009292498715700025</v>
       </c>
       <c r="B5570">
         <v>0.004883832106844288</v>
@@ -44967,7 +44967,7 @@
     </row>
     <row r="5577" spans="1:2">
       <c r="A5577">
-        <v>0.00742515442027343</v>
+        <v>0.007425154420273431</v>
       </c>
       <c r="B5577">
         <v>-0.004617011329387744</v>
@@ -44975,7 +44975,7 @@
     </row>
     <row r="5578" spans="1:2">
       <c r="A5578">
-        <v>0.006991296025395789</v>
+        <v>0.00699129602539579</v>
       </c>
       <c r="B5578">
         <v>-0.007149640858547635</v>
@@ -45023,7 +45023,7 @@
     </row>
     <row r="5584" spans="1:2">
       <c r="A5584">
-        <v>0.002945606790158387</v>
+        <v>0.002945606790158386</v>
       </c>
       <c r="B5584">
         <v>-0.0180965319859161</v>
@@ -45111,7 +45111,7 @@
     </row>
     <row r="5595" spans="1:2">
       <c r="A5595">
-        <v>0.008879957964493295</v>
+        <v>0.008879957964493293</v>
       </c>
       <c r="B5595">
         <v>0.0004614919056629141</v>
@@ -45119,7 +45119,7 @@
     </row>
     <row r="5596" spans="1:2">
       <c r="A5596">
-        <v>0.009520051921377771</v>
+        <v>0.009520051921377773</v>
       </c>
       <c r="B5596">
         <v>0.003477799852972474</v>
@@ -45127,7 +45127,7 @@
     </row>
     <row r="5597" spans="1:2">
       <c r="A5597">
-        <v>0.009935811356730922</v>
+        <v>0.00993581135673092</v>
       </c>
       <c r="B5597">
         <v>0.003397454797444244</v>
@@ -45207,7 +45207,7 @@
     </row>
     <row r="5607" spans="1:2">
       <c r="A5607">
-        <v>0.009521681168740019</v>
+        <v>0.009521681168740021</v>
       </c>
       <c r="B5607">
         <v>-0.004613178387359973</v>
@@ -45239,7 +45239,7 @@
     </row>
     <row r="5611" spans="1:2">
       <c r="A5611">
-        <v>0.007747881834207573</v>
+        <v>0.007747881834207574</v>
       </c>
       <c r="B5611">
         <v>-0.01087557659612814</v>
@@ -45271,7 +45271,7 @@
     </row>
     <row r="5615" spans="1:2">
       <c r="A5615">
-        <v>0.005138696396578914</v>
+        <v>0.005138696396578915</v>
       </c>
       <c r="B5615">
         <v>-0.01994971378450838</v>
@@ -45279,7 +45279,7 @@
     </row>
     <row r="5616" spans="1:2">
       <c r="A5616">
-        <v>0.004412063311413328</v>
+        <v>0.004412063311413327</v>
       </c>
       <c r="B5616">
         <v>-0.0200576319659751</v>
@@ -45311,7 +45311,7 @@
     </row>
     <row r="5620" spans="1:2">
       <c r="A5620">
-        <v>0.004578685113558948</v>
+        <v>0.004578685113558947</v>
       </c>
       <c r="B5620">
         <v>-0.01927501035119361</v>
@@ -45335,7 +45335,7 @@
     </row>
     <row r="5623" spans="1:2">
       <c r="A5623">
-        <v>0.006719621366562277</v>
+        <v>0.006719621366562278</v>
       </c>
       <c r="B5623">
         <v>-0.01231499750412013</v>
@@ -45487,7 +45487,7 @@
     </row>
     <row r="5642" spans="1:2">
       <c r="A5642">
-        <v>0.01238916192000784</v>
+        <v>0.01238916192000783</v>
       </c>
       <c r="B5642">
         <v>-0.007437728348016481</v>
@@ -45575,7 +45575,7 @@
     </row>
     <row r="5653" spans="1:2">
       <c r="A5653">
-        <v>0.008529338913817179</v>
+        <v>0.008529338913817177</v>
       </c>
       <c r="B5653">
         <v>-0.02195304038909951</v>
@@ -45895,7 +45895,7 @@
     </row>
     <row r="5693" spans="1:2">
       <c r="A5693">
-        <v>0.01547626068642616</v>
+        <v>0.01547626068642617</v>
       </c>
       <c r="B5693">
         <v>-0.009767663682768823</v>
@@ -46047,7 +46047,7 @@
     </row>
     <row r="5712" spans="1:2">
       <c r="A5712">
-        <v>0.007725082603212518</v>
+        <v>0.007725082603212517</v>
       </c>
       <c r="B5712">
         <v>-0.02412288651972627</v>
@@ -46071,7 +46071,7 @@
     </row>
     <row r="5715" spans="1:2">
       <c r="A5715">
-        <v>0.008347157610947158</v>
+        <v>0.008347157610947157</v>
       </c>
       <c r="B5715">
         <v>-0.02052605205431757</v>
@@ -46199,7 +46199,7 @@
     </row>
     <row r="5731" spans="1:2">
       <c r="A5731">
-        <v>0.01599881794882488</v>
+        <v>0.01599881794882487</v>
       </c>
       <c r="B5731">
         <v>-0.001447697362489286</v>
@@ -46239,7 +46239,7 @@
     </row>
     <row r="5736" spans="1:2">
       <c r="A5736">
-        <v>0.01575294191934413</v>
+        <v>0.01575294191934412</v>
       </c>
       <c r="B5736">
         <v>-0.008011404847294123</v>
@@ -46511,7 +46511,7 @@
     </row>
     <row r="5770" spans="1:2">
       <c r="A5770">
-        <v>0.01646055561370439</v>
+        <v>0.01646055561370438</v>
       </c>
       <c r="B5770">
         <v>-0.01677718513933701</v>
@@ -46655,7 +46655,7 @@
     </row>
     <row r="5788" spans="1:2">
       <c r="A5788">
-        <v>0.01487844611672147</v>
+        <v>0.01487844611672146</v>
       </c>
       <c r="B5788">
         <v>-0.003660094515882673</v>
@@ -46759,7 +46759,7 @@
     </row>
     <row r="5801" spans="1:2">
       <c r="A5801">
-        <v>0.005700952879914437</v>
+        <v>0.005700952879914438</v>
       </c>
       <c r="B5801">
         <v>-0.01830981533569664</v>
@@ -46791,7 +46791,7 @@
     </row>
     <row r="5805" spans="1:2">
       <c r="A5805">
-        <v>0.004188291661461422</v>
+        <v>0.004188291661461423</v>
       </c>
       <c r="B5805">
         <v>-0.0185272117795412</v>
@@ -46879,7 +46879,7 @@
     </row>
     <row r="5816" spans="1:2">
       <c r="A5816">
-        <v>0.009197603114910781</v>
+        <v>0.009197603114910783</v>
       </c>
       <c r="B5816">
         <v>0.005579552451047576</v>
@@ -46943,7 +46943,7 @@
     </row>
     <row r="5824" spans="1:2">
       <c r="A5824">
-        <v>0.00573210461869845</v>
+        <v>0.005732104618698449</v>
       </c>
       <c r="B5824">
         <v>-0.004098250655273805</v>
@@ -46983,7 +46983,7 @@
     </row>
     <row r="5829" spans="1:2">
       <c r="A5829">
-        <v>0.0007588064612311966</v>
+        <v>0.0007588064612311965</v>
       </c>
       <c r="B5829">
         <v>-0.01596478653658506</v>
@@ -47023,7 +47023,7 @@
     </row>
     <row r="5834" spans="1:2">
       <c r="A5834">
-        <v>-0.0008263505431594783</v>
+        <v>-0.0008263505431594782</v>
       </c>
       <c r="B5834">
         <v>-0.01572523231582457</v>
@@ -47079,7 +47079,7 @@
     </row>
     <row r="5841" spans="1:2">
       <c r="A5841">
-        <v>0.002251759843848637</v>
+        <v>0.002251759843848636</v>
       </c>
       <c r="B5841">
         <v>8.289932207450335E-05</v>
@@ -47119,7 +47119,7 @@
     </row>
     <row r="5846" spans="1:2">
       <c r="A5846">
-        <v>0.004613230662763337</v>
+        <v>0.004613230662763336</v>
       </c>
       <c r="B5846">
         <v>0.008502332810355728</v>
@@ -47247,7 +47247,7 @@
     </row>
     <row r="5862" spans="1:2">
       <c r="A5862">
-        <v>-0.0009481881984753728</v>
+        <v>-0.0009481881984753729</v>
       </c>
       <c r="B5862">
         <v>-0.004290115964663777</v>
@@ -47271,7 +47271,7 @@
     </row>
     <row r="5865" spans="1:2">
       <c r="A5865">
-        <v>0.0008197429053590829</v>
+        <v>0.000819742905359083</v>
       </c>
       <c r="B5865">
         <v>0.001524220106634999</v>
@@ -47311,7 +47311,7 @@
     </row>
     <row r="5870" spans="1:2">
       <c r="A5870">
-        <v>0.002857437076563488</v>
+        <v>0.002857437076563489</v>
       </c>
       <c r="B5870">
         <v>0.00735202991795969</v>
@@ -47327,7 +47327,7 @@
     </row>
     <row r="5872" spans="1:2">
       <c r="A5872">
-        <v>0.002198023307655841</v>
+        <v>0.002198023307655842</v>
       </c>
       <c r="B5872">
         <v>0.005436000156006759</v>
@@ -47343,7 +47343,7 @@
     </row>
     <row r="5874" spans="1:2">
       <c r="A5874">
-        <v>0.0009255035372763946</v>
+        <v>0.0009255035372763948</v>
       </c>
       <c r="B5874">
         <v>0.001913687605052505</v>
@@ -47439,7 +47439,7 @@
     </row>
     <row r="5886" spans="1:2">
       <c r="A5886">
-        <v>-0.0008484413534932426</v>
+        <v>-0.0008484413534932427</v>
       </c>
       <c r="B5886">
         <v>0.001545548480546</v>
@@ -47527,7 +47527,7 @@
     </row>
     <row r="5897" spans="1:2">
       <c r="A5897">
-        <v>-0.003458990474928634</v>
+        <v>-0.003458990474928635</v>
       </c>
       <c r="B5897">
         <v>-0.004378498630222882</v>
@@ -47575,7 +47575,7 @@
     </row>
     <row r="5903" spans="1:2">
       <c r="A5903">
-        <v>-0.009118047689833271</v>
+        <v>-0.009118047689833273</v>
       </c>
       <c r="B5903">
         <v>-0.01490192295929171</v>
@@ -47583,7 +47583,7 @@
     </row>
     <row r="5904" spans="1:2">
       <c r="A5904">
-        <v>-0.009231813429668022</v>
+        <v>-0.00923181342966802</v>
       </c>
       <c r="B5904">
         <v>-0.01016760420077256</v>
@@ -47671,7 +47671,7 @@
     </row>
     <row r="5915" spans="1:2">
       <c r="A5915">
-        <v>-0.007308542951231642</v>
+        <v>-0.007308542951231641</v>
       </c>
       <c r="B5915">
         <v>0.006564920396119334</v>
@@ -47927,7 +47927,7 @@
     </row>
     <row r="5947" spans="1:2">
       <c r="A5947">
-        <v>-0.02340073048205198</v>
+        <v>-0.02340073048205197</v>
       </c>
       <c r="B5947">
         <v>0.03411282309297725</v>
@@ -48071,7 +48071,7 @@
     </row>
     <row r="5965" spans="1:2">
       <c r="A5965">
-        <v>-0.03233708384670349</v>
+        <v>-0.03233708384670348</v>
       </c>
       <c r="B5965">
         <v>-0.004564314650792767</v>
@@ -48127,7 +48127,7 @@
     </row>
     <row r="5972" spans="1:2">
       <c r="A5972">
-        <v>-0.03497785144574249</v>
+        <v>-0.0349778514457425</v>
       </c>
       <c r="B5972">
         <v>-0.02483794096630598</v>
@@ -48375,7 +48375,7 @@
     </row>
     <row r="6003" spans="1:2">
       <c r="A6003">
-        <v>-0.0383071737519569</v>
+        <v>-0.03830717375195691</v>
       </c>
       <c r="B6003">
         <v>-0.006117842638139415</v>
@@ -48391,7 +48391,7 @@
     </row>
     <row r="6005" spans="1:2">
       <c r="A6005">
-        <v>-0.03769051143203402</v>
+        <v>-0.03769051143203401</v>
       </c>
       <c r="B6005">
         <v>-0.05615568430637996</v>
@@ -48527,7 +48527,7 @@
     </row>
     <row r="6022" spans="1:2">
       <c r="A6022">
-        <v>-0.02748152100474557</v>
+        <v>-0.02748152100474558</v>
       </c>
       <c r="B6022">
         <v>0.05782954395231155</v>
@@ -48535,7 +48535,7 @@
     </row>
     <row r="6023" spans="1:2">
       <c r="A6023">
-        <v>-0.027328537801493</v>
+        <v>-0.02732853780149299</v>
       </c>
       <c r="B6023">
         <v>0.004488179891455335</v>
@@ -48551,7 +48551,7 @@
     </row>
     <row r="6025" spans="1:2">
       <c r="A6025">
-        <v>-0.0268272339532263</v>
+        <v>-0.02682723395322631</v>
       </c>
       <c r="B6025">
         <v>0.03780989573925009</v>
@@ -48655,7 +48655,7 @@
     </row>
     <row r="6038" spans="1:2">
       <c r="A6038">
-        <v>-0.02317509345757551</v>
+        <v>-0.02317509345757552</v>
       </c>
       <c r="B6038">
         <v>0.02638086447025678</v>
@@ -48847,7 +48847,7 @@
     </row>
     <row r="6062" spans="1:2">
       <c r="A6062">
-        <v>-0.01356698542069542</v>
+        <v>-0.01356698542069541</v>
       </c>
       <c r="B6062">
         <v>-0.01148490993130791</v>
@@ -49127,7 +49127,7 @@
     </row>
     <row r="6097" spans="1:2">
       <c r="A6097">
-        <v>-0.009015668001099646</v>
+        <v>-0.009015668001099647</v>
       </c>
       <c r="B6097">
         <v>0.003747949543065232</v>
@@ -49151,7 +49151,7 @@
     </row>
     <row r="6100" spans="1:2">
       <c r="A6100">
-        <v>-0.009069060744149593</v>
+        <v>-0.009069060744149591</v>
       </c>
       <c r="B6100">
         <v>0.01396904979252955</v>
@@ -49167,7 +49167,7 @@
     </row>
     <row r="6102" spans="1:2">
       <c r="A6102">
-        <v>-0.008414492704182231</v>
+        <v>-0.008414492704182232</v>
       </c>
       <c r="B6102">
         <v>0.008477326578772093</v>
@@ -49175,7 +49175,7 @@
     </row>
     <row r="6103" spans="1:2">
       <c r="A6103">
-        <v>-0.008396680901753977</v>
+        <v>-0.008396680901753975</v>
       </c>
       <c r="B6103">
         <v>0.01125966660058841</v>
@@ -49247,7 +49247,7 @@
     </row>
     <row r="6112" spans="1:2">
       <c r="A6112">
-        <v>-0.008838353525265923</v>
+        <v>-0.008838353525265925</v>
       </c>
       <c r="B6112">
         <v>0.008559257265402298</v>
@@ -49279,7 +49279,7 @@
     </row>
     <row r="6116" spans="1:2">
       <c r="A6116">
-        <v>-0.00898618699683161</v>
+        <v>-0.008986186996831609</v>
       </c>
       <c r="B6116">
         <v>0.006935500664631888</v>
@@ -49343,7 +49343,7 @@
     </row>
     <row r="6124" spans="1:2">
       <c r="A6124">
-        <v>-0.009072330984725359</v>
+        <v>-0.00907233098472536</v>
       </c>
       <c r="B6124">
         <v>0.004505103097708574</v>
@@ -49359,7 +49359,7 @@
     </row>
     <row r="6126" spans="1:2">
       <c r="A6126">
-        <v>-0.009164987000514945</v>
+        <v>-0.009164987000514943</v>
       </c>
       <c r="B6126">
         <v>0.0008677202043938514</v>
@@ -49423,7 +49423,7 @@
     </row>
     <row r="6134" spans="1:2">
       <c r="A6134">
-        <v>-0.009435673454797991</v>
+        <v>-0.009435673454797993</v>
       </c>
       <c r="B6134">
         <v>0.001295705516009438</v>
@@ -49463,7 +49463,7 @@
     </row>
     <row r="6139" spans="1:2">
       <c r="A6139">
-        <v>-0.009591359340377813</v>
+        <v>-0.009591359340377815</v>
       </c>
       <c r="B6139">
         <v>0.003641090744188613</v>
@@ -49519,7 +49519,7 @@
     </row>
     <row r="6146" spans="1:2">
       <c r="A6146">
-        <v>-0.009580242898103219</v>
+        <v>-0.009580242898103218</v>
       </c>
       <c r="B6146">
         <v>0.004960172848390787</v>
@@ -49599,7 +49599,7 @@
     </row>
     <row r="6156" spans="1:2">
       <c r="A6156">
-        <v>-0.008489278642149907</v>
+        <v>-0.008489278642149909</v>
       </c>
       <c r="B6156">
         <v>0.008346609676853411</v>
@@ -49607,7 +49607,7 @@
     </row>
     <row r="6157" spans="1:2">
       <c r="A6157">
-        <v>-0.008328067614574965</v>
+        <v>-0.008328067614574967</v>
       </c>
       <c r="B6157">
         <v>0.005985977419830313</v>
@@ -49663,7 +49663,7 @@
     </row>
     <row r="6164" spans="1:2">
       <c r="A6164">
-        <v>-0.005924152484121263</v>
+        <v>-0.005924152484121264</v>
       </c>
       <c r="B6164">
         <v>0.01054983176938329</v>
@@ -49695,7 +49695,7 @@
     </row>
     <row r="6168" spans="1:2">
       <c r="A6168">
-        <v>-0.003922973148723259</v>
+        <v>-0.00392297314872326</v>
       </c>
       <c r="B6168">
         <v>0.01376859317442491</v>
@@ -49735,7 +49735,7 @@
     </row>
     <row r="6173" spans="1:2">
       <c r="A6173">
-        <v>-0.004313461381541746</v>
+        <v>-0.004313461381541745</v>
       </c>
       <c r="B6173">
         <v>0.006935257349892865</v>
@@ -49759,7 +49759,7 @@
     </row>
     <row r="6176" spans="1:2">
       <c r="A6176">
-        <v>-0.004522031680099486</v>
+        <v>-0.004522031680099485</v>
       </c>
       <c r="B6176">
         <v>0.004114435457919896</v>
@@ -49799,7 +49799,7 @@
     </row>
     <row r="6181" spans="1:2">
       <c r="A6181">
-        <v>-0.003465803706160148</v>
+        <v>-0.003465803706160149</v>
       </c>
       <c r="B6181">
         <v>0.006344103572425652</v>
@@ -49855,7 +49855,7 @@
     </row>
     <row r="6188" spans="1:2">
       <c r="A6188">
-        <v>-0.0009654426917628862</v>
+        <v>-0.0009654426917628861</v>
       </c>
       <c r="B6188">
         <v>0.007403063096363738</v>
@@ -49879,7 +49879,7 @@
     </row>
     <row r="6191" spans="1:2">
       <c r="A6191">
-        <v>-0.00232255144109299</v>
+        <v>-0.002322551441092989</v>
       </c>
       <c r="B6191">
         <v>0.003013804265811437</v>
@@ -50047,7 +50047,7 @@
     </row>
     <row r="6212" spans="1:2">
       <c r="A6212">
-        <v>-0.003933159188918745</v>
+        <v>-0.003933159188918746</v>
       </c>
       <c r="B6212">
         <v>0.003084445986661244</v>
@@ -50055,7 +50055,7 @@
     </row>
     <row r="6213" spans="1:2">
       <c r="A6213">
-        <v>-0.004388724047647732</v>
+        <v>-0.004388724047647731</v>
       </c>
       <c r="B6213">
         <v>0.003188766957667788</v>
@@ -50095,7 +50095,7 @@
     </row>
     <row r="6218" spans="1:2">
       <c r="A6218">
-        <v>-0.005379042723960818</v>
+        <v>-0.005379042723960819</v>
       </c>
       <c r="B6218">
         <v>0.002666150606930984</v>
@@ -50111,7 +50111,7 @@
     </row>
     <row r="6220" spans="1:2">
       <c r="A6220">
-        <v>-0.005428158800900585</v>
+        <v>-0.005428158800900584</v>
       </c>
       <c r="B6220">
         <v>0.003063298617981047</v>
@@ -50119,7 +50119,7 @@
     </row>
     <row r="6221" spans="1:2">
       <c r="A6221">
-        <v>-0.005396049896621178</v>
+        <v>-0.005396049896621179</v>
       </c>
       <c r="B6221">
         <v>0.004723941553701039</v>
@@ -50175,7 +50175,7 @@
     </row>
     <row r="6228" spans="1:2">
       <c r="A6228">
-        <v>-0.004120974499365892</v>
+        <v>-0.004120974499365891</v>
       </c>
       <c r="B6228">
         <v>0.01051437463064087</v>
@@ -50223,7 +50223,7 @@
     </row>
     <row r="6234" spans="1:2">
       <c r="A6234">
-        <v>-0.006509166487474836</v>
+        <v>-0.006509166487474835</v>
       </c>
       <c r="B6234">
         <v>0.006605590011043105</v>
@@ -50231,7 +50231,7 @@
     </row>
     <row r="6235" spans="1:2">
       <c r="A6235">
-        <v>-0.006994818341162745</v>
+        <v>-0.006994818341162746</v>
       </c>
       <c r="B6235">
         <v>0.004005290933583261</v>
@@ -50247,7 +50247,7 @@
     </row>
     <row r="6237" spans="1:2">
       <c r="A6237">
-        <v>-0.007420984853968862</v>
+        <v>-0.007420984853968861</v>
       </c>
       <c r="B6237">
         <v>0.002847449140920055</v>
@@ -50271,7 +50271,7 @@
     </row>
     <row r="6240" spans="1:2">
       <c r="A6240">
-        <v>-0.007445308766565673</v>
+        <v>-0.007445308766565672</v>
       </c>
       <c r="B6240">
         <v>0.004469203665836474</v>
@@ -50311,7 +50311,7 @@
     </row>
     <row r="6245" spans="1:2">
       <c r="A6245">
-        <v>-0.006315907463119875</v>
+        <v>-0.006315907463119874</v>
       </c>
       <c r="B6245">
         <v>0.008896284626612072</v>
@@ -50343,7 +50343,7 @@
     </row>
     <row r="6249" spans="1:2">
       <c r="A6249">
-        <v>-0.005918369143755783</v>
+        <v>-0.005918369143755784</v>
       </c>
       <c r="B6249">
         <v>0.011945242674682</v>
@@ -50375,7 +50375,7 @@
     </row>
     <row r="6253" spans="1:2">
       <c r="A6253">
-        <v>-0.007758936710300765</v>
+        <v>-0.007758936710300766</v>
       </c>
       <c r="B6253">
         <v>0.006448561882291592</v>
@@ -50455,7 +50455,7 @@
     </row>
     <row r="6263" spans="1:2">
       <c r="A6263">
-        <v>-0.004877684804304943</v>
+        <v>-0.004877684804304942</v>
       </c>
       <c r="B6263">
         <v>0.01363109752359382</v>
@@ -50543,7 +50543,7 @@
     </row>
     <row r="6274" spans="1:2">
       <c r="A6274">
-        <v>-0.008369208357608997</v>
+        <v>-0.008369208357608999</v>
       </c>
       <c r="B6274">
         <v>0.003843285788859951</v>
@@ -50559,7 +50559,7 @@
     </row>
     <row r="6276" spans="1:2">
       <c r="A6276">
-        <v>-0.007968287344864582</v>
+        <v>-0.007968287344864584</v>
       </c>
       <c r="B6276">
         <v>0.004624587293005966</v>
@@ -50623,7 +50623,7 @@
     </row>
     <row r="6284" spans="1:2">
       <c r="A6284">
-        <v>-0.004234824429563015</v>
+        <v>-0.004234824429563014</v>
       </c>
       <c r="B6284">
         <v>0.01455264958175473</v>
@@ -50655,7 +50655,7 @@
     </row>
     <row r="6288" spans="1:2">
       <c r="A6288">
-        <v>-0.005569488276504949</v>
+        <v>-0.00556948827650495</v>
       </c>
       <c r="B6288">
         <v>0.009007798558037905</v>
@@ -50695,7 +50695,7 @@
     </row>
     <row r="6293" spans="1:2">
       <c r="A6293">
-        <v>-0.009483573810409698</v>
+        <v>-0.0094835738104097</v>
       </c>
       <c r="B6293">
         <v>-0.001380108834564631</v>
@@ -50703,7 +50703,7 @@
     </row>
     <row r="6294" spans="1:2">
       <c r="A6294">
-        <v>-0.009785621570458732</v>
+        <v>-0.00978562157045873</v>
       </c>
       <c r="B6294">
         <v>-0.001062574283107409</v>
@@ -50735,7 +50735,7 @@
     </row>
     <row r="6298" spans="1:2">
       <c r="A6298">
-        <v>-0.009884591032037454</v>
+        <v>-0.009884591032037452</v>
       </c>
       <c r="B6298">
         <v>-0.0005683833518039805</v>
@@ -50743,7 +50743,7 @@
     </row>
     <row r="6299" spans="1:2">
       <c r="A6299">
-        <v>-0.00979735820848497</v>
+        <v>-0.009797358208484968</v>
       </c>
       <c r="B6299">
         <v>0.001069638005523288</v>
@@ -50807,7 +50807,7 @@
     </row>
     <row r="6307" spans="1:2">
       <c r="A6307">
-        <v>-0.005720143531078477</v>
+        <v>-0.005720143531078478</v>
       </c>
       <c r="B6307">
         <v>0.01486450850981047</v>
@@ -50879,7 +50879,7 @@
     </row>
     <row r="6316" spans="1:2">
       <c r="A6316">
-        <v>-0.009662133810965369</v>
+        <v>-0.009662133810965368</v>
       </c>
       <c r="B6316">
         <v>0.002510750304239195</v>
@@ -50927,7 +50927,7 @@
     </row>
     <row r="6322" spans="1:2">
       <c r="A6322">
-        <v>-0.009699294922448792</v>
+        <v>-0.00969929492244879</v>
       </c>
       <c r="B6322">
         <v>0.003503606972002693</v>
@@ -50935,7 +50935,7 @@
     </row>
     <row r="6323" spans="1:2">
       <c r="A6323">
-        <v>-0.009336289913280758</v>
+        <v>-0.009336289913280759</v>
       </c>
       <c r="B6323">
         <v>0.00354721868137986</v>
@@ -50943,7 +50943,7 @@
     </row>
     <row r="6324" spans="1:2">
       <c r="A6324">
-        <v>-0.008811188367033311</v>
+        <v>-0.008811188367033313</v>
       </c>
       <c r="B6324">
         <v>0.005744140500137718</v>
@@ -50975,7 +50975,7 @@
     </row>
     <row r="6328" spans="1:2">
       <c r="A6328">
-        <v>-0.005987565476494046</v>
+        <v>-0.005987565476494045</v>
       </c>
       <c r="B6328">
         <v>0.01217900990531895</v>
@@ -51007,7 +51007,7 @@
     </row>
     <row r="6332" spans="1:2">
       <c r="A6332">
-        <v>-0.002689261340021953</v>
+        <v>-0.002689261340021954</v>
       </c>
       <c r="B6332">
         <v>0.01959787112685518</v>
@@ -51127,7 +51127,7 @@
     </row>
     <row r="6347" spans="1:2">
       <c r="A6347">
-        <v>-0.008890264243823602</v>
+        <v>-0.008890264243823604</v>
       </c>
       <c r="B6347">
         <v>-0.006892503387686766</v>
@@ -51135,7 +51135,7 @@
     </row>
     <row r="6348" spans="1:2">
       <c r="A6348">
-        <v>-0.008780575552779389</v>
+        <v>-0.008780575552779387</v>
       </c>
       <c r="B6348">
         <v>-0.007209899461043001</v>
@@ -51143,7 +51143,7 @@
     </row>
     <row r="6349" spans="1:2">
       <c r="A6349">
-        <v>-0.008762293812663278</v>
+        <v>-0.008762293812663276</v>
       </c>
       <c r="B6349">
         <v>-0.006219832375934153</v>
@@ -51151,7 +51151,7 @@
     </row>
     <row r="6350" spans="1:2">
       <c r="A6350">
-        <v>-0.00846709862887822</v>
+        <v>-0.008467098628878221</v>
       </c>
       <c r="B6350">
         <v>-0.004546395492727839</v>
@@ -51191,7 +51191,7 @@
     </row>
     <row r="6355" spans="1:2">
       <c r="A6355">
-        <v>-0.006291442684711226</v>
+        <v>-0.006291442684711227</v>
       </c>
       <c r="B6355">
         <v>0.003799067721871552</v>
@@ -51199,7 +51199,7 @@
     </row>
     <row r="6356" spans="1:2">
       <c r="A6356">
-        <v>-0.005554188204589923</v>
+        <v>-0.005554188204589924</v>
       </c>
       <c r="B6356">
         <v>0.005448470918444137</v>
@@ -51207,7 +51207,7 @@
     </row>
     <row r="6357" spans="1:2">
       <c r="A6357">
-        <v>-0.004892260492806082</v>
+        <v>-0.004892260492806083</v>
       </c>
       <c r="B6357">
         <v>0.008005176245445611</v>
@@ -51271,7 +51271,7 @@
     </row>
     <row r="6365" spans="1:2">
       <c r="A6365">
-        <v>-0.002967803424958882</v>
+        <v>-0.002967803424958881</v>
       </c>
       <c r="B6365">
         <v>0.01184169924397871</v>
@@ -51279,7 +51279,7 @@
     </row>
     <row r="6366" spans="1:2">
       <c r="A6366">
-        <v>-0.003453155093605859</v>
+        <v>-0.00345315509360586</v>
       </c>
       <c r="B6366">
         <v>0.009482332501358215</v>
@@ -51383,7 +51383,7 @@
     </row>
     <row r="6379" spans="1:2">
       <c r="A6379">
-        <v>-0.005976354462925504</v>
+        <v>-0.005976354462925503</v>
       </c>
       <c r="B6379">
         <v>0.002419495288225271</v>
@@ -51415,7 +51415,7 @@
     </row>
     <row r="6383" spans="1:2">
       <c r="A6383">
-        <v>-0.002714004355393405</v>
+        <v>-0.002714004355393406</v>
       </c>
       <c r="B6383">
         <v>0.01052898768572597</v>
@@ -51431,7 +51431,7 @@
     </row>
     <row r="6385" spans="1:2">
       <c r="A6385">
-        <v>-0.001344542361467527</v>
+        <v>-0.001344542361467526</v>
       </c>
       <c r="B6385">
         <v>0.01409066982381635</v>
@@ -51543,7 +51543,7 @@
     </row>
     <row r="6399" spans="1:2">
       <c r="A6399">
-        <v>-0.00702674902939657</v>
+        <v>-0.007026749029396569</v>
       </c>
       <c r="B6399">
         <v>-0.007406564818999151</v>
@@ -51647,7 +51647,7 @@
     </row>
     <row r="6412" spans="1:2">
       <c r="A6412">
-        <v>-0.0003230739662636017</v>
+        <v>-0.0003230739662636016</v>
       </c>
       <c r="B6412">
         <v>0.01250327869533763</v>
@@ -51711,7 +51711,7 @@
     </row>
     <row r="6420" spans="1:2">
       <c r="A6420">
-        <v>-0.003368648784732129</v>
+        <v>-0.00336864878473213</v>
       </c>
       <c r="B6420">
         <v>0.0007308604049738321</v>
@@ -51727,7 +51727,7 @@
     </row>
     <row r="6422" spans="1:2">
       <c r="A6422">
-        <v>-0.005196531850338401</v>
+        <v>-0.005196531850338402</v>
       </c>
       <c r="B6422">
         <v>-0.004609585372221225</v>
@@ -51735,7 +51735,7 @@
     </row>
     <row r="6423" spans="1:2">
       <c r="A6423">
-        <v>-0.005640403816371598</v>
+        <v>-0.005640403816371599</v>
       </c>
       <c r="B6423">
         <v>-0.006089320896563777</v>
@@ -51895,7 +51895,7 @@
     </row>
     <row r="6443" spans="1:2">
       <c r="A6443">
-        <v>0.00250989597108305</v>
+        <v>0.002509895971083049</v>
       </c>
       <c r="B6443">
         <v>0.01031893990070731</v>
@@ -51999,7 +51999,7 @@
     </row>
     <row r="6456" spans="1:2">
       <c r="A6456">
-        <v>-0.001103204495981776</v>
+        <v>-0.001103204495981777</v>
       </c>
       <c r="B6456">
         <v>-0.006326141632643889</v>
@@ -52055,7 +52055,7 @@
     </row>
     <row r="6463" spans="1:2">
       <c r="A6463">
-        <v>0.004653259677375354</v>
+        <v>0.004653259677375353</v>
       </c>
       <c r="B6463">
         <v>0.00823906638157279</v>
@@ -52071,7 +52071,7 @@
     </row>
     <row r="6465" spans="1:2">
       <c r="A6465">
-        <v>0.005330226343665879</v>
+        <v>0.005330226343665878</v>
       </c>
       <c r="B6465">
         <v>0.00896792053879647</v>
@@ -52079,7 +52079,7 @@
     </row>
     <row r="6466" spans="1:2">
       <c r="A6466">
-        <v>0.005475753677015906</v>
+        <v>0.005475753677015905</v>
       </c>
       <c r="B6466">
         <v>0.008956250995854731</v>
@@ -52095,7 +52095,7 @@
     </row>
     <row r="6468" spans="1:2">
       <c r="A6468">
-        <v>0.005197725247760571</v>
+        <v>0.00519772524776057</v>
       </c>
       <c r="B6468">
         <v>0.007090369969668053</v>
@@ -52103,7 +52103,7 @@
     </row>
     <row r="6469" spans="1:2">
       <c r="A6469">
-        <v>0.004815950224902121</v>
+        <v>0.004815950224902122</v>
       </c>
       <c r="B6469">
         <v>0.005322041487429097</v>
@@ -52119,7 +52119,7 @@
     </row>
     <row r="6471" spans="1:2">
       <c r="A6471">
-        <v>0.003864134145371609</v>
+        <v>0.00386413414537161</v>
       </c>
       <c r="B6471">
         <v>0.001667832601323305</v>
@@ -52175,7 +52175,7 @@
     </row>
     <row r="6478" spans="1:2">
       <c r="A6478">
-        <v>-0.0008304347093259201</v>
+        <v>-0.0008304347093259202</v>
       </c>
       <c r="B6478">
         <v>-0.01184988551171617</v>
@@ -52271,7 +52271,7 @@
     </row>
     <row r="6490" spans="1:2">
       <c r="A6490">
-        <v>0.005525745001158802</v>
+        <v>0.005525745001158801</v>
       </c>
       <c r="B6490">
         <v>0.007776051003407503</v>
@@ -52287,7 +52287,7 @@
     </row>
     <row r="6492" spans="1:2">
       <c r="A6492">
-        <v>0.005776813103338639</v>
+        <v>0.005776813103338638</v>
       </c>
       <c r="B6492">
         <v>0.008025193684289</v>
@@ -52343,7 +52343,7 @@
     </row>
     <row r="6499" spans="1:2">
       <c r="A6499">
-        <v>0.002871498200516486</v>
+        <v>0.002871498200516487</v>
       </c>
       <c r="B6499">
         <v>-0.002616962729194761</v>
@@ -52447,7 +52447,7 @@
     </row>
     <row r="6512" spans="1:2">
       <c r="A6512">
-        <v>0.004189153507637722</v>
+        <v>0.004189153507637723</v>
       </c>
       <c r="B6512">
         <v>0.00172336188019262</v>
@@ -52455,7 +52455,7 @@
     </row>
     <row r="6513" spans="1:2">
       <c r="A6513">
-        <v>0.004657359234600919</v>
+        <v>0.004657359234600918</v>
       </c>
       <c r="B6513">
         <v>0.003523177483660156</v>
@@ -52471,7 +52471,7 @@
     </row>
     <row r="6515" spans="1:2">
       <c r="A6515">
-        <v>0.005178703199811545</v>
+        <v>0.005178703199811544</v>
       </c>
       <c r="B6515">
         <v>0.00397401818784715</v>
@@ -52487,7 +52487,7 @@
     </row>
     <row r="6517" spans="1:2">
       <c r="A6517">
-        <v>0.005065179762645913</v>
+        <v>0.005065179762645914</v>
       </c>
       <c r="B6517">
         <v>0.003380557164753384</v>
@@ -52695,7 +52695,7 @@
     </row>
     <row r="6543" spans="1:2">
       <c r="A6543">
-        <v>0.007628421771305051</v>
+        <v>0.007628421771305052</v>
       </c>
       <c r="B6543">
         <v>0.01073788290573141</v>
@@ -52727,7 +52727,7 @@
     </row>
     <row r="6547" spans="1:2">
       <c r="A6547">
-        <v>0.007448551068037395</v>
+        <v>0.007448551068037394</v>
       </c>
       <c r="B6547">
         <v>0.005291429899388689</v>
@@ -52735,7 +52735,7 @@
     </row>
     <row r="6548" spans="1:2">
       <c r="A6548">
-        <v>0.00725573041403256</v>
+        <v>0.007255730414032559</v>
       </c>
       <c r="B6548">
         <v>0.004467302398349027</v>
@@ -52743,7 +52743,7 @@
     </row>
     <row r="6549" spans="1:2">
       <c r="A6549">
-        <v>0.006911755094795973</v>
+        <v>0.006911755094795974</v>
       </c>
       <c r="B6549">
         <v>0.001857521849939481</v>
@@ -52783,7 +52783,7 @@
     </row>
     <row r="6554" spans="1:2">
       <c r="A6554">
-        <v>0.004489928918884413</v>
+        <v>0.004489928918884412</v>
       </c>
       <c r="B6554">
         <v>-0.009060297320663935</v>
@@ -52887,7 +52887,7 @@
     </row>
     <row r="6567" spans="1:2">
       <c r="A6567">
-        <v>0.009080408510916706</v>
+        <v>0.009080408510916708</v>
       </c>
       <c r="B6567">
         <v>0.00174784949952933</v>
@@ -52991,7 +52991,7 @@
     </row>
     <row r="6580" spans="1:2">
       <c r="A6580">
-        <v>0.007239560546592852</v>
+        <v>0.007239560546592851</v>
       </c>
       <c r="B6580">
         <v>-0.009749562452267213</v>
@@ -53007,7 +53007,7 @@
     </row>
     <row r="6582" spans="1:2">
       <c r="A6582">
-        <v>0.005775906160869221</v>
+        <v>0.00577590616086922</v>
       </c>
       <c r="B6582">
         <v>-0.01362631064014508</v>
@@ -53095,7 +53095,7 @@
     </row>
     <row r="6593" spans="1:2">
       <c r="A6593">
-        <v>0.007231547635926961</v>
+        <v>0.007231547635926962</v>
       </c>
       <c r="B6593">
         <v>-0.003549006569691926</v>
@@ -53191,7 +53191,7 @@
     </row>
     <row r="6605" spans="1:2">
       <c r="A6605">
-        <v>0.008278895573547199</v>
+        <v>0.008278895573547197</v>
       </c>
       <c r="B6605">
         <v>-0.004276382279321922</v>
@@ -53215,7 +53215,7 @@
     </row>
     <row r="6608" spans="1:2">
       <c r="A6608">
-        <v>0.00673188676115139</v>
+        <v>0.006731886761151391</v>
       </c>
       <c r="B6608">
         <v>-0.007831326591082544</v>
@@ -53223,7 +53223,7 @@
     </row>
     <row r="6609" spans="1:2">
       <c r="A6609">
-        <v>0.006058208583210935</v>
+        <v>0.006058208583210936</v>
       </c>
       <c r="B6609">
         <v>-0.01074485519051205</v>
@@ -53231,7 +53231,7 @@
     </row>
     <row r="6610" spans="1:2">
       <c r="A6610">
-        <v>0.005400649876442591</v>
+        <v>0.00540064987644259</v>
       </c>
       <c r="B6610">
         <v>-0.01336126765501966</v>
@@ -53287,7 +53287,7 @@
     </row>
     <row r="6617" spans="1:2">
       <c r="A6617">
-        <v>0.004628043699850846</v>
+        <v>0.004628043699850845</v>
       </c>
       <c r="B6617">
         <v>-0.01326229686078584</v>
@@ -53487,7 +53487,7 @@
     </row>
     <row r="6642" spans="1:2">
       <c r="A6642">
-        <v>0.009854436499687437</v>
+        <v>0.009854436499687438</v>
       </c>
       <c r="B6642">
         <v>-0.01572443075969421</v>
@@ -53543,7 +53543,7 @@
     </row>
     <row r="6649" spans="1:2">
       <c r="A6649">
-        <v>0.006965591221270627</v>
+        <v>0.006965591221270628</v>
       </c>
       <c r="B6649">
         <v>-0.02155671028648953</v>
@@ -53551,7 +53551,7 @@
     </row>
     <row r="6650" spans="1:2">
       <c r="A6650">
-        <v>0.007223769173906733</v>
+        <v>0.007223769173906732</v>
       </c>
       <c r="B6650">
         <v>-0.02116325411305819</v>
@@ -53567,7 +53567,7 @@
     </row>
     <row r="6652" spans="1:2">
       <c r="A6652">
-        <v>0.008469129948876795</v>
+        <v>0.008469129948876797</v>
       </c>
       <c r="B6652">
         <v>-0.01606787450274272</v>
@@ -53727,7 +53727,7 @@
     </row>
     <row r="6672" spans="1:2">
       <c r="A6672">
-        <v>0.01323049883168903</v>
+        <v>0.01323049883168904</v>
       </c>
       <c r="B6672">
         <v>-0.01046888319721262</v>
@@ -53735,7 +53735,7 @@
     </row>
     <row r="6673" spans="1:2">
       <c r="A6673">
-        <v>0.01257847199510801</v>
+        <v>0.01257847199510802</v>
       </c>
       <c r="B6673">
         <v>-0.0113518776691679</v>
@@ -53791,7 +53791,7 @@
     </row>
     <row r="6680" spans="1:2">
       <c r="A6680">
-        <v>0.008290883574748935</v>
+        <v>0.008290883574748933</v>
       </c>
       <c r="B6680">
         <v>-0.02350703388999698</v>
@@ -53815,7 +53815,7 @@
     </row>
     <row r="6683" spans="1:2">
       <c r="A6683">
-        <v>0.008851982619769831</v>
+        <v>0.008851982619769829</v>
       </c>
       <c r="B6683">
         <v>-0.01814491688130815</v>
@@ -53831,7 +53831,7 @@
     </row>
     <row r="6685" spans="1:2">
       <c r="A6685">
-        <v>0.009950688717641256</v>
+        <v>0.009950688717641255</v>
       </c>
       <c r="B6685">
         <v>-0.01487237166832589</v>
@@ -53943,7 +53943,7 @@
     </row>
     <row r="6699" spans="1:2">
       <c r="A6699">
-        <v>0.009320644156077971</v>
+        <v>0.009320644156077973</v>
       </c>
       <c r="B6699">
         <v>-0.009004481344917714</v>
@@ -54047,7 +54047,7 @@
     </row>
     <row r="6712" spans="1:2">
       <c r="A6712">
-        <v>0.008568848965539949</v>
+        <v>0.008568848965539947</v>
       </c>
       <c r="B6712">
         <v>-0.001631691420246106</v>
@@ -54119,7 +54119,7 @@
     </row>
     <row r="6721" spans="1:2">
       <c r="A6721">
-        <v>0.005791814977195705</v>
+        <v>0.005791814977195706</v>
       </c>
       <c r="B6721">
         <v>-0.005242074420022114</v>
@@ -54207,7 +54207,7 @@
     </row>
     <row r="6732" spans="1:2">
       <c r="A6732">
-        <v>0.002717517435604911</v>
+        <v>0.002717517435604912</v>
       </c>
       <c r="B6732">
         <v>-0.005573827527244113</v>
@@ -54247,7 +54247,7 @@
     </row>
     <row r="6737" spans="1:2">
       <c r="A6737">
-        <v>0.005909609012382634</v>
+        <v>0.005909609012382635</v>
       </c>
       <c r="B6737">
         <v>0.005615853440438023</v>
@@ -54271,7 +54271,7 @@
     </row>
     <row r="6740" spans="1:2">
       <c r="A6740">
-        <v>0.005934223136969163</v>
+        <v>0.005934223136969164</v>
       </c>
       <c r="B6740">
         <v>0.006207669078155398</v>
@@ -54327,7 +54327,7 @@
     </row>
     <row r="6747" spans="1:2">
       <c r="A6747">
-        <v>0.0007881629716566884</v>
+        <v>0.0007881629716566883</v>
       </c>
       <c r="B6747">
         <v>-0.006693913052209233</v>
@@ -54399,7 +54399,7 @@
     </row>
     <row r="6756" spans="1:2">
       <c r="A6756">
-        <v>-0.001319058127053167</v>
+        <v>-0.001319058127053168</v>
       </c>
       <c r="B6756">
         <v>-0.00608551475857233</v>
@@ -54431,7 +54431,7 @@
     </row>
     <row r="6760" spans="1:2">
       <c r="A6760">
-        <v>0.0007817058841498831</v>
+        <v>0.0007817058841498832</v>
       </c>
       <c r="B6760">
         <v>0.002945095065467918</v>
@@ -54511,7 +54511,7 @@
     </row>
     <row r="6770" spans="1:2">
       <c r="A6770">
-        <v>-0.0006300879662384522</v>
+        <v>-0.0006300879662384521</v>
       </c>
       <c r="B6770">
         <v>0.001660114910967181</v>
@@ -54543,7 +54543,7 @@
     </row>
     <row r="6774" spans="1:2">
       <c r="A6774">
-        <v>-0.004001028682607803</v>
+        <v>-0.004001028682607804</v>
       </c>
       <c r="B6774">
         <v>-0.006193885841441649</v>
@@ -54583,7 +54583,7 @@
     </row>
     <row r="6779" spans="1:2">
       <c r="A6779">
-        <v>-0.004292266522771373</v>
+        <v>-0.004292266522771372</v>
       </c>
       <c r="B6779">
         <v>-0.003907946206132884</v>
@@ -54639,7 +54639,7 @@
     </row>
     <row r="6786" spans="1:2">
       <c r="A6786">
-        <v>-0.0009555289362572453</v>
+        <v>-0.0009555289362572454</v>
       </c>
       <c r="B6786">
         <v>0.007825757126233235</v>
@@ -54663,7 +54663,7 @@
     </row>
     <row r="6789" spans="1:2">
       <c r="A6789">
-        <v>0.0005850531080318308</v>
+        <v>0.0005850531080318306</v>
       </c>
       <c r="B6789">
         <v>0.0127345737594986</v>
@@ -54751,7 +54751,7 @@
     </row>
     <row r="6800" spans="1:2">
       <c r="A6800">
-        <v>-0.008759261240196103</v>
+        <v>-0.008759261240196102</v>
       </c>
       <c r="B6800">
         <v>-0.004658863921639167</v>
@@ -54815,7 +54815,7 @@
     </row>
     <row r="6808" spans="1:2">
       <c r="A6808">
-        <v>-0.0161954325919021</v>
+        <v>-0.01619543259190209</v>
       </c>
       <c r="B6808">
         <v>-0.006242507910306117</v>
@@ -55047,7 +55047,7 @@
     </row>
     <row r="6837" spans="1:2">
       <c r="A6837">
-        <v>-0.04304825513305969</v>
+        <v>-0.0430482551330597</v>
       </c>
       <c r="B6837">
         <v>0.02319554544449431</v>
@@ -55079,7 +55079,7 @@
     </row>
     <row r="6841" spans="1:2">
       <c r="A6841">
-        <v>-0.04482441595208195</v>
+        <v>-0.04482441595208194</v>
       </c>
       <c r="B6841">
         <v>0.03609176533687197</v>
@@ -55095,7 +55095,7 @@
     </row>
     <row r="6843" spans="1:2">
       <c r="A6843">
-        <v>-0.04660518594715267</v>
+        <v>-0.04660518594715268</v>
       </c>
       <c r="B6843">
         <v>0.02711807428322111</v>
@@ -55119,7 +55119,7 @@
     </row>
     <row r="6846" spans="1:2">
       <c r="A6846">
-        <v>-0.04894632132293898</v>
+        <v>-0.04894632132293899</v>
       </c>
       <c r="B6846">
         <v>0.02632197872753572</v>
@@ -55231,7 +55231,7 @@
     </row>
     <row r="6860" spans="1:2">
       <c r="A6860">
-        <v>-0.05810369938201028</v>
+        <v>-0.05810369938201029</v>
       </c>
       <c r="B6860">
         <v>0.04005977781458903</v>
@@ -55263,7 +55263,7 @@
     </row>
     <row r="6864" spans="1:2">
       <c r="A6864">
-        <v>-0.0604826196899049</v>
+        <v>-0.06048261968990489</v>
       </c>
       <c r="B6864">
         <v>0.0482131633084979</v>
@@ -55303,7 +55303,7 @@
     </row>
     <row r="6869" spans="1:2">
       <c r="A6869">
-        <v>-0.06365293921224516</v>
+        <v>-0.06365293921224517</v>
       </c>
       <c r="B6869">
         <v>0.02912503618938356</v>
@@ -55351,7 +55351,7 @@
     </row>
     <row r="6875" spans="1:2">
       <c r="A6875">
-        <v>-0.06560381606776039</v>
+        <v>-0.0656038160677604</v>
       </c>
       <c r="B6875">
         <v>0.02057621896192607</v>
@@ -55391,7 +55391,7 @@
     </row>
     <row r="6880" spans="1:2">
       <c r="A6880">
-        <v>-0.07018890272063782</v>
+        <v>-0.07018890272063781</v>
       </c>
       <c r="B6880">
         <v>0.04060672463896609</v>
@@ -55399,7 +55399,7 @@
     </row>
     <row r="6881" spans="1:2">
       <c r="A6881">
-        <v>-0.07050236858207637</v>
+        <v>-0.07050236858207638</v>
       </c>
       <c r="B6881">
         <v>0.05450343036875882</v>
@@ -55431,7 +55431,7 @@
     </row>
     <row r="6885" spans="1:2">
       <c r="A6885">
-        <v>-0.07297683592744725</v>
+        <v>-0.07297683592744726</v>
       </c>
       <c r="B6885">
         <v>0.06228192261135046</v>
@@ -55583,7 +55583,7 @@
     </row>
     <row r="6904" spans="1:2">
       <c r="A6904">
-        <v>-0.08432949060271247</v>
+        <v>-0.08432949060271248</v>
       </c>
       <c r="B6904">
         <v>0.04456096473012661</v>
@@ -55607,7 +55607,7 @@
     </row>
     <row r="6907" spans="1:2">
       <c r="A6907">
-        <v>-0.08231565207284516</v>
+        <v>-0.08231565207284518</v>
       </c>
       <c r="B6907">
         <v>0.04383339984020918</v>
@@ -56143,7 +56143,7 @@
     </row>
     <row r="6974" spans="1:2">
       <c r="A6974">
-        <v>-0.04152337651728745</v>
+        <v>-0.04152337651728746</v>
       </c>
       <c r="B6974">
         <v>0.01519970261558434</v>
@@ -56255,7 +56255,7 @@
     </row>
     <row r="6988" spans="1:2">
       <c r="A6988">
-        <v>-0.03032209573286011</v>
+        <v>-0.03032209573286012</v>
       </c>
       <c r="B6988">
         <v>0.04115909231301984</v>
@@ -56311,7 +56311,7 @@
     </row>
     <row r="6995" spans="1:2">
       <c r="A6995">
-        <v>-0.02876254441380909</v>
+        <v>-0.02876254441380908</v>
       </c>
       <c r="B6995">
         <v>0.02764866299795443</v>
@@ -56351,7 +56351,7 @@
     </row>
     <row r="7000" spans="1:2">
       <c r="A7000">
-        <v>-0.02502264544429392</v>
+        <v>-0.02502264544429393</v>
       </c>
       <c r="B7000">
         <v>0.03554029931326852</v>
@@ -56375,7 +56375,7 @@
     </row>
     <row r="7003" spans="1:2">
       <c r="A7003">
-        <v>-0.02179231211992191</v>
+        <v>-0.02179231211992192</v>
       </c>
       <c r="B7003">
         <v>0.03426700783100856</v>
@@ -56503,7 +56503,7 @@
     </row>
     <row r="7019" spans="1:2">
       <c r="A7019">
-        <v>-0.0239570963307426</v>
+        <v>-0.02395709633074261</v>
       </c>
       <c r="B7019">
         <v>-0.00297744829185298</v>
@@ -56679,7 +56679,7 @@
     </row>
     <row r="7041" spans="1:2">
       <c r="A7041">
-        <v>-0.02124517316054728</v>
+        <v>-0.02124517316054729</v>
       </c>
       <c r="B7041">
         <v>0.003922648758712288</v>
@@ -56815,7 +56815,7 @@
     </row>
     <row r="7058" spans="1:2">
       <c r="A7058">
-        <v>-0.02397978540887388</v>
+        <v>-0.02397978540886804</v>
       </c>
       <c r="B7058">
         <v>0.01960386052290763</v>
@@ -56863,7 +56863,7 @@
     </row>
     <row r="7064" spans="1:2">
       <c r="A7064">
-        <v>-0.02535517388125928</v>
+        <v>-0.02535517388125927</v>
       </c>
       <c r="B7064">
         <v>0.01496415783092475</v>
@@ -57111,7 +57111,7 @@
     </row>
     <row r="7095" spans="1:2">
       <c r="A7095">
-        <v>-0.02843164549455939</v>
+        <v>-0.02843164549455938</v>
       </c>
       <c r="B7095">
         <v>0.02588262342997449</v>
@@ -57223,7 +57223,7 @@
     </row>
     <row r="7109" spans="1:2">
       <c r="A7109">
-        <v>-0.03115897950806928</v>
+        <v>-0.03115897950806929</v>
       </c>
       <c r="B7109">
         <v>0.0112178214903329</v>
@@ -57383,7 +57383,7 @@
     </row>
     <row r="7129" spans="1:2">
       <c r="A7129">
-        <v>-0.03238852600692428</v>
+        <v>-0.03238852600692429</v>
       </c>
       <c r="B7129">
         <v>0.01440503711645258</v>
@@ -57495,7 +57495,7 @@
     </row>
     <row r="7143" spans="1:2">
       <c r="A7143">
-        <v>-0.03248205074772161</v>
+        <v>-0.0324820507477216</v>
       </c>
       <c r="B7143">
         <v>0.0221164502409299</v>
@@ -57511,7 +57511,7 @@
     </row>
     <row r="7145" spans="1:2">
       <c r="A7145">
-        <v>-0.03323139740932883</v>
+        <v>-0.03323139740932884</v>
       </c>
       <c r="B7145">
         <v>0.01669994823135035</v>
@@ -57687,7 +57687,7 @@
     </row>
     <row r="7167" spans="1:2">
       <c r="A7167">
-        <v>-0.02906501809833015</v>
+        <v>-0.02906501809833014</v>
       </c>
       <c r="B7167">
         <v>0.02688429531363834</v>
@@ -57695,7 +57695,7 @@
     </row>
     <row r="7168" spans="1:2">
       <c r="A7168">
-        <v>-0.02918531163460791</v>
+        <v>-0.0291853116346079</v>
       </c>
       <c r="B7168">
         <v>0.01836215423172671</v>
@@ -57935,7 +57935,7 @@
     </row>
     <row r="7198" spans="1:2">
       <c r="A7198">
-        <v>-0.02945810648570248</v>
+        <v>-0.02945810648570247</v>
       </c>
       <c r="B7198">
         <v>0.0166164294485891</v>
@@ -57975,7 +57975,7 @@
     </row>
     <row r="7203" spans="1:2">
       <c r="A7203">
-        <v>-0.02974173948656906</v>
+        <v>-0.02974173948656905</v>
       </c>
       <c r="B7203">
         <v>0.02192915283489549</v>
@@ -58079,7 +58079,7 @@
     </row>
     <row r="7216" spans="1:2">
       <c r="A7216">
-        <v>-0.03189489768990542</v>
+        <v>-0.03189489768990543</v>
       </c>
       <c r="B7216">
         <v>0.01486718714349688</v>
@@ -58111,7 +58111,7 @@
     </row>
     <row r="7220" spans="1:2">
       <c r="A7220">
-        <v>-0.03137044968264876</v>
+        <v>-0.03137044968264877</v>
       </c>
       <c r="B7220">
         <v>0.02000755562138279</v>
@@ -58151,7 +58151,7 @@
     </row>
     <row r="7225" spans="1:2">
       <c r="A7225">
-        <v>-0.03145331618317818</v>
+        <v>-0.03145331618317819</v>
       </c>
       <c r="B7225">
         <v>0.01947142973156879</v>
@@ -58175,7 +58175,7 @@
     </row>
     <row r="7228" spans="1:2">
       <c r="A7228">
-        <v>-0.03172916009852467</v>
+        <v>-0.03172916009852466</v>
       </c>
       <c r="B7228">
         <v>0.01961252461128282</v>
@@ -58263,7 +58263,7 @@
     </row>
     <row r="7239" spans="1:2">
       <c r="A7239">
-        <v>-0.03317466165819758</v>
+        <v>-0.03317466165819757</v>
       </c>
       <c r="B7239">
         <v>0.01738748443303129</v>
@@ -58287,7 +58287,7 @@
     </row>
     <row r="7242" spans="1:2">
       <c r="A7242">
-        <v>-0.03048560847313314</v>
+        <v>-0.03048560847313313</v>
       </c>
       <c r="B7242">
         <v>0.02467871980089864</v>
@@ -58391,7 +58391,7 @@
     </row>
     <row r="7255" spans="1:2">
       <c r="A7255">
-        <v>-0.02281574504962015</v>
+        <v>-0.02281574504962014</v>
       </c>
       <c r="B7255">
         <v>0.02953473767520576</v>
@@ -58495,7 +58495,7 @@
     </row>
     <row r="7268" spans="1:2">
       <c r="A7268">
-        <v>-0.02196120742321607</v>
+        <v>-0.02196120742321608</v>
       </c>
       <c r="B7268">
         <v>0.01420930483578919</v>
@@ -58519,7 +58519,7 @@
     </row>
     <row r="7271" spans="1:2">
       <c r="A7271">
-        <v>-0.02074698200158556</v>
+        <v>-0.02074698200158555</v>
       </c>
       <c r="B7271">
         <v>0.01558503124027455</v>
@@ -58623,7 +58623,7 @@
     </row>
     <row r="7284" spans="1:2">
       <c r="A7284">
-        <v>-0.01260781647917782</v>
+        <v>-0.01260781647917781</v>
       </c>
       <c r="B7284">
         <v>0.02479882545716849</v>
@@ -58719,7 +58719,7 @@
     </row>
     <row r="7296" spans="1:2">
       <c r="A7296">
-        <v>-0.01267506612927973</v>
+        <v>-0.01267506612927974</v>
       </c>
       <c r="B7296">
         <v>0.008718766871598671</v>
@@ -58855,7 +58855,7 @@
     </row>
     <row r="7313" spans="1:2">
       <c r="A7313">
-        <v>-0.008528138871632646</v>
+        <v>-0.008528138871632644</v>
       </c>
       <c r="B7313">
         <v>0.004665194452458721</v>
@@ -58935,7 +58935,7 @@
     </row>
     <row r="7323" spans="1:2">
       <c r="A7323">
-        <v>-0.01055468940075259</v>
+        <v>-0.0105546894007526</v>
       </c>
       <c r="B7323">
         <v>0.0001789759415182779</v>
@@ -58943,7 +58943,7 @@
     </row>
     <row r="7324" spans="1:2">
       <c r="A7324">
-        <v>-0.009884041091070913</v>
+        <v>-0.009884041091070914</v>
       </c>
       <c r="B7324">
         <v>0.002358436523934859</v>
@@ -58959,7 +58959,7 @@
     </row>
     <row r="7326" spans="1:2">
       <c r="A7326">
-        <v>-0.008315131531093992</v>
+        <v>-0.008315131531093993</v>
       </c>
       <c r="B7326">
         <v>0.007018923650196296</v>
@@ -58975,7 +58975,7 @@
     </row>
     <row r="7328" spans="1:2">
       <c r="A7328">
-        <v>-0.006244871192188821</v>
+        <v>-0.006244871192188822</v>
       </c>
       <c r="B7328">
         <v>0.01263340740386099</v>
@@ -58983,7 +58983,7 @@
     </row>
     <row r="7329" spans="1:2">
       <c r="A7329">
-        <v>-0.005120114032978779</v>
+        <v>-0.00512011403297878</v>
       </c>
       <c r="B7329">
         <v>0.01495301388040993</v>
@@ -59135,7 +59135,7 @@
     </row>
     <row r="7348" spans="1:2">
       <c r="A7348">
-        <v>0.0002713889978323621</v>
+        <v>0.0002713889978323622</v>
       </c>
       <c r="B7348">
         <v>-4.993678474640717E-05</v>
@@ -59151,7 +59151,7 @@
     </row>
     <row r="7350" spans="1:2">
       <c r="A7350">
-        <v>0.0008506446796272188</v>
+        <v>0.0008506446796272189</v>
       </c>
       <c r="B7350">
         <v>-0.006055873467186057</v>
@@ -59215,7 +59215,7 @@
     </row>
     <row r="7358" spans="1:2">
       <c r="A7358">
-        <v>0.004492250025315927</v>
+        <v>0.004492250025315928</v>
       </c>
       <c r="B7358">
         <v>-0.006693441381486309</v>
@@ -59231,7 +59231,7 @@
     </row>
     <row r="7360" spans="1:2">
       <c r="A7360">
-        <v>0.00605254844702123</v>
+        <v>0.006052548447021229</v>
       </c>
       <c r="B7360">
         <v>-0.0110881094799824</v>
@@ -59367,7 +59367,7 @@
     </row>
     <row r="7377" spans="1:2">
       <c r="A7377">
-        <v>0.02488072912839878</v>
+        <v>0.02488072912839877</v>
       </c>
       <c r="B7377">
         <v>-0.002769397016896935</v>
@@ -59415,7 +59415,7 @@
     </row>
     <row r="7383" spans="1:2">
       <c r="A7383">
-        <v>0.03109841595160476</v>
+        <v>0.03109841595160475</v>
       </c>
       <c r="B7383">
         <v>-0.01308001726676178</v>
@@ -59511,7 +59511,7 @@
     </row>
     <row r="7395" spans="1:2">
       <c r="A7395">
-        <v>0.04462099020854368</v>
+        <v>0.04462099020854367</v>
       </c>
       <c r="B7395">
         <v>-0.02475581400941573</v>
@@ -59543,7 +59543,7 @@
     </row>
     <row r="7399" spans="1:2">
       <c r="A7399">
-        <v>0.04993065765910045</v>
+        <v>0.04993065765910046</v>
       </c>
       <c r="B7399">
         <v>-0.02195598218406714</v>
@@ -59551,7 +59551,7 @@
     </row>
     <row r="7400" spans="1:2">
       <c r="A7400">
-        <v>0.05104666120382952</v>
+        <v>0.05104666120382953</v>
       </c>
       <c r="B7400">
         <v>-0.02794100682785761</v>
@@ -59583,7 +59583,7 @@
     </row>
     <row r="7404" spans="1:2">
       <c r="A7404">
-        <v>0.05463283455255293</v>
+        <v>0.05463283455255292</v>
       </c>
       <c r="B7404">
         <v>-0.0287374516972374</v>
@@ -59615,7 +59615,7 @@
     </row>
     <row r="7408" spans="1:2">
       <c r="A7408">
-        <v>0.05674342635027818</v>
+        <v>0.05674342635027817</v>
       </c>
       <c r="B7408">
         <v>-0.04505082400689142</v>
@@ -59623,7 +59623,7 @@
     </row>
     <row r="7409" spans="1:2">
       <c r="A7409">
-        <v>0.05743250941190811</v>
+        <v>0.0574325094119081</v>
       </c>
       <c r="B7409">
         <v>-0.03855709695566079</v>
@@ -59639,7 +59639,7 @@
     </row>
     <row r="7411" spans="1:2">
       <c r="A7411">
-        <v>0.05809615913874496</v>
+        <v>0.05809615913874497</v>
       </c>
       <c r="B7411">
         <v>-0.03940809478493668</v>
@@ -59767,7 +59767,7 @@
     </row>
     <row r="7427" spans="1:2">
       <c r="A7427">
-        <v>0.07577314065763452</v>
+        <v>0.07577314065763451</v>
       </c>
       <c r="B7427">
         <v>-0.03711953720222949</v>
@@ -59823,7 +59823,7 @@
     </row>
     <row r="7434" spans="1:2">
       <c r="A7434">
-        <v>0.07865040027315197</v>
+        <v>0.07865040027315198</v>
       </c>
       <c r="B7434">
         <v>-0.04595185622748232</v>
@@ -59855,7 +59855,7 @@
     </row>
     <row r="7438" spans="1:2">
       <c r="A7438">
-        <v>0.08091125735229258</v>
+        <v>0.08091125735229257</v>
       </c>
       <c r="B7438">
         <v>-0.06329175802267439</v>
@@ -59903,7 +59903,7 @@
     </row>
     <row r="7444" spans="1:2">
       <c r="A7444">
-        <v>0.08168208645543731</v>
+        <v>0.0816820864554373</v>
       </c>
       <c r="B7444">
         <v>-0.06432498974868972</v>
@@ -59935,7 +59935,7 @@
     </row>
     <row r="7448" spans="1:2">
       <c r="A7448">
-        <v>0.084621904977674</v>
+        <v>0.08462190497767398</v>
       </c>
       <c r="B7448">
         <v>-0.07747447542753072</v>
@@ -59943,7 +59943,7 @@
     </row>
     <row r="7449" spans="1:2">
       <c r="A7449">
-        <v>0.08585596680260474</v>
+        <v>0.08585596680260475</v>
       </c>
       <c r="B7449">
         <v>-0.06306602015339102</v>
@@ -59975,7 +59975,7 @@
     </row>
     <row r="7453" spans="1:2">
       <c r="A7453">
-        <v>0.09014362074557394</v>
+        <v>0.09014362074557393</v>
       </c>
       <c r="B7453">
         <v>-0.07319595776827859</v>
@@ -59983,7 +59983,7 @@
     </row>
     <row r="7454" spans="1:2">
       <c r="A7454">
-        <v>0.09091054465972723</v>
+        <v>0.09091054465972724</v>
       </c>
       <c r="B7454">
         <v>-0.05920459232889375</v>
@@ -59991,7 +59991,7 @@
     </row>
     <row r="7455" spans="1:2">
       <c r="A7455">
-        <v>0.09216383627135505</v>
+        <v>0.09216383627135503</v>
       </c>
       <c r="B7455">
         <v>-0.06796207736290771</v>
@@ -60047,7 +60047,7 @@
     </row>
     <row r="7462" spans="1:2">
       <c r="A7462">
-        <v>0.1019986906548719</v>
+        <v>0.101998690654872</v>
       </c>
       <c r="B7462">
         <v>-0.05551235145692557</v>
@@ -60127,7 +60127,7 @@
     </row>
     <row r="7472" spans="1:2">
       <c r="A7472">
-        <v>0.1074371823170036</v>
+        <v>0.1074371823170037</v>
       </c>
       <c r="B7472">
         <v>-0.07667518161394726</v>
@@ -60183,7 +60183,7 @@
     </row>
     <row r="7479" spans="1:2">
       <c r="A7479">
-        <v>0.1069122247387377</v>
+        <v>0.1069122247387376</v>
       </c>
       <c r="B7479">
         <v>-0.1200053879570837</v>
@@ -60199,7 +60199,7 @@
     </row>
     <row r="7481" spans="1:2">
       <c r="A7481">
-        <v>0.1078408498040785</v>
+        <v>0.1078408498040786</v>
       </c>
       <c r="B7481">
         <v>-0.1169137438961343</v>
@@ -60263,7 +60263,7 @@
     </row>
     <row r="7489" spans="1:2">
       <c r="A7489">
-        <v>0.1120349730947018</v>
+        <v>0.1120349730947017</v>
       </c>
       <c r="B7489">
         <v>-0.1189412908363914</v>
@@ -61351,7 +61351,7 @@
     </row>
     <row r="7625" spans="1:2">
       <c r="A7625">
-        <v>0.03953944284633407</v>
+        <v>0.03953944284633406</v>
       </c>
       <c r="B7625">
         <v>-0.02418437307765231</v>
@@ -61487,7 +61487,7 @@
     </row>
     <row r="7642" spans="1:2">
       <c r="A7642">
-        <v>0.03953199955057669</v>
+        <v>0.0395319995505767</v>
       </c>
       <c r="B7642">
         <v>-0.02780638308255501</v>
@@ -61559,7 +61559,7 @@
     </row>
     <row r="7651" spans="1:2">
       <c r="A7651">
-        <v>0.03899864353349407</v>
+        <v>0.03899864353349406</v>
       </c>
       <c r="B7651">
         <v>-0.02645130102200888</v>
@@ -61759,7 +61759,7 @@
     </row>
     <row r="7676" spans="1:2">
       <c r="A7676">
-        <v>0.03216245974199358</v>
+        <v>0.03216245974199359</v>
       </c>
       <c r="B7676">
         <v>-0.01931457744159459</v>
@@ -61783,7 +61783,7 @@
     </row>
     <row r="7679" spans="1:2">
       <c r="A7679">
-        <v>0.03171678035309125</v>
+        <v>0.03171678035309126</v>
       </c>
       <c r="B7679">
         <v>-0.01796394953943192</v>
@@ -61863,7 +61863,7 @@
     </row>
     <row r="7689" spans="1:2">
       <c r="A7689">
-        <v>0.02950758447353106</v>
+        <v>0.02950758447353107</v>
       </c>
       <c r="B7689">
         <v>-0.01853115607493461</v>
@@ -61927,7 +61927,7 @@
     </row>
     <row r="7697" spans="1:2">
       <c r="A7697">
-        <v>0.02801670697492974</v>
+        <v>0.02801670697492973</v>
       </c>
       <c r="B7697">
         <v>-0.01553011938121251</v>
@@ -62023,7 +62023,7 @@
     </row>
     <row r="7709" spans="1:2">
       <c r="A7709">
-        <v>0.02732921551500928</v>
+        <v>0.02732921551500927</v>
       </c>
       <c r="B7709">
         <v>-0.0161177705400446</v>
@@ -62063,7 +62063,7 @@
     </row>
     <row r="7714" spans="1:2">
       <c r="A7714">
-        <v>0.02695312348692822</v>
+        <v>0.02695312348692821</v>
       </c>
       <c r="B7714">
         <v>-0.01735645154696464</v>
@@ -62271,7 +62271,7 @@
     </row>
     <row r="7740" spans="1:2">
       <c r="A7740">
-        <v>0.038615742413016</v>
+        <v>0.03861574241301601</v>
       </c>
       <c r="B7740">
         <v>-0.02250357111926338</v>
@@ -62303,7 +62303,7 @@
     </row>
     <row r="7744" spans="1:2">
       <c r="A7744">
-        <v>0.03947371259082298</v>
+        <v>0.03947371259082297</v>
       </c>
       <c r="B7744">
         <v>-0.03478218841157865</v>
@@ -62343,7 +62343,7 @@
     </row>
     <row r="7749" spans="1:2">
       <c r="A7749">
-        <v>0.04527196329716039</v>
+        <v>0.04527196329716038</v>
       </c>
       <c r="B7749">
         <v>-0.02875684161179493</v>
@@ -62375,7 +62375,7 @@
     </row>
     <row r="7753" spans="1:2">
       <c r="A7753">
-        <v>0.04978506797847612</v>
+        <v>0.04978506797847613</v>
       </c>
       <c r="B7753">
         <v>-0.01856386096782536</v>
@@ -62399,7 +62399,7 @@
     </row>
     <row r="7756" spans="1:2">
       <c r="A7756">
-        <v>0.0520942001908586</v>
+        <v>0.05209420019085859</v>
       </c>
       <c r="B7756">
         <v>-0.0222374150720368</v>
@@ -62423,7 +62423,7 @@
     </row>
     <row r="7759" spans="1:2">
       <c r="A7759">
-        <v>0.05311859451821263</v>
+        <v>0.05311859451821264</v>
       </c>
       <c r="B7759">
         <v>-0.02937588455968587</v>
@@ -62447,7 +62447,7 @@
     </row>
     <row r="7762" spans="1:2">
       <c r="A7762">
-        <v>0.05331747715178073</v>
+        <v>0.05331747715178072</v>
       </c>
       <c r="B7762">
         <v>-0.03822727455465103</v>
@@ -62535,7 +62535,7 @@
     </row>
     <row r="7773" spans="1:2">
       <c r="A7773">
-        <v>0.05398005874510708</v>
+        <v>0.05398005874510709</v>
       </c>
       <c r="B7773">
         <v>-0.05386303236526224</v>
@@ -62567,7 +62567,7 @@
     </row>
     <row r="7777" spans="1:2">
       <c r="A7777">
-        <v>0.05484047663464553</v>
+        <v>0.05484047663464554</v>
       </c>
       <c r="B7777">
         <v>-0.06146341958359613</v>
@@ -62575,7 +62575,7 @@
     </row>
     <row r="7778" spans="1:2">
       <c r="A7778">
-        <v>0.05563212783004443</v>
+        <v>0.05563212783004442</v>
       </c>
       <c r="B7778">
         <v>-0.04787244112983213</v>
@@ -62671,7 +62671,7 @@
     </row>
     <row r="7790" spans="1:2">
       <c r="A7790">
-        <v>0.05906665584844055</v>
+        <v>0.05906665584844054</v>
       </c>
       <c r="B7790">
         <v>-0.04885831470219149</v>
@@ -62687,7 +62687,7 @@
     </row>
     <row r="7792" spans="1:2">
       <c r="A7792">
-        <v>0.05637090806583611</v>
+        <v>0.05637090806583612</v>
       </c>
       <c r="B7792">
         <v>-0.04892876692856696</v>
@@ -62735,7 +62735,7 @@
     </row>
     <row r="7798" spans="1:2">
       <c r="A7798">
-        <v>0.054254610089892</v>
+        <v>0.05425461008989199</v>
       </c>
       <c r="B7798">
         <v>-0.0547051445081479</v>
@@ -62775,7 +62775,7 @@
     </row>
     <row r="7803" spans="1:2">
       <c r="A7803">
-        <v>0.05632731816454822</v>
+        <v>0.05632731816454823</v>
       </c>
       <c r="B7803">
         <v>-0.062916234497715</v>
@@ -62815,7 +62815,7 @@
     </row>
     <row r="7808" spans="1:2">
       <c r="A7808">
-        <v>0.06174817203528117</v>
+        <v>0.06174817203528118</v>
       </c>
       <c r="B7808">
         <v>-0.04220510371658914</v>
@@ -62959,7 +62959,7 @@
     </row>
     <row r="7826" spans="1:2">
       <c r="A7826">
-        <v>0.06611625908179919</v>
+        <v>0.0661162590817992</v>
       </c>
       <c r="B7826">
         <v>-0.05463486523994288</v>
@@ -62983,7 +62983,7 @@
     </row>
     <row r="7829" spans="1:2">
       <c r="A7829">
-        <v>0.06556791659970644</v>
+        <v>0.06556791659970643</v>
       </c>
       <c r="B7829">
         <v>-0.05833954922567486</v>
@@ -63031,7 +63031,7 @@
     </row>
     <row r="7835" spans="1:2">
       <c r="A7835">
-        <v>0.06471333605130539</v>
+        <v>0.06471333605130537</v>
       </c>
       <c r="B7835">
         <v>-0.06102322099389124</v>
@@ -63071,7 +63071,7 @@
     </row>
     <row r="7840" spans="1:2">
       <c r="A7840">
-        <v>0.06313732047023518</v>
+        <v>0.06313732047023519</v>
       </c>
       <c r="B7840">
         <v>-0.04901846226479112</v>
@@ -63111,7 +63111,7 @@
     </row>
     <row r="7845" spans="1:2">
       <c r="A7845">
-        <v>0.06308900444834753</v>
+        <v>0.06308900444834752</v>
       </c>
       <c r="B7845">
         <v>-0.06729928095339943</v>
@@ -63151,7 +63151,7 @@
     </row>
     <row r="7850" spans="1:2">
       <c r="A7850">
-        <v>0.06128909210053588</v>
+        <v>0.06128909210053587</v>
       </c>
       <c r="B7850">
         <v>-0.05372382398424014</v>
@@ -63199,7 +63199,7 @@
     </row>
     <row r="7856" spans="1:2">
       <c r="A7856">
-        <v>0.05915835571000261</v>
+        <v>0.05915835571000262</v>
       </c>
       <c r="B7856">
         <v>-0.05049741875694957</v>
@@ -63215,7 +63215,7 @@
     </row>
     <row r="7858" spans="1:2">
       <c r="A7858">
-        <v>0.05912318898318214</v>
+        <v>0.05912318898318215</v>
       </c>
       <c r="B7858">
         <v>-0.06969316689067462</v>
@@ -63247,7 +63247,7 @@
     </row>
     <row r="7862" spans="1:2">
       <c r="A7862">
-        <v>0.05613910587112211</v>
+        <v>0.0561391058711221</v>
       </c>
       <c r="B7862">
         <v>-0.07897586462214079</v>
@@ -63263,7 +63263,7 @@
     </row>
     <row r="7864" spans="1:2">
       <c r="A7864">
-        <v>0.05683467700014186</v>
+        <v>0.05683467700014185</v>
       </c>
       <c r="B7864">
         <v>-0.06454199087447199</v>
@@ -63351,7 +63351,7 @@
     </row>
     <row r="7875" spans="1:2">
       <c r="A7875">
-        <v>0.05764733265212061</v>
+        <v>0.05764733265212062</v>
       </c>
       <c r="B7875">
         <v>-0.05752069022317396</v>
@@ -63399,7 +63399,7 @@
     </row>
     <row r="7881" spans="1:2">
       <c r="A7881">
-        <v>0.05481603876641759</v>
+        <v>0.05481603876641758</v>
       </c>
       <c r="B7881">
         <v>-0.0540176469609519</v>
@@ -63415,7 +63415,7 @@
     </row>
     <row r="7883" spans="1:2">
       <c r="A7883">
-        <v>0.05273114823404278</v>
+        <v>0.05273114823404277</v>
       </c>
       <c r="B7883">
         <v>-0.04704405622687657</v>
@@ -63455,7 +63455,7 @@
     </row>
     <row r="7888" spans="1:2">
       <c r="A7888">
-        <v>0.04756919984842702</v>
+        <v>0.04756919984842701</v>
       </c>
       <c r="B7888">
         <v>-0.06309090913955018</v>
@@ -63463,7 +63463,7 @@
     </row>
     <row r="7889" spans="1:2">
       <c r="A7889">
-        <v>0.04687851634517573</v>
+        <v>0.04687851634517574</v>
       </c>
       <c r="B7889">
         <v>-0.0464129159919584</v>
@@ -63503,7 +63503,7 @@
     </row>
     <row r="7894" spans="1:2">
       <c r="A7894">
-        <v>0.04618066009053305</v>
+        <v>0.04618066009053304</v>
       </c>
       <c r="B7894">
         <v>-0.04897222917468191</v>
@@ -63551,7 +63551,7 @@
     </row>
     <row r="7900" spans="1:2">
       <c r="A7900">
-        <v>0.04595826927254604</v>
+        <v>0.04595826927254603</v>
       </c>
       <c r="B7900">
         <v>-0.03254148864364659</v>
@@ -63631,7 +63631,7 @@
     </row>
     <row r="7910" spans="1:2">
       <c r="A7910">
-        <v>0.03966772777489662</v>
+        <v>0.03966772777489663</v>
       </c>
       <c r="B7910">
         <v>-0.0327858692836096</v>
@@ -63679,7 +63679,7 @@
     </row>
     <row r="7916" spans="1:2">
       <c r="A7916">
-        <v>0.0335292243180231</v>
+        <v>0.03352922431802311</v>
       </c>
       <c r="B7916">
         <v>-0.03451855160561257</v>
@@ -63711,7 +63711,7 @@
     </row>
     <row r="7920" spans="1:2">
       <c r="A7920">
-        <v>0.03062147671350391</v>
+        <v>0.0306214767135039</v>
       </c>
       <c r="B7920">
         <v>-0.03739405349604397</v>
@@ -63783,7 +63783,7 @@
     </row>
     <row r="7929" spans="1:2">
       <c r="A7929">
-        <v>0.0270726724235515</v>
+        <v>0.02707267242355149</v>
       </c>
       <c r="B7929">
         <v>-0.0233862186440259</v>
@@ -63975,7 +63975,7 @@
     </row>
     <row r="7953" spans="1:2">
       <c r="A7953">
-        <v>0.02433182769024513</v>
+        <v>0.02433182769024512</v>
       </c>
       <c r="B7953">
         <v>-0.01764005723613327</v>
@@ -64071,7 +64071,7 @@
     </row>
     <row r="7965" spans="1:2">
       <c r="A7965">
-        <v>0.0192713358281521</v>
+        <v>0.01927133582815209</v>
       </c>
       <c r="B7965">
         <v>-0.02144104065939523</v>
@@ -64119,7 +64119,7 @@
     </row>
     <row r="7971" spans="1:2">
       <c r="A7971">
-        <v>0.01593944585289255</v>
+        <v>0.01593944585289256</v>
       </c>
       <c r="B7971">
         <v>-0.02217022907670296</v>
@@ -64247,7 +64247,7 @@
     </row>
     <row r="7987" spans="1:2">
       <c r="A7987">
-        <v>0.007961982534599885</v>
+        <v>0.007961982534599886</v>
       </c>
       <c r="B7987">
         <v>-0.01763116631992068</v>
@@ -64271,7 +64271,7 @@
     </row>
     <row r="7990" spans="1:2">
       <c r="A7990">
-        <v>0.007305605690296207</v>
+        <v>0.007305605690296208</v>
       </c>
       <c r="B7990">
         <v>-0.01398296838081947</v>
@@ -64359,7 +64359,7 @@
     </row>
     <row r="8001" spans="1:2">
       <c r="A8001">
-        <v>0.007201711895653823</v>
+        <v>0.007201711895653824</v>
       </c>
       <c r="B8001">
         <v>0.000338549527114651</v>
@@ -64383,7 +64383,7 @@
     </row>
     <row r="8004" spans="1:2">
       <c r="A8004">
-        <v>0.003775759627862136</v>
+        <v>0.003775759627859941</v>
       </c>
       <c r="B8004">
         <v>-0.005160032813267268</v>
@@ -64439,7 +64439,7 @@
     </row>
     <row r="8011" spans="1:2">
       <c r="A8011">
-        <v>-0.004476604864070427</v>
+        <v>-0.004476604864070428</v>
       </c>
       <c r="B8011">
         <v>-0.01762601078011761</v>
@@ -64743,7 +64743,7 @@
     </row>
     <row r="8049" spans="1:2">
       <c r="A8049">
-        <v>-0.04222325843780067</v>
+        <v>-0.04222325843780068</v>
       </c>
       <c r="B8049">
         <v>0.01702232995606501</v>
@@ -64783,7 +64783,7 @@
     </row>
     <row r="8054" spans="1:2">
       <c r="A8054">
-        <v>-0.04353198073205393</v>
+        <v>-0.04353198073205394</v>
       </c>
       <c r="B8054">
         <v>0.02967790772584289</v>
@@ -64855,7 +64855,7 @@
     </row>
     <row r="8063" spans="1:2">
       <c r="A8063">
-        <v>-0.04552449633729497</v>
+        <v>-0.04552449633729496</v>
       </c>
       <c r="B8063">
         <v>0.046481606538888</v>
@@ -64935,7 +64935,7 @@
     </row>
     <row r="8073" spans="1:2">
       <c r="A8073">
-        <v>-0.04867192648579448</v>
+        <v>-0.04867192648579447</v>
       </c>
       <c r="B8073">
         <v>0.04033763333844131</v>
@@ -64975,7 +64975,7 @@
     </row>
     <row r="8078" spans="1:2">
       <c r="A8078">
-        <v>-0.04641192648559424</v>
+        <v>-0.04641192648559425</v>
       </c>
       <c r="B8078">
         <v>0.04302082659733886</v>
@@ -65031,7 +65031,7 @@
     </row>
     <row r="8085" spans="1:2">
       <c r="A8085">
-        <v>-0.04551507240245659</v>
+        <v>-0.04551507240245658</v>
       </c>
       <c r="B8085">
         <v>0.03521421482651688</v>
@@ -65095,7 +65095,7 @@
     </row>
     <row r="8093" spans="1:2">
       <c r="A8093">
-        <v>-0.04589742164506757</v>
+        <v>-0.04589742164506756</v>
       </c>
       <c r="B8093">
         <v>0.02657605194268076</v>
@@ -65183,7 +65183,7 @@
     </row>
     <row r="8104" spans="1:2">
       <c r="A8104">
-        <v>-0.04446776977053684</v>
+        <v>-0.04446776977053683</v>
       </c>
       <c r="B8104">
         <v>0.02634399470847004</v>
@@ -65279,7 +65279,7 @@
     </row>
     <row r="8116" spans="1:2">
       <c r="A8116">
-        <v>-0.04062755006805349</v>
+        <v>-0.0406275500680535</v>
       </c>
       <c r="B8116">
         <v>0.0339464569942538</v>
@@ -65295,7 +65295,7 @@
     </row>
     <row r="8118" spans="1:2">
       <c r="A8118">
-        <v>-0.04061795918368752</v>
+        <v>-0.04061795918368753</v>
       </c>
       <c r="B8118">
         <v>0.0310238265183953</v>
@@ -65367,7 +65367,7 @@
     </row>
     <row r="8127" spans="1:2">
       <c r="A8127">
-        <v>-0.04064358435341618</v>
+        <v>-0.04064358435341617</v>
       </c>
       <c r="B8127">
         <v>0.02125130080682247</v>
@@ -65383,7 +65383,7 @@
     </row>
     <row r="8129" spans="1:2">
       <c r="A8129">
-        <v>-0.03996508694880775</v>
+        <v>-0.03996508694880774</v>
       </c>
       <c r="B8129">
         <v>0.02755956034914453</v>
@@ -65391,7 +65391,7 @@
     </row>
     <row r="8130" spans="1:2">
       <c r="A8130">
-        <v>-0.03931127937700952</v>
+        <v>-0.03931127937700951</v>
       </c>
       <c r="B8130">
         <v>0.02452548168255486</v>
@@ -65423,7 +65423,7 @@
     </row>
     <row r="8134" spans="1:2">
       <c r="A8134">
-        <v>-0.03492738770570616</v>
+        <v>-0.03492738770570617</v>
       </c>
       <c r="B8134">
         <v>0.03658490164580019</v>
@@ -65471,7 +65471,7 @@
     </row>
     <row r="8140" spans="1:2">
       <c r="A8140">
-        <v>-0.03035722200443211</v>
+        <v>-0.0303572220044321</v>
       </c>
       <c r="B8140">
         <v>0.03599585316759191</v>
@@ -65655,7 +65655,7 @@
     </row>
     <row r="8163" spans="1:2">
       <c r="A8163">
-        <v>-0.02853801563982947</v>
+        <v>-0.02853801563982946</v>
       </c>
       <c r="B8163">
         <v>0.01006337990345596</v>
@@ -65687,7 +65687,7 @@
     </row>
     <row r="8167" spans="1:2">
       <c r="A8167">
-        <v>-0.02875885650251595</v>
+        <v>-0.02875885650251596</v>
       </c>
       <c r="B8167">
         <v>0.0135391937813174</v>
@@ -65847,7 +65847,7 @@
     </row>
     <row r="8187" spans="1:2">
       <c r="A8187">
-        <v>-0.02866286987802487</v>
+        <v>-0.02866286987802488</v>
       </c>
       <c r="B8187">
         <v>0.02098794798046688</v>
@@ -65911,7 +65911,7 @@
     </row>
     <row r="8195" spans="1:2">
       <c r="A8195">
-        <v>-0.0254603905727412</v>
+        <v>-0.02546039057274121</v>
       </c>
       <c r="B8195">
         <v>0.02718222177471707</v>
@@ -65959,7 +65959,7 @@
     </row>
     <row r="8201" spans="1:2">
       <c r="A8201">
-        <v>-0.02084155389221179</v>
+        <v>-0.0208415538922118</v>
       </c>
       <c r="B8201">
         <v>0.0295125248732262</v>
@@ -65983,7 +65983,7 @@
     </row>
     <row r="8204" spans="1:2">
       <c r="A8204">
-        <v>-0.02048319042108371</v>
+        <v>-0.0204831904210837</v>
       </c>
       <c r="B8204">
         <v>0.02654258276772392</v>
@@ -66007,7 +66007,7 @@
     </row>
     <row r="8207" spans="1:2">
       <c r="A8207">
-        <v>-0.02178765026354616</v>
+        <v>-0.02178765026354615</v>
       </c>
       <c r="B8207">
         <v>0.01916206634305517</v>
@@ -66039,7 +66039,7 @@
     </row>
     <row r="8211" spans="1:2">
       <c r="A8211">
-        <v>-0.02176767786060968</v>
+        <v>-0.02176767786060967</v>
       </c>
       <c r="B8211">
         <v>0.01200834501456383</v>
@@ -66071,7 +66071,7 @@
     </row>
     <row r="8215" spans="1:2">
       <c r="A8215">
-        <v>-0.0201441100596826</v>
+        <v>-0.02014411005968259</v>
       </c>
       <c r="B8215">
         <v>0.01394586444663926</v>
@@ -66087,7 +66087,7 @@
     </row>
     <row r="8217" spans="1:2">
       <c r="A8217">
-        <v>-0.01887250360947563</v>
+        <v>-0.01887250360947564</v>
       </c>
       <c r="B8217">
         <v>0.0146168373599318</v>
@@ -66111,7 +66111,7 @@
     </row>
     <row r="8220" spans="1:2">
       <c r="A8220">
-        <v>-0.01646173792818693</v>
+        <v>-0.01646173792818694</v>
       </c>
       <c r="B8220">
         <v>0.01850217798368092</v>
@@ -66135,7 +66135,7 @@
     </row>
     <row r="8223" spans="1:2">
       <c r="A8223">
-        <v>-0.0136644174154101</v>
+        <v>-0.01366441741541011</v>
       </c>
       <c r="B8223">
         <v>0.02288025781642311</v>
@@ -66423,7 +66423,7 @@
     </row>
     <row r="8259" spans="1:2">
       <c r="A8259">
-        <v>-0.008102442576436459</v>
+        <v>-0.008102442576436457</v>
       </c>
       <c r="B8259">
         <v>0.01400006096930451</v>
@@ -66431,7 +66431,7 @@
     </row>
     <row r="8260" spans="1:2">
       <c r="A8260">
-        <v>-0.008712346421408675</v>
+        <v>-0.008712346421408673</v>
       </c>
       <c r="B8260">
         <v>0.0120795323791687</v>
@@ -66527,7 +66527,7 @@
     </row>
     <row r="8272" spans="1:2">
       <c r="A8272">
-        <v>-0.008052798201562765</v>
+        <v>-0.008052798201562766</v>
       </c>
       <c r="B8272">
         <v>0.006967390521423145</v>
@@ -66543,7 +66543,7 @@
     </row>
     <row r="8274" spans="1:2">
       <c r="A8274">
-        <v>-0.006042234495205606</v>
+        <v>-0.006042234495205607</v>
       </c>
       <c r="B8274">
         <v>0.01092827525386753</v>
@@ -66559,7 +66559,7 @@
     </row>
     <row r="8276" spans="1:2">
       <c r="A8276">
-        <v>-0.003609238923768939</v>
+        <v>-0.00360923892376894</v>
       </c>
       <c r="B8276">
         <v>0.01598874069504674</v>
@@ -66591,7 +66591,7 @@
     </row>
     <row r="8280" spans="1:2">
       <c r="A8280">
-        <v>-0.000339738678329382</v>
+        <v>-0.0003397386783293821</v>
       </c>
       <c r="B8280">
         <v>0.0193232086787134</v>
@@ -66599,7 +66599,7 @@
     </row>
     <row r="8281" spans="1:2">
       <c r="A8281">
-        <v>8.936279531078566E-05</v>
+        <v>8.936279531078567E-05</v>
       </c>
       <c r="B8281">
         <v>0.01897502150776464</v>
@@ -66663,7 +66663,7 @@
     </row>
     <row r="8289" spans="1:2">
       <c r="A8289">
-        <v>-0.0009630168742957464</v>
+        <v>-0.0009630168742957465</v>
       </c>
       <c r="B8289">
         <v>0.002815078109202673</v>
@@ -66703,7 +66703,7 @@
     </row>
     <row r="8294" spans="1:2">
       <c r="A8294">
-        <v>-0.003729706648836197</v>
+        <v>-0.003729706648836198</v>
       </c>
       <c r="B8294">
         <v>-0.009491996849010587</v>
@@ -66727,7 +66727,7 @@
     </row>
     <row r="8297" spans="1:2">
       <c r="A8297">
-        <v>-0.003409786178327001</v>
+        <v>-0.003409786178327002</v>
       </c>
       <c r="B8297">
         <v>-0.009973014332583574</v>
@@ -66815,7 +66815,7 @@
     </row>
     <row r="8308" spans="1:2">
       <c r="A8308">
-        <v>0.005415072824625287</v>
+        <v>0.005415072824625286</v>
       </c>
       <c r="B8308">
         <v>0.009477831462541886</v>
@@ -66887,7 +66887,7 @@
     </row>
     <row r="8317" spans="1:2">
       <c r="A8317">
-        <v>0.00364674908494625</v>
+        <v>0.003646749084946251</v>
       </c>
       <c r="B8317">
         <v>-0.003017001194564273</v>
@@ -66927,7 +66927,7 @@
     </row>
     <row r="8322" spans="1:2">
       <c r="A8322">
-        <v>3.228454669059552E-05</v>
+        <v>3.228454669059551E-05</v>
       </c>
       <c r="B8322">
         <v>-0.01412006123975207</v>
@@ -66959,7 +66959,7 @@
     </row>
     <row r="8326" spans="1:2">
       <c r="A8326">
-        <v>7.146452320864026E-05</v>
+        <v>7.146452320864028E-05</v>
       </c>
       <c r="B8326">
         <v>-0.01311715303677818</v>
@@ -67007,7 +67007,7 @@
     </row>
     <row r="8332" spans="1:2">
       <c r="A8332">
-        <v>0.004057082945561402</v>
+        <v>0.004057082945561403</v>
       </c>
       <c r="B8332">
         <v>0.0006483577288691755</v>
@@ -67055,7 +67055,7 @@
     </row>
     <row r="8338" spans="1:2">
       <c r="A8338">
-        <v>0.005638072379363844</v>
+        <v>0.005638072379363845</v>
       </c>
       <c r="B8338">
         <v>0.004982050567353014</v>
@@ -67079,7 +67079,7 @@
     </row>
     <row r="8341" spans="1:2">
       <c r="A8341">
-        <v>0.004416320926611197</v>
+        <v>0.004416320926611196</v>
       </c>
       <c r="B8341">
         <v>0.001096059297741814</v>
@@ -67095,7 +67095,7 @@
     </row>
     <row r="8343" spans="1:2">
       <c r="A8343">
-        <v>0.003048095607531366</v>
+        <v>0.003048095607531365</v>
       </c>
       <c r="B8343">
         <v>-0.002730482199597706</v>
@@ -67127,7 +67127,7 @@
     </row>
     <row r="8347" spans="1:2">
       <c r="A8347">
-        <v>-0.0007632370600967965</v>
+        <v>-0.0007632370600967966</v>
       </c>
       <c r="B8347">
         <v>-0.01203242139586358</v>
@@ -67199,7 +67199,7 @@
     </row>
     <row r="8356" spans="1:2">
       <c r="A8356">
-        <v>-0.0001254460095912754</v>
+        <v>-0.0001254460095912753</v>
       </c>
       <c r="B8356">
         <v>-0.004394787816871748</v>
@@ -67207,7 +67207,7 @@
     </row>
     <row r="8357" spans="1:2">
       <c r="A8357">
-        <v>0.0005164420869903157</v>
+        <v>0.0005164420869903158</v>
       </c>
       <c r="B8357">
         <v>-0.001812309046288263</v>
@@ -67311,7 +67311,7 @@
     </row>
     <row r="8370" spans="1:2">
       <c r="A8370">
-        <v>0.004402940210357289</v>
+        <v>0.00440294021035729</v>
       </c>
       <c r="B8370">
         <v>0.004898326974875467</v>
@@ -67319,7 +67319,7 @@
     </row>
     <row r="8371" spans="1:2">
       <c r="A8371">
-        <v>0.003923143982235085</v>
+        <v>0.003923143982235084</v>
       </c>
       <c r="B8371">
         <v>0.002755512438857632</v>
@@ -67439,7 +67439,7 @@
     </row>
     <row r="8386" spans="1:2">
       <c r="A8386">
-        <v>-0.0006455677499348417</v>
+        <v>-0.0006455677499348415</v>
       </c>
       <c r="B8386">
         <v>-0.006341685730305802</v>
@@ -67471,7 +67471,7 @@
     </row>
     <row r="8390" spans="1:2">
       <c r="A8390">
-        <v>0.002465437625153716</v>
+        <v>0.002465437625153715</v>
       </c>
       <c r="B8390">
         <v>0.004389797330595968</v>
@@ -67607,7 +67607,7 @@
     </row>
     <row r="8407" spans="1:2">
       <c r="A8407">
-        <v>-0.003721586463219028</v>
+        <v>-0.003721586463219029</v>
       </c>
       <c r="B8407">
         <v>-0.01260822388096328</v>
@@ -67695,7 +67695,7 @@
     </row>
     <row r="8418" spans="1:2">
       <c r="A8418">
-        <v>0.0005665545501324753</v>
+        <v>0.0005665545501324754</v>
       </c>
       <c r="B8418">
         <v>0.005847795635266717</v>
@@ -67735,7 +67735,7 @@
     </row>
     <row r="8423" spans="1:2">
       <c r="A8423">
-        <v>0.002259936979847766</v>
+        <v>0.002259936979847765</v>
       </c>
       <c r="B8423">
         <v>0.01032991882553924</v>
@@ -67767,7 +67767,7 @@
     </row>
     <row r="8427" spans="1:2">
       <c r="A8427">
-        <v>0.0006475372571539415</v>
+        <v>0.0006475372571539414</v>
       </c>
       <c r="B8427">
         <v>0.004638058170706838</v>
@@ -67783,7 +67783,7 @@
     </row>
     <row r="8429" spans="1:2">
       <c r="A8429">
-        <v>-0.0008129061974193962</v>
+        <v>-0.0008129061974193961</v>
       </c>
       <c r="B8429">
         <v>0.0001009175981794286</v>
@@ -67863,7 +67863,7 @@
     </row>
     <row r="8439" spans="1:2">
       <c r="A8439">
-        <v>-0.001572166897560972</v>
+        <v>-0.001572166897560973</v>
       </c>
       <c r="B8439">
         <v>-0.001382954575305018</v>
@@ -67871,7 +67871,7 @@
     </row>
     <row r="8440" spans="1:2">
       <c r="A8440">
-        <v>-0.0007766889238391921</v>
+        <v>-0.0007766889238391922</v>
       </c>
       <c r="B8440">
         <v>0.0008934453165894141</v>
@@ -67991,7 +67991,7 @@
     </row>
     <row r="8455" spans="1:2">
       <c r="A8455">
-        <v>-0.00247931062074632</v>
+        <v>-0.002479310620746321</v>
       </c>
       <c r="B8455">
         <v>-0.00750008065490837</v>
@@ -68007,7 +68007,7 @@
     </row>
     <row r="8457" spans="1:2">
       <c r="A8457">
-        <v>-0.003559490050106011</v>
+        <v>-0.003559490050106012</v>
       </c>
       <c r="B8457">
         <v>-0.01024513037091745</v>
@@ -68015,7 +68015,7 @@
     </row>
     <row r="8458" spans="1:2">
       <c r="A8458">
-        <v>-0.003755254631338491</v>
+        <v>-0.003755254631338492</v>
       </c>
       <c r="B8458">
         <v>-0.01012498877597245</v>
@@ -68215,7 +68215,7 @@
     </row>
     <row r="8483" spans="1:2">
       <c r="A8483">
-        <v>-0.007044686252473475</v>
+        <v>-0.007044686252473476</v>
       </c>
       <c r="B8483">
         <v>-0.0002716859910050218</v>
@@ -68223,7 +68223,7 @@
     </row>
     <row r="8484" spans="1:2">
       <c r="A8484">
-        <v>-0.007295140949686882</v>
+        <v>-0.007295140949686883</v>
       </c>
       <c r="B8484">
         <v>-0.002021023513641751</v>
@@ -68255,7 +68255,7 @@
     </row>
     <row r="8488" spans="1:2">
       <c r="A8488">
-        <v>-0.008408593789288489</v>
+        <v>-0.008408593789288488</v>
       </c>
       <c r="B8488">
         <v>0.002814778653379868</v>
@@ -68319,7 +68319,7 @@
     </row>
     <row r="8496" spans="1:2">
       <c r="A8496">
-        <v>-0.01069613290722454</v>
+        <v>-0.01069613290722455</v>
       </c>
       <c r="B8496">
         <v>0.01048843478536998</v>
@@ -68479,7 +68479,7 @@
     </row>
     <row r="8516" spans="1:2">
       <c r="A8516">
-        <v>-0.02243559251013954</v>
+        <v>-0.02243559251013953</v>
       </c>
       <c r="B8516">
         <v>0.01488557259340428</v>
@@ -68631,7 +68631,7 @@
     </row>
     <row r="8535" spans="1:2">
       <c r="A8535">
-        <v>-0.04021026742056446</v>
+        <v>-0.04021026742056447</v>
       </c>
       <c r="B8535">
         <v>0.01963014887207049</v>
@@ -68655,7 +68655,7 @@
     </row>
     <row r="8538" spans="1:2">
       <c r="A8538">
-        <v>-0.03999297008211427</v>
+        <v>-0.03999297008211428</v>
       </c>
       <c r="B8538">
         <v>0.03096797274061824</v>
@@ -68663,7 +68663,7 @@
     </row>
     <row r="8539" spans="1:2">
       <c r="A8539">
-        <v>-0.04025454998815172</v>
+        <v>-0.04025454998815173</v>
       </c>
       <c r="B8539">
         <v>0.02681319835616591</v>
@@ -68767,7 +68767,7 @@
     </row>
     <row r="8552" spans="1:2">
       <c r="A8552">
-        <v>-0.04361125771591626</v>
+        <v>-0.04361125771591625</v>
       </c>
       <c r="B8552">
         <v>0.03969253204730716</v>
@@ -68775,7 +68775,7 @@
     </row>
     <row r="8553" spans="1:2">
       <c r="A8553">
-        <v>-0.04462342221546874</v>
+        <v>-0.04462342221546873</v>
       </c>
       <c r="B8553">
         <v>0.04242612023761616</v>
@@ -68935,7 +68935,7 @@
     </row>
     <row r="8573" spans="1:2">
       <c r="A8573">
-        <v>-0.05539301498031129</v>
+        <v>-0.05539301498031128</v>
       </c>
       <c r="B8573">
         <v>0.05448253363543998</v>
@@ -68943,7 +68943,7 @@
     </row>
     <row r="8574" spans="1:2">
       <c r="A8574">
-        <v>-0.05482648813142715</v>
+        <v>-0.05482648813142716</v>
       </c>
       <c r="B8574">
         <v>0.04876930099442145</v>
@@ -68983,7 +68983,7 @@
     </row>
     <row r="8579" spans="1:2">
       <c r="A8579">
-        <v>-0.05760607367456037</v>
+        <v>-0.05760607367456038</v>
       </c>
       <c r="B8579">
         <v>0.04873772042738533</v>
@@ -69015,7 +69015,7 @@
     </row>
     <row r="8583" spans="1:2">
       <c r="A8583">
-        <v>-0.06089532282554029</v>
+        <v>-0.06089532282554028</v>
       </c>
       <c r="B8583">
         <v>0.05434234203642863</v>
@@ -69071,7 +69071,7 @@
     </row>
     <row r="8590" spans="1:2">
       <c r="A8590">
-        <v>-0.0693813621274926</v>
+        <v>-0.06938136212749259</v>
       </c>
       <c r="B8590">
         <v>0.038676792170107</v>
@@ -69151,7 +69151,7 @@
     </row>
     <row r="8600" spans="1:2">
       <c r="A8600">
-        <v>-0.0747261196904235</v>
+        <v>-0.07472611969042352</v>
       </c>
       <c r="B8600">
         <v>0.04874925867053825</v>
@@ -69183,7 +69183,7 @@
     </row>
     <row r="8604" spans="1:2">
       <c r="A8604">
-        <v>-0.075185389584906</v>
+        <v>-0.07518538958490599</v>
       </c>
       <c r="B8604">
         <v>0.04903618835553925</v>
@@ -69207,7 +69207,7 @@
     </row>
     <row r="8607" spans="1:2">
       <c r="A8607">
-        <v>-0.07672559471781057</v>
+        <v>-0.07672559471781056</v>
       </c>
       <c r="B8607">
         <v>0.05616209861307109</v>
@@ -69255,7 +69255,7 @@
     </row>
     <row r="8613" spans="1:2">
       <c r="A8613">
-        <v>-0.07988779130704787</v>
+        <v>-0.07988779130704786</v>
       </c>
       <c r="B8613">
         <v>0.06734150380916137</v>
@@ -69367,7 +69367,7 @@
     </row>
     <row r="8627" spans="1:2">
       <c r="A8627">
-        <v>-0.09235343501274978</v>
+        <v>-0.0923534350127498</v>
       </c>
       <c r="B8627">
         <v>0.05382998183919163</v>
@@ -69383,7 +69383,7 @@
     </row>
     <row r="8629" spans="1:2">
       <c r="A8629">
-        <v>-0.09304793779364068</v>
+        <v>-0.09304793779364066</v>
       </c>
       <c r="B8629">
         <v>0.07126481491106684</v>
@@ -69399,7 +69399,7 @@
     </row>
     <row r="8631" spans="1:2">
       <c r="A8631">
-        <v>-0.09278268256861058</v>
+        <v>-0.09278268256861059</v>
       </c>
       <c r="B8631">
         <v>0.07261422679488128</v>
@@ -69431,7 +69431,7 @@
     </row>
     <row r="8635" spans="1:2">
       <c r="A8635">
-        <v>-0.09114041481219889</v>
+        <v>-0.09114041481219891</v>
       </c>
       <c r="B8635">
         <v>0.07512220959912863</v>
@@ -69447,7 +69447,7 @@
     </row>
     <row r="8637" spans="1:2">
       <c r="A8637">
-        <v>-0.09029040609457817</v>
+        <v>-0.09029040609457815</v>
       </c>
       <c r="B8637">
         <v>0.07467673158616073</v>
@@ -69463,7 +69463,7 @@
     </row>
     <row r="8639" spans="1:2">
       <c r="A8639">
-        <v>-0.09094416670577704</v>
+        <v>-0.09094416670577705</v>
       </c>
       <c r="B8639">
         <v>0.08807841253170956</v>
@@ -69495,7 +69495,7 @@
     </row>
     <row r="8643" spans="1:2">
       <c r="A8643">
-        <v>-0.09387549686472466</v>
+        <v>-0.09387549686472464</v>
       </c>
       <c r="B8643">
         <v>0.07400814787068288</v>
@@ -69519,7 +69519,7 @@
     </row>
     <row r="8646" spans="1:2">
       <c r="A8646">
-        <v>-0.09418713563688103</v>
+        <v>-0.09418713563688101</v>
       </c>
       <c r="B8646">
         <v>0.07526478926389402</v>
@@ -69575,7 +69575,7 @@
     </row>
     <row r="8653" spans="1:2">
       <c r="A8653">
-        <v>-0.08957266131913943</v>
+        <v>-0.08957266131913945</v>
       </c>
       <c r="B8653">
         <v>0.0775437304137272</v>
@@ -69599,7 +69599,7 @@
     </row>
     <row r="8656" spans="1:2">
       <c r="A8656">
-        <v>-0.08541041661342128</v>
+        <v>-0.08541041661342129</v>
       </c>
       <c r="B8656">
         <v>0.08635323648000703</v>
@@ -69783,7 +69783,7 @@
     </row>
     <row r="8679" spans="1:2">
       <c r="A8679">
-        <v>-0.07788565386476426</v>
+        <v>-0.07788565386476425</v>
       </c>
       <c r="B8679">
         <v>0.05751837500459889</v>
@@ -69807,7 +69807,7 @@
     </row>
     <row r="8682" spans="1:2">
       <c r="A8682">
-        <v>-0.07460749456706958</v>
+        <v>-0.07460749456706957</v>
       </c>
       <c r="B8682">
         <v>0.06486988499973201</v>
@@ -69903,7 +69903,7 @@
     </row>
     <row r="8694" spans="1:2">
       <c r="A8694">
-        <v>-0.06744129104144669</v>
+        <v>-0.06744129104144671</v>
       </c>
       <c r="B8694">
         <v>0.063433903660016</v>
@@ -69943,7 +69943,7 @@
     </row>
     <row r="8699" spans="1:2">
       <c r="A8699">
-        <v>-0.06551991573399557</v>
+        <v>-0.06551991573399556</v>
       </c>
       <c r="B8699">
         <v>0.05973218870546493</v>
@@ -69959,7 +69959,7 @@
     </row>
     <row r="8701" spans="1:2">
       <c r="A8701">
-        <v>-0.06578087240624278</v>
+        <v>-0.06578087240624279</v>
       </c>
       <c r="B8701">
         <v>0.05341520657623988</v>
@@ -69999,7 +69999,7 @@
     </row>
     <row r="8706" spans="1:2">
       <c r="A8706">
-        <v>-0.06305081246995844</v>
+        <v>-0.06305081246995843</v>
       </c>
       <c r="B8706">
         <v>0.0527742944116536</v>
@@ -70055,7 +70055,7 @@
     </row>
     <row r="8713" spans="1:2">
       <c r="A8713">
-        <v>-0.06206920735172798</v>
+        <v>-0.06206920735172797</v>
       </c>
       <c r="B8713">
         <v>0.04407060937475293</v>
@@ -70199,7 +70199,7 @@
     </row>
     <row r="8731" spans="1:2">
       <c r="A8731">
-        <v>-0.05720872909301497</v>
+        <v>-0.05720872909301496</v>
       </c>
       <c r="B8731">
         <v>0.0435469971686917</v>
@@ -70751,7 +70751,7 @@
     </row>
     <row r="8800" spans="1:2">
       <c r="A8800">
-        <v>-0.08669056051773705</v>
+        <v>-0.08669056051773703</v>
       </c>
       <c r="B8800">
         <v>0.08579965381496546</v>
@@ -70991,7 +70991,7 @@
     </row>
     <row r="8830" spans="1:2">
       <c r="A8830">
-        <v>-0.1178487688573668</v>
+        <v>-0.1178487688573669</v>
       </c>
       <c r="B8830">
         <v>0.09140675167159884</v>
@@ -71151,7 +71151,7 @@
     </row>
     <row r="8850" spans="1:2">
       <c r="A8850">
-        <v>-0.1174808654708625</v>
+        <v>-0.1174808654708624</v>
       </c>
       <c r="B8850">
         <v>0.08996084130624871</v>
@@ -71159,7 +71159,7 @@
     </row>
     <row r="8851" spans="1:2">
       <c r="A8851">
-        <v>-0.1167478718897398</v>
+        <v>-0.1167478718897399</v>
       </c>
       <c r="B8851">
         <v>0.0971730832730695</v>
@@ -71327,7 +71327,7 @@
     </row>
     <row r="8872" spans="1:2">
       <c r="A8872">
-        <v>-0.08211003457118723</v>
+        <v>-0.08211003457118722</v>
       </c>
       <c r="B8872">
         <v>0.104576518805056</v>
@@ -71423,7 +71423,7 @@
     </row>
     <row r="8884" spans="1:2">
       <c r="A8884">
-        <v>-0.08559893894232254</v>
+        <v>-0.08559893894232252</v>
       </c>
       <c r="B8884">
         <v>0.05443010740617993</v>
@@ -71471,7 +71471,7 @@
     </row>
     <row r="8890" spans="1:2">
       <c r="A8890">
-        <v>-0.08171288761241308</v>
+        <v>-0.08171288761241306</v>
       </c>
       <c r="B8890">
         <v>0.04589228842823623</v>
@@ -71495,7 +71495,7 @@
     </row>
     <row r="8893" spans="1:2">
       <c r="A8893">
-        <v>-0.07584506016636397</v>
+        <v>-0.07584506016636396</v>
       </c>
       <c r="B8893">
         <v>0.06101236185197667</v>
@@ -71527,7 +71527,7 @@
     </row>
     <row r="8897" spans="1:2">
       <c r="A8897">
-        <v>-0.06793842781543585</v>
+        <v>-0.06793842781543584</v>
       </c>
       <c r="B8897">
         <v>0.07002855796165708</v>
@@ -71551,7 +71551,7 @@
     </row>
     <row r="8900" spans="1:2">
       <c r="A8900">
-        <v>-0.06446982521040737</v>
+        <v>-0.06446982521040735</v>
       </c>
       <c r="B8900">
         <v>0.0762835143333378</v>
@@ -71575,7 +71575,7 @@
     </row>
     <row r="8903" spans="1:2">
       <c r="A8903">
-        <v>-0.06267630466561397</v>
+        <v>-0.06267630466561395</v>
       </c>
       <c r="B8903">
         <v>0.07615130001957571</v>
@@ -71623,7 +71623,7 @@
     </row>
     <row r="8909" spans="1:2">
       <c r="A8909">
-        <v>-0.06132223114330783</v>
+        <v>-0.06132223114330782</v>
       </c>
       <c r="B8909">
         <v>0.06656770382402843</v>
@@ -71719,7 +71719,7 @@
     </row>
     <row r="8921" spans="1:2">
       <c r="A8921">
-        <v>-0.06139827850832665</v>
+        <v>-0.06139827850832664</v>
       </c>
       <c r="B8921">
         <v>0.03891032360176494</v>
@@ -71767,7 +71767,7 @@
     </row>
     <row r="8927" spans="1:2">
       <c r="A8927">
-        <v>-0.05395474714304168</v>
+        <v>-0.05395474714304169</v>
       </c>
       <c r="B8927">
         <v>0.04510210033282558</v>
@@ -71791,7 +71791,7 @@
     </row>
     <row r="8930" spans="1:2">
       <c r="A8930">
-        <v>-0.05123685800054449</v>
+        <v>-0.05123685800054448</v>
       </c>
       <c r="B8930">
         <v>0.05036673527784608</v>
@@ -71855,7 +71855,7 @@
     </row>
     <row r="8938" spans="1:2">
       <c r="A8938">
-        <v>-0.04629692954390293</v>
+        <v>-0.04629692954390292</v>
       </c>
       <c r="B8938">
         <v>0.04971021656898866</v>
@@ -71903,7 +71903,7 @@
     </row>
     <row r="8944" spans="1:2">
       <c r="A8944">
-        <v>-0.04239195828549514</v>
+        <v>-0.04239195828549513</v>
       </c>
       <c r="B8944">
         <v>0.04800716165944907</v>
@@ -71919,7 +71919,7 @@
     </row>
     <row r="8946" spans="1:2">
       <c r="A8946">
-        <v>-0.04101013248892855</v>
+        <v>-0.04101013248892854</v>
       </c>
       <c r="B8946">
         <v>0.04506345938749767</v>
@@ -71927,7 +71927,7 @@
     </row>
     <row r="8947" spans="1:2">
       <c r="A8947">
-        <v>-0.04018027135082899</v>
+        <v>-0.04018027135082898</v>
       </c>
       <c r="B8947">
         <v>0.04005348698037992</v>
@@ -71967,7 +71967,7 @@
     </row>
     <row r="8952" spans="1:2">
       <c r="A8952">
-        <v>-0.03584727114656773</v>
+        <v>-0.03584727114656774</v>
       </c>
       <c r="B8952">
         <v>0.03825677133865968</v>
@@ -72055,7 +72055,7 @@
     </row>
     <row r="8963" spans="1:2">
       <c r="A8963">
-        <v>-0.024995733614436</v>
+        <v>-0.02499573361443601</v>
       </c>
       <c r="B8963">
         <v>0.03764537431150261</v>
@@ -72095,7 +72095,7 @@
     </row>
     <row r="8968" spans="1:2">
       <c r="A8968">
-        <v>-0.02487720738585015</v>
+        <v>-0.02487720738585016</v>
       </c>
       <c r="B8968">
         <v>0.02398304961291275</v>
@@ -72103,7 +72103,7 @@
     </row>
     <row r="8969" spans="1:2">
       <c r="A8969">
-        <v>-0.02476229938796202</v>
+        <v>-0.02476229938796201</v>
       </c>
       <c r="B8969">
         <v>0.02334946964041773</v>
@@ -72111,7 +72111,7 @@
     </row>
     <row r="8970" spans="1:2">
       <c r="A8970">
-        <v>-0.02466977000994151</v>
+        <v>-0.02466977000994152</v>
       </c>
       <c r="B8970">
         <v>0.01885014640112903</v>
@@ -72127,7 +72127,7 @@
     </row>
     <row r="8972" spans="1:2">
       <c r="A8972">
-        <v>-0.02386177646701869</v>
+        <v>-0.02386177646701868</v>
       </c>
       <c r="B8972">
         <v>0.0158410431107705</v>
@@ -72151,7 +72151,7 @@
     </row>
     <row r="8975" spans="1:2">
       <c r="A8975">
-        <v>-0.02191929285456533</v>
+        <v>-0.02191929285456532</v>
       </c>
       <c r="B8975">
         <v>0.01616667219037993</v>
@@ -72247,7 +72247,7 @@
     </row>
     <row r="8987" spans="1:2">
       <c r="A8987">
-        <v>-0.01310314732456064</v>
+        <v>-0.01310314732456063</v>
       </c>
       <c r="B8987">
         <v>0.01843058046352386</v>
@@ -72343,7 +72343,7 @@
     </row>
     <row r="8999" spans="1:2">
       <c r="A8999">
-        <v>-0.00654925075290339</v>
+        <v>-0.006549250752903391</v>
       </c>
       <c r="B8999">
         <v>0.01699595453266101</v>
@@ -72375,7 +72375,7 @@
     </row>
     <row r="9003" spans="1:2">
       <c r="A9003">
-        <v>-0.002470237400494297</v>
+        <v>-0.002470237400494296</v>
       </c>
       <c r="B9003">
         <v>0.01945159842588895</v>
@@ -72463,7 +72463,7 @@
     </row>
     <row r="9014" spans="1:2">
       <c r="A9014">
-        <v>-0.00205542732196446</v>
+        <v>-0.002055427321964459</v>
       </c>
       <c r="B9014">
         <v>-0.0032803869486564</v>
@@ -72471,7 +72471,7 @@
     </row>
     <row r="9015" spans="1:2">
       <c r="A9015">
-        <v>-0.002700468071052617</v>
+        <v>-0.002700468071052618</v>
       </c>
       <c r="B9015">
         <v>-0.006353481905496672</v>
@@ -72503,7 +72503,7 @@
     </row>
     <row r="9019" spans="1:2">
       <c r="A9019">
-        <v>-0.003217375960796359</v>
+        <v>-0.003217375960796358</v>
       </c>
       <c r="B9019">
         <v>-0.01139347103027433</v>
@@ -72583,7 +72583,7 @@
     </row>
     <row r="9029" spans="1:2">
       <c r="A9029">
-        <v>0.003958894561137287</v>
+        <v>0.003958894561137288</v>
       </c>
       <c r="B9029">
         <v>0.005487252377024188</v>
@@ -72599,7 +72599,7 @@
     </row>
     <row r="9031" spans="1:2">
       <c r="A9031">
-        <v>0.004508580894154838</v>
+        <v>0.004508580894154837</v>
       </c>
       <c r="B9031">
         <v>0.0063790149019054</v>
@@ -72607,7 +72607,7 @@
     </row>
     <row r="9032" spans="1:2">
       <c r="A9032">
-        <v>0.004565939579231109</v>
+        <v>0.00456593957923111</v>
       </c>
       <c r="B9032">
         <v>0.006197547745383503</v>
@@ -72663,7 +72663,7 @@
     </row>
     <row r="9039" spans="1:2">
       <c r="A9039">
-        <v>0.0005650476983818638</v>
+        <v>0.0005650476983818637</v>
       </c>
       <c r="B9039">
         <v>-0.00603371911566164</v>
@@ -72831,7 +72831,7 @@
     </row>
     <row r="9060" spans="1:2">
       <c r="A9060">
-        <v>0.002031137675494106</v>
+        <v>0.002031137675494105</v>
       </c>
       <c r="B9060">
         <v>0.001833289740526656</v>
@@ -72855,7 +72855,7 @@
     </row>
     <row r="9063" spans="1:2">
       <c r="A9063">
-        <v>-0.0006132311784718952</v>
+        <v>-0.0006132311784718954</v>
       </c>
       <c r="B9063">
         <v>-0.005255305939153132</v>
@@ -72975,7 +72975,7 @@
     </row>
     <row r="9078" spans="1:2">
       <c r="A9078">
-        <v>0.002580233664308916</v>
+        <v>0.002580233664308917</v>
       </c>
       <c r="B9078">
         <v>0.00805128886907136</v>
@@ -72983,7 +72983,7 @@
     </row>
     <row r="9079" spans="1:2">
       <c r="A9079">
-        <v>0.002553370183960899</v>
+        <v>0.0025533701839609</v>
       </c>
       <c r="B9079">
         <v>0.007923878876206825</v>
@@ -73135,7 +73135,7 @@
     </row>
     <row r="9098" spans="1:2">
       <c r="A9098">
-        <v>-0.001185499174030649</v>
+        <v>-0.001185499174030648</v>
       </c>
       <c r="B9098">
         <v>0.001170182207780535</v>
@@ -73183,7 +73183,7 @@
     </row>
     <row r="9104" spans="1:2">
       <c r="A9104">
-        <v>0.001850349297815288</v>
+        <v>0.001850349297815302</v>
       </c>
       <c r="B9104">
         <v>0.009159986310881774</v>
@@ -73279,7 +73279,7 @@
     </row>
     <row r="9116" spans="1:2">
       <c r="A9116">
-        <v>-0.004445039725062423</v>
+        <v>-0.004445039725062424</v>
       </c>
       <c r="B9116">
         <v>-0.009316299114796145</v>
@@ -73295,7 +73295,7 @@
     </row>
     <row r="9118" spans="1:2">
       <c r="A9118">
-        <v>-0.004212551976661666</v>
+        <v>-0.004212551976661665</v>
       </c>
       <c r="B9118">
         <v>-0.007984724914284147</v>
